--- a/bigdata调查/kafka数据hive存储访问.xlsx
+++ b/bigdata调查/kafka数据hive存储访问.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" tabRatio="920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" tabRatio="920"/>
   </bookViews>
   <sheets>
-    <sheet name="Spark读取方案" sheetId="9" r:id="rId1"/>
-    <sheet name="Gobblin读取方案" sheetId="2" r:id="rId2"/>
-    <sheet name="Gobblin原理总结" sheetId="8" r:id="rId3"/>
-    <sheet name="Gobblin 实施" sheetId="5" r:id="rId4"/>
-    <sheet name="Gobblin方案结论" sheetId="7" r:id="rId5"/>
-    <sheet name="hive 外表实施" sheetId="3" r:id="rId6"/>
-    <sheet name="Confluent Kafka Connectors（开源）" sheetId="4" r:id="rId7"/>
-    <sheet name="Flume+HDFS+Kafka+Hive" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
+    <sheet name="Spark读取方案" sheetId="9" r:id="rId2"/>
+    <sheet name="Gobblin读取方案" sheetId="2" r:id="rId3"/>
+    <sheet name="Gobblin原理总结" sheetId="8" r:id="rId4"/>
+    <sheet name="Gobblin 实施" sheetId="5" r:id="rId5"/>
+    <sheet name="Gobblin方案结论" sheetId="7" r:id="rId6"/>
+    <sheet name="hive 外表实施" sheetId="3" r:id="rId7"/>
+    <sheet name="Confluent Kafka Connectors（开源）" sheetId="4" r:id="rId8"/>
+    <sheet name="Flume+HDFS+Kafka+Hive" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="460">
   <si>
     <t>方案1</t>
   </si>
@@ -384,7 +385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +396,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -554,7 +555,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -565,7 +566,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,7 +594,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -604,7 +605,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -615,7 +616,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -626,7 +627,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -639,7 +640,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -650,7 +651,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -661,7 +662,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -672,7 +673,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -723,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,7 +735,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -819,7 +820,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -829,7 +830,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,7 +854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -864,7 +865,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -874,7 +875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -937,7 +938,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -947,7 +948,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -957,7 +958,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1072,7 +1073,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1083,7 +1084,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1094,7 +1095,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1285,7 +1286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1319,7 +1320,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1333,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,22 +1774,130 @@
   <si>
     <t>https://blog.csdn.net/m0_37786447/article/details/80608531</t>
   </si>
+  <si>
+    <t>表结构</t>
+  </si>
+  <si>
+    <t>day 作为分区</t>
+  </si>
+  <si>
+    <t>以 train_ID作为分区</t>
+  </si>
+  <si>
+    <t>ROW FORMAT DELIMITED FIELDS TERMINATED BY '\t'</t>
+  </si>
+  <si>
+    <t>stored as textfile</t>
+  </si>
+  <si>
+    <t>分桶</t>
+  </si>
+  <si>
+    <t>后续如果有需要，可以在分桶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create external table phm(pid string, item string, vid string, value string) </t>
+  </si>
+  <si>
+    <t>location '/hive/phm/data/';</t>
+  </si>
+  <si>
+    <t>clustered by (pid) sorted by (pid asc) into 4 buckets</t>
+  </si>
+  <si>
+    <t>partitioned by(day string, trainid string)</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/whdxjbw/article/details/82219022</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/654wangzai321/p/9970162.html</t>
+  </si>
+  <si>
+    <t>全套 shell方案</t>
+  </si>
+  <si>
+    <t>MultipleSequenceFileOutputFormat</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/king_old_six/article/details/81349692</t>
+  </si>
+  <si>
+    <t>generateFileNameForKeyValue</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/zgc625238677/article/details/53928320/</t>
+  </si>
+  <si>
+    <t>spark 将dataframe数据写入Hive分区表</t>
+  </si>
+  <si>
+    <t>app_device_info.write.format("parquet").option("path", "/user/hadoop/warehouse/app/app_device_info")</t>
+  </si>
+  <si>
+    <t>.partitionBy("y", "m").mode("overwrite").saveAsTable("my_database.app_device_info")</t>
+  </si>
+  <si>
+    <t>hivecontext.sql(s"""insert into table my_database.${tableNane}) partition(y='s{year}'，m='${month}'，d='${day}')</t>
+  </si>
+  <si>
+    <t>select t.*,  '${year}' as y, '${month}' as m,  '${day}' as d  from tmpTable t""")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--------------------- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者：简之 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">来源：CSDN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">原文：https://blog.csdn.net/olizxq/article/details/82807583 </t>
+  </si>
+  <si>
+    <t>版权声明：本文为博主原创文章，转载请附上博文链接！</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/code2one/p/9872010.html</t>
+  </si>
+  <si>
+    <t>可分隔的文件类和压缩</t>
+  </si>
+  <si>
+    <t>把文件复制多份存到HDFS中，可以提高I/O效率（并行读写）。但同时要管理好压缩。本书推荐Parquet和gzip。</t>
+  </si>
+  <si>
+    <t>partition输出（Bucketing可能更好）</t>
+  </si>
+  <si>
+    <t>csvFile.write.mode("overwrite").partitionBy("DEST_COUNTRY_NAME").save()</t>
+  </si>
+  <si>
+    <t>这样每个country都有一个folder。当用户经常filter某个对象，可以用这种方式输出</t>
+  </si>
+  <si>
+    <t>Bucketing</t>
+  </si>
+  <si>
+    <t>控制数据写到制定的每个file，这样在读取，join或agg时，就可以避免一些shuffle。</t>
+  </si>
+  <si>
+    <t>csvFile.write.format("parquet").mode("overwrite")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .bucketBy(numberBuckets, columnToBucketBy).saveAsTable("bucketedFiles")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1796,15 +1905,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1812,7 +1920,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1820,7 +1928,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1828,20 +1936,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.2"/>
+      <sz val="10.199999999999999"/>
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.35"/>
-      <name val="等线"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1849,8 +1957,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1863,7 +1970,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1871,7 +1978,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1879,21 +1986,21 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1902,134 +2009,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2061,8 +2040,23 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2071,19 +2065,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,194 +2093,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2559,255 +2367,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2821,10 +2390,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2843,26 +2409,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2876,72 +2459,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2952,7 +2481,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2974,7 +2503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3016,7 +2545,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3058,7 +2587,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3100,7 +2629,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3183,7 +2712,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3266,7 +2795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3332,7 +2861,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3346,7 +2875,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -3381,6 +2910,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -3391,11 +2921,6 @@
             </a:rPr>
             <a:t>Kafka</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3414,7 +2939,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="平行四边形 2"/>
         <xdr:cNvSpPr/>
@@ -3449,6 +2974,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -3459,11 +2985,6 @@
             </a:rPr>
             <a:t>Kafka Connect</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3482,7 +3003,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
@@ -3626,11 +3147,6 @@
             </a:rPr>
             <a:t>HDFS</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3649,7 +3165,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
         <xdr:cNvCxnSpPr>
@@ -3705,7 +3221,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
         <xdr:cNvCxnSpPr>
@@ -3761,7 +3277,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="下箭头 6"/>
         <xdr:cNvSpPr/>
@@ -3799,6 +3315,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -3809,11 +3326,6 @@
             </a:rPr>
             <a:t>Json</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3832,7 +3344,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
@@ -3976,11 +3488,6 @@
             </a:rPr>
             <a:t>Hive</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3999,7 +3506,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
         <xdr:cNvCxnSpPr>
@@ -4330,77 +3837,347 @@
       </a:style>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:M69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="D6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="E7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="G8" s="40" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="G9" s="40" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="40" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="40" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="41"/>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="40"/>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="D48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C39" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.6" spans="1:2">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="1:5">
       <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="5:5">
+    <row r="11" spans="1:5">
       <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:5">
       <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="5:5">
+    <row r="14" spans="1:5">
       <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:5">
       <c r="D16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="1:10">
       <c r="E17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="1:10">
       <c r="F18" t="s">
         <v>11</v>
       </c>
@@ -4417,7 +4194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="1:10">
       <c r="F19" t="s">
         <v>16</v>
       </c>
@@ -4434,81 +4211,81 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="1:10">
       <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:10">
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:10">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:10">
       <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:10">
       <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:10">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:3">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="43"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="17" t="s">
+      <c r="C34" s="35"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:9">
       <c r="C38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="1:9">
       <c r="D39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="1:9">
       <c r="C41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="1:9">
       <c r="D42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="5:9">
+    <row r="43" spans="1:9">
       <c r="E43" t="s">
         <v>11</v>
       </c>
@@ -4525,7 +4302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="5:9">
+    <row r="44" spans="1:9">
       <c r="E44" t="s">
         <v>16</v>
       </c>
@@ -4542,115 +4319,115 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:5">
       <c r="B53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:5">
       <c r="B54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="3:5">
+    <row r="59" spans="1:5">
       <c r="C59" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="1:5">
       <c r="C60" t="s">
         <v>38</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="1:5">
       <c r="C61" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="3:5">
+    <row r="62" spans="1:5">
       <c r="C62" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="3:5">
+    <row r="63" spans="1:5">
       <c r="C63" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="1:9">
       <c r="C68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="1:9">
       <c r="D69" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="9:9">
+    <row r="71" spans="1:9">
       <c r="I71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" ht="14.4" spans="4:9">
-      <c r="D72" s="44" t="s">
+    <row r="72" spans="1:9" ht="15">
+      <c r="D72" s="36" t="s">
         <v>51</v>
       </c>
       <c r="I72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="9:9">
+    <row r="73" spans="1:9">
       <c r="I73" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="4:9">
+    <row r="74" spans="1:9">
       <c r="D74" t="s">
         <v>54</v>
       </c>
@@ -4658,7 +4435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="4:9">
+    <row r="75" spans="1:9">
       <c r="D75" t="s">
         <v>56</v>
       </c>
@@ -4666,22 +4443,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" s="42" customFormat="1"/>
-    <row r="79" ht="20.4" spans="1:1">
-      <c r="A79" s="16" t="s">
+    <row r="77" spans="1:9" s="34" customFormat="1"/>
+    <row r="79" spans="1:9" ht="21">
+      <c r="A79" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:9">
-      <c r="C80" s="45" t="s">
+    <row r="80" spans="1:9">
+      <c r="C80" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="46"/>
+      <c r="D80" s="38"/>
       <c r="I80" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:10">
       <c r="B81" t="s">
         <v>60</v>
       </c>
@@ -4689,12 +4466,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="9:9">
+    <row r="82" spans="2:10">
       <c r="I82">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="3:9">
+    <row r="83" spans="2:10">
       <c r="C83" t="s">
         <v>62</v>
       </c>
@@ -4702,12 +4479,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="9:9">
+    <row r="84" spans="2:10">
       <c r="I84">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="3:10">
+    <row r="85" spans="2:10">
       <c r="C85" t="s">
         <v>63</v>
       </c>
@@ -4719,12 +4496,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="2:10">
       <c r="C86" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="3:9">
+    <row r="87" spans="2:10">
       <c r="C87" t="s">
         <v>66</v>
       </c>
@@ -4732,17 +4509,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="2:10">
       <c r="C89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="2:10">
       <c r="D90" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:10">
       <c r="B92" t="s">
         <v>70</v>
       </c>
@@ -4750,32 +4527,32 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="2:10">
       <c r="C93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="2:10">
       <c r="C94" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="2:10">
       <c r="C96" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="1:4">
       <c r="D97" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="1:4">
       <c r="C99" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="1:4">
       <c r="B101" t="s">
         <v>76</v>
       </c>
@@ -4783,15 +4560,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" ht="13" customHeight="1" spans="1:1">
-      <c r="A103" s="16"/>
-    </row>
-    <row r="104" ht="20.4" spans="1:1">
-      <c r="A104" s="16" t="s">
+    <row r="103" spans="1:4" ht="13.05" customHeight="1">
+      <c r="A103" s="15"/>
+    </row>
+    <row r="104" spans="1:4" ht="21">
+      <c r="A104" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="1:4">
       <c r="B106" t="s">
         <v>60</v>
       </c>
@@ -4799,17 +4576,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="1:4">
       <c r="C107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="1:4">
       <c r="D108" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="1:4">
       <c r="B110" t="s">
         <v>81</v>
       </c>
@@ -4817,790 +4594,788 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="1:4">
       <c r="C111" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:3">
       <c r="B116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="1:3">
       <c r="C117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="1:3">
       <c r="C118" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="1:3">
       <c r="C119" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="1:3">
       <c r="C120" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="1:3">
       <c r="C121" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="1:3">
       <c r="C122" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="1:3">
       <c r="B124" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D79" sqref="D79:E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="9.55555555555556" customWidth="1"/>
-    <col min="4" max="4" width="9.22222222222222" customWidth="1"/>
-    <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="12.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="14.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:10">
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" ht="15.6" spans="1:11">
+    <row r="1" spans="1:16">
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="18"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="10:10">
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="2:12">
+    <row r="3" spans="1:16">
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="32"/>
       <c r="L4" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="10:10">
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="3:13">
+    <row r="5" spans="1:16">
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="32"/>
       <c r="M6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="10:10">
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="3:16">
-      <c r="C8" s="17" t="s">
+    <row r="7" spans="1:16">
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="M8" s="41" t="s">
+      <c r="J8" s="32"/>
+      <c r="M8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-    </row>
-    <row r="9" spans="10:16">
-      <c r="J9" s="40"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-    </row>
-    <row r="10" spans="4:16">
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="J9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="D10" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41" t="s">
+      <c r="J10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-    </row>
-    <row r="11" spans="10:10">
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="4:10">
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="4:10">
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="D13" s="3"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="4:10">
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="D14" s="3"/>
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" ht="14.55" spans="4:10">
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="D15" s="3"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" ht="21.15" spans="5:10">
-      <c r="E16" s="20" t="s">
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:16" ht="21">
+      <c r="E16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <v>109</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="44"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="J19" s="40"/>
+      <c r="H19" s="44"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" ht="14.55" spans="5:10">
-      <c r="E21" s="29" t="s">
+      <c r="H20" s="44"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="27">
         <v>32</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="J21" s="40"/>
+      <c r="H21" s="45"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="29">
         <v>1</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="J23" s="40"/>
+      <c r="H23" s="47"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="25">
         <v>32</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="J24" s="40"/>
+      <c r="H24" s="47"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="J25" s="40"/>
+      <c r="H25" s="47"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="J26" s="40"/>
+      <c r="H26" s="47"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="J27" s="40"/>
+      <c r="H27" s="47"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="5:10">
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="25">
         <v>1</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="J28" s="40"/>
+      <c r="H28" s="47"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="5:10">
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="J29" s="40"/>
-    </row>
-    <row r="30" ht="14.55" spans="5:10">
-      <c r="E30" s="29" t="s">
+      <c r="H29" s="47"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="E30" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="27">
         <v>32</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="J30" s="40"/>
+      <c r="H30" s="48"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="5:10">
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="29">
         <v>1</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="5:10">
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="25">
         <v>1</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="J32" s="40"/>
+      <c r="H32" s="44"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="5:10">
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="28"/>
-      <c r="J33" s="40"/>
+      <c r="H33" s="44"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="5:10">
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="28"/>
-      <c r="J34" s="40"/>
+      <c r="H34" s="44"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="5:10">
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="25">
         <v>32</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="J35" s="40"/>
+      <c r="H35" s="44"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="5:10">
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="28"/>
-      <c r="J36" s="40"/>
+      <c r="H36" s="44"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="5:10">
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H37" s="28"/>
-      <c r="J37" s="40"/>
+      <c r="H37" s="44"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="5:10">
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="25">
         <v>1</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="J38" s="40"/>
+      <c r="H38" s="44"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="5:10">
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="J39" s="40"/>
+      <c r="H39" s="44"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="5:10">
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="J40" s="40"/>
+      <c r="H40" s="44"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="5:10">
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="J41" s="40"/>
+      <c r="H41" s="44"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="5:10">
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H42" s="28"/>
-      <c r="J42" s="40"/>
+      <c r="H42" s="44"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="5:10">
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="J43" s="40"/>
+      <c r="H43" s="44"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="5:10">
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="25">
         <v>1</v>
       </c>
-      <c r="H44" s="28"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="44"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="5:10">
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="25">
         <v>1</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="J45" s="40"/>
+      <c r="H45" s="44"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="5:10">
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="J46" s="40"/>
+      <c r="H46" s="44"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="5:10">
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="28"/>
-      <c r="J47" s="40"/>
+      <c r="H47" s="44"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="5:10">
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="25">
         <v>32</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="J48" s="40"/>
-    </row>
-    <row r="49" spans="5:10">
-      <c r="E49" s="26" t="s">
+      <c r="H48" s="44"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="E49" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="28"/>
-      <c r="J49" s="40"/>
-    </row>
-    <row r="50" spans="5:10">
-      <c r="E50" s="26" t="s">
+      <c r="H49" s="44"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="E50" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="28"/>
-      <c r="J50" s="40"/>
-    </row>
-    <row r="51" spans="5:10">
-      <c r="E51" s="26" t="s">
+      <c r="H50" s="44"/>
+      <c r="J50" s="32"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="E51" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="25">
         <v>1</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="J51" s="40"/>
-    </row>
-    <row r="52" ht="14.55" spans="5:10">
-      <c r="E52" s="29" t="s">
+      <c r="H51" s="44"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="E52" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="H52" s="31"/>
-      <c r="J52" s="40"/>
-    </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="40"/>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="40"/>
-    </row>
-    <row r="55" spans="3:13">
-      <c r="C55" s="17" t="s">
+      <c r="H52" s="45"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="J53" s="32"/>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="C55" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="J55" s="40"/>
-      <c r="M55" s="17" t="s">
+      <c r="J55" s="32"/>
+      <c r="M55" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="10:10">
-      <c r="J56" s="40"/>
-    </row>
-    <row r="57" spans="4:14">
+    <row r="56" spans="2:16">
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="2:16">
       <c r="D57" t="s">
         <v>147</v>
       </c>
-      <c r="J57" s="40"/>
+      <c r="J57" s="32"/>
       <c r="N57" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="5:16">
-      <c r="E58" s="38" t="s">
+    <row r="58" spans="2:16">
+      <c r="E58" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="38" t="s">
+      <c r="F58" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="J58" s="40"/>
-      <c r="O58" s="38" t="s">
+      <c r="J58" s="32"/>
+      <c r="O58" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="P58" s="38" t="s">
+      <c r="P58" s="30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="5:16">
-      <c r="E59" s="39" t="s">
+    <row r="59" spans="2:16">
+      <c r="E59" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="39" t="s">
+      <c r="F59" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J59" s="40"/>
-      <c r="O59" s="39" t="s">
+      <c r="J59" s="32"/>
+      <c r="O59" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P59" s="39" t="s">
+      <c r="P59" s="31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="5:16">
-      <c r="E60" s="39" t="s">
+    <row r="60" spans="2:16">
+      <c r="E60" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="J60" s="40"/>
-      <c r="O60" s="39" t="s">
+      <c r="J60" s="32"/>
+      <c r="O60" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="P60" s="39" t="s">
+      <c r="P60" s="31" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="5:16">
-      <c r="E61" s="39" t="s">
+    <row r="61" spans="2:16">
+      <c r="E61" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="J61" s="40"/>
-      <c r="O61" s="39" t="s">
+      <c r="J61" s="32"/>
+      <c r="O61" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P61" s="39" t="s">
+      <c r="P61" s="31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="10:10">
-      <c r="J62" s="40"/>
-    </row>
-    <row r="63" spans="10:10">
-      <c r="J63" s="40"/>
-    </row>
-    <row r="64" spans="2:12">
+    <row r="62" spans="2:16">
+      <c r="J62" s="32"/>
+    </row>
+    <row r="63" spans="2:16">
+      <c r="J63" s="32"/>
+    </row>
+    <row r="64" spans="2:16">
       <c r="B64" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J64" s="40"/>
+      <c r="J64" s="32"/>
       <c r="L64" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:14">
       <c r="B65" s="3"/>
-      <c r="J65" s="40"/>
-    </row>
-    <row r="66" spans="2:13">
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="2:14">
       <c r="B66" s="3"/>
       <c r="C66" t="s">
         <v>154</v>
       </c>
-      <c r="J66" s="40"/>
+      <c r="J66" s="32"/>
       <c r="M66" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:14">
       <c r="B67" s="3"/>
-      <c r="J67" s="40"/>
+      <c r="J67" s="32"/>
     </row>
     <row r="68" spans="2:14">
       <c r="B68" s="3"/>
       <c r="D68" t="s">
         <v>155</v>
       </c>
-      <c r="J68" s="40"/>
+      <c r="J68" s="32"/>
       <c r="N68" t="s">
         <v>155</v>
       </c>
@@ -5610,125 +5385,125 @@
       <c r="D69" t="s">
         <v>156</v>
       </c>
-      <c r="J69" s="40"/>
+      <c r="J69" s="32"/>
       <c r="N69" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:14">
       <c r="B70" s="3"/>
       <c r="D70" t="s">
         <v>157</v>
       </c>
-      <c r="J70" s="40"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="2:14">
       <c r="B71" s="3"/>
-      <c r="J71" s="40"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="J71" s="32"/>
+    </row>
+    <row r="72" spans="2:14">
       <c r="B72" s="3"/>
-      <c r="J72" s="40"/>
-    </row>
-    <row r="73" spans="2:12">
+      <c r="J72" s="32"/>
+    </row>
+    <row r="73" spans="2:14">
       <c r="B73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="40"/>
+      <c r="J73" s="32"/>
       <c r="L73" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="10:10">
-      <c r="J74" s="40"/>
-    </row>
-    <row r="75" spans="3:13">
+    <row r="74" spans="2:14">
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="2:14">
       <c r="C75" t="s">
         <v>158</v>
       </c>
-      <c r="J75" s="40"/>
+      <c r="J75" s="32"/>
       <c r="M75" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="10:10">
-      <c r="J76" s="40"/>
-    </row>
-    <row r="77" spans="10:10">
-      <c r="J77" s="40"/>
-    </row>
-    <row r="78" spans="10:10">
-      <c r="J78" s="40"/>
-    </row>
-    <row r="79" spans="4:10">
-      <c r="D79" s="39" t="s">
+    <row r="76" spans="2:14">
+      <c r="J76" s="32"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="J77" s="32"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="D79" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J79" s="40"/>
-    </row>
-    <row r="80" spans="4:10">
-      <c r="D80" s="39" t="s">
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="D80" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J80" s="40"/>
-    </row>
-    <row r="81" spans="4:10">
-      <c r="D81" s="39" t="s">
+      <c r="J80" s="32"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="D81" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J81" s="40"/>
-    </row>
-    <row r="82" spans="4:10">
-      <c r="D82" s="39" t="s">
+      <c r="J81" s="32"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="D82" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="39" t="s">
+      <c r="E82" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="J82" s="40"/>
-    </row>
-    <row r="83" spans="4:10">
-      <c r="D83" s="39" t="s">
+      <c r="J82" s="32"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="D83" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="J83" s="40"/>
-    </row>
-    <row r="84" spans="10:10">
-      <c r="J84" s="40"/>
-    </row>
-    <row r="85" spans="10:10">
-      <c r="J85" s="40"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="J84" s="32"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="J85" s="32"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="3"/>
-      <c r="J86" s="40"/>
-    </row>
-    <row r="87" spans="10:10">
-      <c r="J87" s="40"/>
-    </row>
-    <row r="88" spans="10:10">
-      <c r="J88" s="40"/>
-    </row>
-    <row r="89" spans="10:10">
-      <c r="J89" s="40"/>
-    </row>
-    <row r="90" spans="10:10">
-      <c r="J90" s="40"/>
-    </row>
-    <row r="91" spans="10:10">
-      <c r="J91" s="40"/>
+      <c r="J86" s="32"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="J89" s="32"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="J90" s="32"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="J91" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5737,58 +5512,56 @@
     <mergeCell ref="H31:H52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S288"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" ht="20.4" spans="1:1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:2" ht="21">
+      <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" ht="13" customHeight="1"/>
-    <row r="36" ht="20.4" spans="1:1">
-      <c r="A36" s="16" t="s">
+    <row r="6" spans="1:2" ht="13.05" customHeight="1"/>
+    <row r="36" spans="1:2" ht="21">
+      <c r="A36" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
       <c r="B37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:3">
       <c r="B56" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="2:3">
       <c r="C57" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="17" t="s">
+    <row r="58" spans="2:3">
+      <c r="C58" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:3">
       <c r="B59" s="3" t="s">
         <v>168</v>
       </c>
@@ -5799,83 +5572,83 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="2:3">
       <c r="C61" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="2:3">
       <c r="C62" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:3">
       <c r="B63" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="2:3">
       <c r="C64" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="1:3">
       <c r="C65" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="1:3">
       <c r="C66" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:3">
       <c r="B67" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="1:3">
       <c r="C68" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="1:3">
       <c r="C69" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:3">
       <c r="B70" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="1:3">
       <c r="C71" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:3">
       <c r="B72" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="1:3">
       <c r="C73" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3">
       <c r="B75" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3">
       <c r="B76" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="79" ht="20.4" spans="1:1">
-      <c r="A79" s="16" t="s">
+    <row r="79" spans="1:3" ht="21">
+      <c r="A79" s="15" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5884,158 +5657,158 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:3">
       <c r="B108" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="2:3">
       <c r="C109" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="2:3">
       <c r="C110" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:3">
       <c r="B111" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="2:3">
       <c r="C112" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="2:4">
       <c r="C113" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="2:4">
       <c r="C114" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:4">
       <c r="B115" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="2:4">
       <c r="C116" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="2:4">
       <c r="C117" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:4">
       <c r="B118" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="17" t="s">
+    <row r="119" spans="2:4">
+      <c r="C119" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="2:4">
       <c r="C120" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:4">
       <c r="B121" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="2:4">
       <c r="C122" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="2:4">
       <c r="C123" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="4:4">
+    <row r="124" spans="2:4">
       <c r="D124" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="2:4">
       <c r="D125" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:4">
       <c r="B126" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="2:4">
       <c r="C127" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="2:4">
       <c r="C128" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:3">
       <c r="B129" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="1:3">
       <c r="C130" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:3">
       <c r="B131" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="1:3">
       <c r="C132" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="134" ht="20.4" spans="1:1">
-      <c r="A134" s="16" t="s">
+    <row r="134" spans="1:3" ht="21">
+      <c r="A134" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="1:3">
       <c r="C136" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:3">
       <c r="B138" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="1:3">
       <c r="B139" s="3"/>
       <c r="C139" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="1:3">
       <c r="C142" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:3">
       <c r="B167" s="3" t="s">
         <v>216</v>
       </c>
@@ -6046,12 +5819,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="2:3">
       <c r="C170" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:6">
       <c r="B195" s="3" t="s">
         <v>218</v>
       </c>
@@ -6071,491 +5844,491 @@
       <c r="B198" s="3"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:6">
       <c r="B201" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="227" ht="20.4" spans="1:1">
-      <c r="A227" s="16" t="s">
+    <row r="227" spans="1:3" ht="21">
+      <c r="A227" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="1:3">
       <c r="C229" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="233" ht="20.4" spans="1:1">
-      <c r="A233" s="16" t="s">
+    <row r="233" spans="1:3" ht="21">
+      <c r="A233" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="1:3">
       <c r="C235" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="237" spans="3:3">
+    <row r="237" spans="1:3">
       <c r="C237" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="240" ht="20.4" spans="1:1">
-      <c r="A240" s="16" t="s">
+    <row r="240" spans="1:3" ht="21">
+      <c r="A240" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="242" ht="17.4" spans="2:2">
-      <c r="B242" s="18" t="s">
+    <row r="242" spans="2:4" ht="18">
+      <c r="B242" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="243" spans="3:3">
+    <row r="243" spans="2:4">
       <c r="C243" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="3:3">
+    <row r="244" spans="2:4">
       <c r="C244" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="4:4">
+    <row r="245" spans="2:4">
       <c r="D245" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="246" spans="3:4">
+    <row r="246" spans="2:4">
       <c r="C246" t="s">
         <v>230</v>
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="4:4">
+    <row r="247" spans="2:4">
       <c r="D247" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="250" ht="17.4" spans="2:2">
-      <c r="B250" s="18" t="s">
+    <row r="250" spans="2:4" ht="18">
+      <c r="B250" s="17" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="251" spans="3:3">
+    <row r="251" spans="2:4">
       <c r="C251" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="253" ht="17.4" spans="2:2">
-      <c r="B253" s="18" t="s">
+    <row r="253" spans="2:4" ht="18">
+      <c r="B253" s="17" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="254" ht="17.4" spans="2:3">
-      <c r="B254" s="18"/>
+    <row r="254" spans="2:4" ht="18">
+      <c r="B254" s="17"/>
       <c r="C254" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="255" spans="4:4">
+    <row r="255" spans="2:4">
       <c r="D255" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="257" spans="3:3">
+    <row r="257" spans="3:19">
       <c r="C257" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="259" spans="4:4">
+    <row r="259" spans="3:19">
       <c r="D259" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="3:19">
       <c r="D261" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="263" spans="4:4">
+    <row r="263" spans="3:19">
       <c r="D263" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="264" spans="5:5">
+    <row r="264" spans="3:19">
       <c r="E264" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="266" spans="4:19">
-      <c r="D266" s="14" t="s">
+    <row r="266" spans="3:19">
+      <c r="D266" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6"/>
-      <c r="G266" s="6"/>
-      <c r="H266" s="6"/>
-      <c r="I266" s="6"/>
-      <c r="J266" s="6"/>
-      <c r="K266" s="6"/>
-      <c r="L266" s="6"/>
-      <c r="M266" s="6"/>
-      <c r="N266" s="6"/>
-      <c r="O266" s="6"/>
-      <c r="P266" s="6"/>
-      <c r="Q266" s="6"/>
-      <c r="R266" s="6"/>
-      <c r="S266" s="6"/>
-    </row>
-    <row r="267" spans="4:19">
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6"/>
-      <c r="G267" s="6"/>
-      <c r="H267" s="6"/>
-      <c r="I267" s="6"/>
-      <c r="J267" s="6"/>
-      <c r="K267" s="6"/>
-      <c r="L267" s="6"/>
-      <c r="M267" s="6"/>
-      <c r="N267" s="6"/>
-      <c r="O267" s="6"/>
-      <c r="P267" s="6"/>
-      <c r="Q267" s="6"/>
-      <c r="R267" s="6"/>
-      <c r="S267" s="6"/>
-    </row>
-    <row r="268" spans="4:19">
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6"/>
-      <c r="G268" s="6"/>
-      <c r="H268" s="6"/>
-      <c r="I268" s="6"/>
-      <c r="J268" s="6"/>
-      <c r="K268" s="6"/>
-      <c r="L268" s="6"/>
-      <c r="M268" s="6"/>
-      <c r="N268" s="6"/>
-      <c r="O268" s="6"/>
-      <c r="P268" s="6"/>
-      <c r="Q268" s="6"/>
-      <c r="R268" s="6"/>
-      <c r="S268" s="6"/>
-    </row>
-    <row r="269" spans="4:19">
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-      <c r="F269" s="6"/>
-      <c r="G269" s="6"/>
-      <c r="H269" s="6"/>
-      <c r="I269" s="6"/>
-      <c r="J269" s="6"/>
-      <c r="K269" s="6"/>
-      <c r="L269" s="6"/>
-      <c r="M269" s="6"/>
-      <c r="N269" s="6"/>
-      <c r="O269" s="6"/>
-      <c r="P269" s="6"/>
-      <c r="Q269" s="6"/>
-      <c r="R269" s="6"/>
-      <c r="S269" s="6"/>
-    </row>
-    <row r="270" spans="4:19">
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6"/>
-      <c r="G270" s="6"/>
-      <c r="H270" s="6"/>
-      <c r="I270" s="6"/>
-      <c r="J270" s="6"/>
-      <c r="K270" s="6"/>
-      <c r="L270" s="6"/>
-      <c r="M270" s="6"/>
-      <c r="N270" s="6"/>
-      <c r="O270" s="6"/>
-      <c r="P270" s="6"/>
-      <c r="Q270" s="6"/>
-      <c r="R270" s="6"/>
-      <c r="S270" s="6"/>
-    </row>
-    <row r="271" spans="4:19">
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6"/>
-      <c r="G271" s="6"/>
-      <c r="H271" s="6"/>
-      <c r="I271" s="6"/>
-      <c r="J271" s="6"/>
-      <c r="K271" s="6"/>
-      <c r="L271" s="6"/>
-      <c r="M271" s="6"/>
-      <c r="N271" s="6"/>
-      <c r="O271" s="6"/>
-      <c r="P271" s="6"/>
-      <c r="Q271" s="6"/>
-      <c r="R271" s="6"/>
-      <c r="S271" s="6"/>
-    </row>
-    <row r="272" spans="4:19">
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
-      <c r="G272" s="6"/>
-      <c r="H272" s="6"/>
-      <c r="I272" s="6"/>
-      <c r="J272" s="6"/>
-      <c r="K272" s="6"/>
-      <c r="L272" s="6"/>
-      <c r="M272" s="6"/>
-      <c r="N272" s="6"/>
-      <c r="O272" s="6"/>
-      <c r="P272" s="6"/>
-      <c r="Q272" s="6"/>
-      <c r="R272" s="6"/>
-      <c r="S272" s="6"/>
+      <c r="E266" s="51"/>
+      <c r="F266" s="51"/>
+      <c r="G266" s="51"/>
+      <c r="H266" s="51"/>
+      <c r="I266" s="51"/>
+      <c r="J266" s="51"/>
+      <c r="K266" s="51"/>
+      <c r="L266" s="51"/>
+      <c r="M266" s="51"/>
+      <c r="N266" s="51"/>
+      <c r="O266" s="51"/>
+      <c r="P266" s="51"/>
+      <c r="Q266" s="51"/>
+      <c r="R266" s="51"/>
+      <c r="S266" s="51"/>
+    </row>
+    <row r="267" spans="3:19">
+      <c r="D267" s="51"/>
+      <c r="E267" s="51"/>
+      <c r="F267" s="51"/>
+      <c r="G267" s="51"/>
+      <c r="H267" s="51"/>
+      <c r="I267" s="51"/>
+      <c r="J267" s="51"/>
+      <c r="K267" s="51"/>
+      <c r="L267" s="51"/>
+      <c r="M267" s="51"/>
+      <c r="N267" s="51"/>
+      <c r="O267" s="51"/>
+      <c r="P267" s="51"/>
+      <c r="Q267" s="51"/>
+      <c r="R267" s="51"/>
+      <c r="S267" s="51"/>
+    </row>
+    <row r="268" spans="3:19">
+      <c r="D268" s="51"/>
+      <c r="E268" s="51"/>
+      <c r="F268" s="51"/>
+      <c r="G268" s="51"/>
+      <c r="H268" s="51"/>
+      <c r="I268" s="51"/>
+      <c r="J268" s="51"/>
+      <c r="K268" s="51"/>
+      <c r="L268" s="51"/>
+      <c r="M268" s="51"/>
+      <c r="N268" s="51"/>
+      <c r="O268" s="51"/>
+      <c r="P268" s="51"/>
+      <c r="Q268" s="51"/>
+      <c r="R268" s="51"/>
+      <c r="S268" s="51"/>
+    </row>
+    <row r="269" spans="3:19">
+      <c r="D269" s="51"/>
+      <c r="E269" s="51"/>
+      <c r="F269" s="51"/>
+      <c r="G269" s="51"/>
+      <c r="H269" s="51"/>
+      <c r="I269" s="51"/>
+      <c r="J269" s="51"/>
+      <c r="K269" s="51"/>
+      <c r="L269" s="51"/>
+      <c r="M269" s="51"/>
+      <c r="N269" s="51"/>
+      <c r="O269" s="51"/>
+      <c r="P269" s="51"/>
+      <c r="Q269" s="51"/>
+      <c r="R269" s="51"/>
+      <c r="S269" s="51"/>
+    </row>
+    <row r="270" spans="3:19">
+      <c r="D270" s="51"/>
+      <c r="E270" s="51"/>
+      <c r="F270" s="51"/>
+      <c r="G270" s="51"/>
+      <c r="H270" s="51"/>
+      <c r="I270" s="51"/>
+      <c r="J270" s="51"/>
+      <c r="K270" s="51"/>
+      <c r="L270" s="51"/>
+      <c r="M270" s="51"/>
+      <c r="N270" s="51"/>
+      <c r="O270" s="51"/>
+      <c r="P270" s="51"/>
+      <c r="Q270" s="51"/>
+      <c r="R270" s="51"/>
+      <c r="S270" s="51"/>
+    </row>
+    <row r="271" spans="3:19">
+      <c r="D271" s="51"/>
+      <c r="E271" s="51"/>
+      <c r="F271" s="51"/>
+      <c r="G271" s="51"/>
+      <c r="H271" s="51"/>
+      <c r="I271" s="51"/>
+      <c r="J271" s="51"/>
+      <c r="K271" s="51"/>
+      <c r="L271" s="51"/>
+      <c r="M271" s="51"/>
+      <c r="N271" s="51"/>
+      <c r="O271" s="51"/>
+      <c r="P271" s="51"/>
+      <c r="Q271" s="51"/>
+      <c r="R271" s="51"/>
+      <c r="S271" s="51"/>
+    </row>
+    <row r="272" spans="3:19">
+      <c r="D272" s="51"/>
+      <c r="E272" s="51"/>
+      <c r="F272" s="51"/>
+      <c r="G272" s="51"/>
+      <c r="H272" s="51"/>
+      <c r="I272" s="51"/>
+      <c r="J272" s="51"/>
+      <c r="K272" s="51"/>
+      <c r="L272" s="51"/>
+      <c r="M272" s="51"/>
+      <c r="N272" s="51"/>
+      <c r="O272" s="51"/>
+      <c r="P272" s="51"/>
+      <c r="Q272" s="51"/>
+      <c r="R272" s="51"/>
+      <c r="S272" s="51"/>
     </row>
     <row r="273" spans="4:19">
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-      <c r="F273" s="6"/>
-      <c r="G273" s="6"/>
-      <c r="H273" s="6"/>
-      <c r="I273" s="6"/>
-      <c r="J273" s="6"/>
-      <c r="K273" s="6"/>
-      <c r="L273" s="6"/>
-      <c r="M273" s="6"/>
-      <c r="N273" s="6"/>
-      <c r="O273" s="6"/>
-      <c r="P273" s="6"/>
-      <c r="Q273" s="6"/>
-      <c r="R273" s="6"/>
-      <c r="S273" s="6"/>
+      <c r="D273" s="51"/>
+      <c r="E273" s="51"/>
+      <c r="F273" s="51"/>
+      <c r="G273" s="51"/>
+      <c r="H273" s="51"/>
+      <c r="I273" s="51"/>
+      <c r="J273" s="51"/>
+      <c r="K273" s="51"/>
+      <c r="L273" s="51"/>
+      <c r="M273" s="51"/>
+      <c r="N273" s="51"/>
+      <c r="O273" s="51"/>
+      <c r="P273" s="51"/>
+      <c r="Q273" s="51"/>
+      <c r="R273" s="51"/>
+      <c r="S273" s="51"/>
     </row>
     <row r="274" spans="4:19">
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
-      <c r="G274" s="6"/>
-      <c r="H274" s="6"/>
-      <c r="I274" s="6"/>
-      <c r="J274" s="6"/>
-      <c r="K274" s="6"/>
-      <c r="L274" s="6"/>
-      <c r="M274" s="6"/>
-      <c r="N274" s="6"/>
-      <c r="O274" s="6"/>
-      <c r="P274" s="6"/>
-      <c r="Q274" s="6"/>
-      <c r="R274" s="6"/>
-      <c r="S274" s="6"/>
+      <c r="D274" s="51"/>
+      <c r="E274" s="51"/>
+      <c r="F274" s="51"/>
+      <c r="G274" s="51"/>
+      <c r="H274" s="51"/>
+      <c r="I274" s="51"/>
+      <c r="J274" s="51"/>
+      <c r="K274" s="51"/>
+      <c r="L274" s="51"/>
+      <c r="M274" s="51"/>
+      <c r="N274" s="51"/>
+      <c r="O274" s="51"/>
+      <c r="P274" s="51"/>
+      <c r="Q274" s="51"/>
+      <c r="R274" s="51"/>
+      <c r="S274" s="51"/>
     </row>
     <row r="275" spans="4:19">
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-      <c r="F275" s="6"/>
-      <c r="G275" s="6"/>
-      <c r="H275" s="6"/>
-      <c r="I275" s="6"/>
-      <c r="J275" s="6"/>
-      <c r="K275" s="6"/>
-      <c r="L275" s="6"/>
-      <c r="M275" s="6"/>
-      <c r="N275" s="6"/>
-      <c r="O275" s="6"/>
-      <c r="P275" s="6"/>
-      <c r="Q275" s="6"/>
-      <c r="R275" s="6"/>
-      <c r="S275" s="6"/>
+      <c r="D275" s="51"/>
+      <c r="E275" s="51"/>
+      <c r="F275" s="51"/>
+      <c r="G275" s="51"/>
+      <c r="H275" s="51"/>
+      <c r="I275" s="51"/>
+      <c r="J275" s="51"/>
+      <c r="K275" s="51"/>
+      <c r="L275" s="51"/>
+      <c r="M275" s="51"/>
+      <c r="N275" s="51"/>
+      <c r="O275" s="51"/>
+      <c r="P275" s="51"/>
+      <c r="Q275" s="51"/>
+      <c r="R275" s="51"/>
+      <c r="S275" s="51"/>
     </row>
     <row r="276" spans="4:19">
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="6"/>
-      <c r="G276" s="6"/>
-      <c r="H276" s="6"/>
-      <c r="I276" s="6"/>
-      <c r="J276" s="6"/>
-      <c r="K276" s="6"/>
-      <c r="L276" s="6"/>
-      <c r="M276" s="6"/>
-      <c r="N276" s="6"/>
-      <c r="O276" s="6"/>
-      <c r="P276" s="6"/>
-      <c r="Q276" s="6"/>
-      <c r="R276" s="6"/>
-      <c r="S276" s="6"/>
+      <c r="D276" s="51"/>
+      <c r="E276" s="51"/>
+      <c r="F276" s="51"/>
+      <c r="G276" s="51"/>
+      <c r="H276" s="51"/>
+      <c r="I276" s="51"/>
+      <c r="J276" s="51"/>
+      <c r="K276" s="51"/>
+      <c r="L276" s="51"/>
+      <c r="M276" s="51"/>
+      <c r="N276" s="51"/>
+      <c r="O276" s="51"/>
+      <c r="P276" s="51"/>
+      <c r="Q276" s="51"/>
+      <c r="R276" s="51"/>
+      <c r="S276" s="51"/>
     </row>
     <row r="277" spans="4:19">
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6"/>
-      <c r="G277" s="6"/>
-      <c r="H277" s="6"/>
-      <c r="I277" s="6"/>
-      <c r="J277" s="6"/>
-      <c r="K277" s="6"/>
-      <c r="L277" s="6"/>
-      <c r="M277" s="6"/>
-      <c r="N277" s="6"/>
-      <c r="O277" s="6"/>
-      <c r="P277" s="6"/>
-      <c r="Q277" s="6"/>
-      <c r="R277" s="6"/>
-      <c r="S277" s="6"/>
+      <c r="D277" s="51"/>
+      <c r="E277" s="51"/>
+      <c r="F277" s="51"/>
+      <c r="G277" s="51"/>
+      <c r="H277" s="51"/>
+      <c r="I277" s="51"/>
+      <c r="J277" s="51"/>
+      <c r="K277" s="51"/>
+      <c r="L277" s="51"/>
+      <c r="M277" s="51"/>
+      <c r="N277" s="51"/>
+      <c r="O277" s="51"/>
+      <c r="P277" s="51"/>
+      <c r="Q277" s="51"/>
+      <c r="R277" s="51"/>
+      <c r="S277" s="51"/>
     </row>
     <row r="278" spans="4:19">
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
-      <c r="G278" s="6"/>
-      <c r="H278" s="6"/>
-      <c r="I278" s="6"/>
-      <c r="J278" s="6"/>
-      <c r="K278" s="6"/>
-      <c r="L278" s="6"/>
-      <c r="M278" s="6"/>
-      <c r="N278" s="6"/>
-      <c r="O278" s="6"/>
-      <c r="P278" s="6"/>
-      <c r="Q278" s="6"/>
-      <c r="R278" s="6"/>
-      <c r="S278" s="6"/>
+      <c r="D278" s="51"/>
+      <c r="E278" s="51"/>
+      <c r="F278" s="51"/>
+      <c r="G278" s="51"/>
+      <c r="H278" s="51"/>
+      <c r="I278" s="51"/>
+      <c r="J278" s="51"/>
+      <c r="K278" s="51"/>
+      <c r="L278" s="51"/>
+      <c r="M278" s="51"/>
+      <c r="N278" s="51"/>
+      <c r="O278" s="51"/>
+      <c r="P278" s="51"/>
+      <c r="Q278" s="51"/>
+      <c r="R278" s="51"/>
+      <c r="S278" s="51"/>
     </row>
     <row r="279" spans="4:19">
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="6"/>
-      <c r="I279" s="6"/>
-      <c r="J279" s="6"/>
-      <c r="K279" s="6"/>
-      <c r="L279" s="6"/>
-      <c r="M279" s="6"/>
-      <c r="N279" s="6"/>
-      <c r="O279" s="6"/>
-      <c r="P279" s="6"/>
-      <c r="Q279" s="6"/>
-      <c r="R279" s="6"/>
-      <c r="S279" s="6"/>
+      <c r="D279" s="51"/>
+      <c r="E279" s="51"/>
+      <c r="F279" s="51"/>
+      <c r="G279" s="51"/>
+      <c r="H279" s="51"/>
+      <c r="I279" s="51"/>
+      <c r="J279" s="51"/>
+      <c r="K279" s="51"/>
+      <c r="L279" s="51"/>
+      <c r="M279" s="51"/>
+      <c r="N279" s="51"/>
+      <c r="O279" s="51"/>
+      <c r="P279" s="51"/>
+      <c r="Q279" s="51"/>
+      <c r="R279" s="51"/>
+      <c r="S279" s="51"/>
     </row>
     <row r="280" spans="4:19">
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
-      <c r="H280" s="6"/>
-      <c r="I280" s="6"/>
-      <c r="J280" s="6"/>
-      <c r="K280" s="6"/>
-      <c r="L280" s="6"/>
-      <c r="M280" s="6"/>
-      <c r="N280" s="6"/>
-      <c r="O280" s="6"/>
-      <c r="P280" s="6"/>
-      <c r="Q280" s="6"/>
-      <c r="R280" s="6"/>
-      <c r="S280" s="6"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="51"/>
+      <c r="F280" s="51"/>
+      <c r="G280" s="51"/>
+      <c r="H280" s="51"/>
+      <c r="I280" s="51"/>
+      <c r="J280" s="51"/>
+      <c r="K280" s="51"/>
+      <c r="L280" s="51"/>
+      <c r="M280" s="51"/>
+      <c r="N280" s="51"/>
+      <c r="O280" s="51"/>
+      <c r="P280" s="51"/>
+      <c r="Q280" s="51"/>
+      <c r="R280" s="51"/>
+      <c r="S280" s="51"/>
     </row>
     <row r="281" spans="4:19">
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
-      <c r="H281" s="6"/>
-      <c r="I281" s="6"/>
-      <c r="J281" s="6"/>
-      <c r="K281" s="6"/>
-      <c r="L281" s="6"/>
-      <c r="M281" s="6"/>
-      <c r="N281" s="6"/>
-      <c r="O281" s="6"/>
-      <c r="P281" s="6"/>
-      <c r="Q281" s="6"/>
-      <c r="R281" s="6"/>
-      <c r="S281" s="6"/>
+      <c r="D281" s="51"/>
+      <c r="E281" s="51"/>
+      <c r="F281" s="51"/>
+      <c r="G281" s="51"/>
+      <c r="H281" s="51"/>
+      <c r="I281" s="51"/>
+      <c r="J281" s="51"/>
+      <c r="K281" s="51"/>
+      <c r="L281" s="51"/>
+      <c r="M281" s="51"/>
+      <c r="N281" s="51"/>
+      <c r="O281" s="51"/>
+      <c r="P281" s="51"/>
+      <c r="Q281" s="51"/>
+      <c r="R281" s="51"/>
+      <c r="S281" s="51"/>
     </row>
     <row r="282" spans="4:19">
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
-      <c r="H282" s="6"/>
-      <c r="I282" s="6"/>
-      <c r="J282" s="6"/>
-      <c r="K282" s="6"/>
-      <c r="L282" s="6"/>
-      <c r="M282" s="6"/>
-      <c r="N282" s="6"/>
-      <c r="O282" s="6"/>
-      <c r="P282" s="6"/>
-      <c r="Q282" s="6"/>
-      <c r="R282" s="6"/>
-      <c r="S282" s="6"/>
+      <c r="D282" s="51"/>
+      <c r="E282" s="51"/>
+      <c r="F282" s="51"/>
+      <c r="G282" s="51"/>
+      <c r="H282" s="51"/>
+      <c r="I282" s="51"/>
+      <c r="J282" s="51"/>
+      <c r="K282" s="51"/>
+      <c r="L282" s="51"/>
+      <c r="M282" s="51"/>
+      <c r="N282" s="51"/>
+      <c r="O282" s="51"/>
+      <c r="P282" s="51"/>
+      <c r="Q282" s="51"/>
+      <c r="R282" s="51"/>
+      <c r="S282" s="51"/>
     </row>
     <row r="283" spans="4:19">
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="6"/>
-      <c r="J283" s="6"/>
-      <c r="K283" s="6"/>
-      <c r="L283" s="6"/>
-      <c r="M283" s="6"/>
-      <c r="N283" s="6"/>
-      <c r="O283" s="6"/>
-      <c r="P283" s="6"/>
-      <c r="Q283" s="6"/>
-      <c r="R283" s="6"/>
-      <c r="S283" s="6"/>
+      <c r="D283" s="51"/>
+      <c r="E283" s="51"/>
+      <c r="F283" s="51"/>
+      <c r="G283" s="51"/>
+      <c r="H283" s="51"/>
+      <c r="I283" s="51"/>
+      <c r="J283" s="51"/>
+      <c r="K283" s="51"/>
+      <c r="L283" s="51"/>
+      <c r="M283" s="51"/>
+      <c r="N283" s="51"/>
+      <c r="O283" s="51"/>
+      <c r="P283" s="51"/>
+      <c r="Q283" s="51"/>
+      <c r="R283" s="51"/>
+      <c r="S283" s="51"/>
     </row>
     <row r="284" spans="4:19">
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
-      <c r="H284" s="6"/>
-      <c r="I284" s="6"/>
-      <c r="J284" s="6"/>
-      <c r="K284" s="6"/>
-      <c r="L284" s="6"/>
-      <c r="M284" s="6"/>
-      <c r="N284" s="6"/>
-      <c r="O284" s="6"/>
-      <c r="P284" s="6"/>
-      <c r="Q284" s="6"/>
-      <c r="R284" s="6"/>
-      <c r="S284" s="6"/>
+      <c r="D284" s="51"/>
+      <c r="E284" s="51"/>
+      <c r="F284" s="51"/>
+      <c r="G284" s="51"/>
+      <c r="H284" s="51"/>
+      <c r="I284" s="51"/>
+      <c r="J284" s="51"/>
+      <c r="K284" s="51"/>
+      <c r="L284" s="51"/>
+      <c r="M284" s="51"/>
+      <c r="N284" s="51"/>
+      <c r="O284" s="51"/>
+      <c r="P284" s="51"/>
+      <c r="Q284" s="51"/>
+      <c r="R284" s="51"/>
+      <c r="S284" s="51"/>
     </row>
     <row r="285" spans="4:19">
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
-      <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="6"/>
-      <c r="I285" s="6"/>
-      <c r="J285" s="6"/>
-      <c r="K285" s="6"/>
-      <c r="L285" s="6"/>
-      <c r="M285" s="6"/>
-      <c r="N285" s="6"/>
-      <c r="O285" s="6"/>
-      <c r="P285" s="6"/>
-      <c r="Q285" s="6"/>
-      <c r="R285" s="6"/>
-      <c r="S285" s="6"/>
-    </row>
-    <row r="287" spans="4:4">
+      <c r="D285" s="51"/>
+      <c r="E285" s="51"/>
+      <c r="F285" s="51"/>
+      <c r="G285" s="51"/>
+      <c r="H285" s="51"/>
+      <c r="I285" s="51"/>
+      <c r="J285" s="51"/>
+      <c r="K285" s="51"/>
+      <c r="L285" s="51"/>
+      <c r="M285" s="51"/>
+      <c r="N285" s="51"/>
+      <c r="O285" s="51"/>
+      <c r="P285" s="51"/>
+      <c r="Q285" s="51"/>
+      <c r="R285" s="51"/>
+      <c r="S285" s="51"/>
+    </row>
+    <row r="287" spans="4:19">
       <c r="D287" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="288" spans="5:5">
+    <row r="288" spans="4:19">
       <c r="E288" s="8" t="s">
         <v>244</v>
       </c>
@@ -6565,78 +6338,76 @@
     <mergeCell ref="D266:S285"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C229" r:id="rId2" display="https://gobblin.readthedocs.io/en/latest/case-studies/Kafka-HDFS-Ingestion/" tooltip="https://gobblin.readthedocs.io/en/latest/case-studies/Kafka-HDFS-Ingestion/"/>
-    <hyperlink ref="C237" r:id="rId3" display="https://gobblin.readthedocs.io/en/latest/sinks/ParquetHdfsDataWriter/" tooltip="https://gobblin.readthedocs.io/en/latest/sinks/ParquetHdfsDataWriter/"/>
-    <hyperlink ref="D259" r:id="rId4" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetHdfsDataWriter.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetHdfsDataWriter.java"/>
-    <hyperlink ref="D261" r:id="rId5" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetDataWriterBuilder.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetDataWriterBuilder.java"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="B81" r:id="rId7" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/#gobblin-job-flow"/>
-    <hyperlink ref="B4" r:id="rId6" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/#gobblin-architecture-overview"/>
-    <hyperlink ref="B37" r:id="rId8" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/#gobblin-constructs"/>
-    <hyperlink ref="C196" r:id="rId9" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-on-Yarn/#architecture"/>
-    <hyperlink ref="C139" r:id="rId10" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-Deployment/#standalone-architecture"/>
-    <hyperlink ref="C168" r:id="rId11" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-Deployment/#hadoop-mapreduce-architecture"/>
-    <hyperlink ref="D247" r:id="rId12" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-kafka-common/src/main/java/org/apache/gobblin/source/extractor/extract/kafka/KafkaSimpleJsonExtractor.java"/>
-    <hyperlink ref="D245" r:id="rId13" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-kafka-common/src/main/java/org/apache/gobblin/source/extractor/extract/kafka/KafkaSimpleSource.java"/>
-    <hyperlink ref="D255" r:id="rId14" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-api/src/main/java/org/apache/gobblin/writer/DataWriterBuilder.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-api/src/main/java/org/apache/gobblin/writer/DataWriterBuilder.java"/>
+    <hyperlink ref="C229" r:id="rId1" tooltip="https://gobblin.readthedocs.io/en/latest/case-studies/Kafka-HDFS-Ingestion/"/>
+    <hyperlink ref="C237" r:id="rId2" tooltip="https://gobblin.readthedocs.io/en/latest/sinks/ParquetHdfsDataWriter/"/>
+    <hyperlink ref="D259" r:id="rId3" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetHdfsDataWriter.java"/>
+    <hyperlink ref="D261" r:id="rId4" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetDataWriterBuilder.java"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/"/>
+    <hyperlink ref="B81" r:id="rId6" location="gobblin-job-flow"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="B37" r:id="rId8" location="gobblin-constructs"/>
+    <hyperlink ref="C196" r:id="rId9" location="architecture"/>
+    <hyperlink ref="C139" r:id="rId10" location="standalone-architecture"/>
+    <hyperlink ref="C168" r:id="rId11" location="hadoop-mapreduce-architecture"/>
+    <hyperlink ref="D247" r:id="rId12"/>
+    <hyperlink ref="D245" r:id="rId13"/>
+    <hyperlink ref="D255" r:id="rId14" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-api/src/main/java/org/apache/gobblin/writer/DataWriterBuilder.java"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" ht="15.6" spans="1:1">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:1">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" ht="15.6" spans="1:2">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:7">
       <c r="E5" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="5:5">
+    <row r="6" spans="1:7">
       <c r="E6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="6:6">
+    <row r="7" spans="1:7">
       <c r="F7" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="6:6">
+    <row r="8" spans="1:7">
       <c r="F8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:7">
       <c r="B9" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:7">
       <c r="B10">
         <v>1</v>
       </c>
@@ -6644,7 +6415,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>2</v>
       </c>
@@ -6652,7 +6423,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>3</v>
       </c>
@@ -6660,7 +6431,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:7">
       <c r="B13">
         <v>4</v>
       </c>
@@ -6671,7 +6442,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:7">
       <c r="B14">
         <v>5</v>
       </c>
@@ -6679,7 +6450,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:7">
       <c r="B15">
         <v>6</v>
       </c>
@@ -6687,7 +6458,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:7">
       <c r="B16">
         <v>7</v>
       </c>
@@ -6695,7 +6466,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:15">
       <c r="B17">
         <v>8</v>
       </c>
@@ -6779,12 +6550,12 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="2:15">
       <c r="C22" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:15">
       <c r="B23">
         <v>11</v>
       </c>
@@ -6792,104 +6563,104 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="2:15">
       <c r="C24" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="2:15">
       <c r="C25" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="2:15">
       <c r="C26" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:15">
       <c r="B29" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="2:15">
       <c r="C30" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="2:15">
       <c r="C31" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="2:15">
       <c r="C32" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="1:5">
       <c r="C34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="1:5">
       <c r="C35" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="1:5">
       <c r="C36" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="1:5">
       <c r="C37" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:5">
       <c r="C38" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="1:5">
       <c r="C39" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:5">
       <c r="B41" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="1:5">
       <c r="C42" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="1:5">
       <c r="C43" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="1:5">
       <c r="C44" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:1">
+    <row r="46" spans="1:5" ht="15.6">
       <c r="A46" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="1:5">
       <c r="C47" s="11" t="s">
         <v>284</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="1:5">
       <c r="B48" s="8" t="s">
         <v>285</v>
       </c>
@@ -6929,935 +6700,935 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:3">
       <c r="B55" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="2:3">
       <c r="C56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:3">
       <c r="B58" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="2:3">
       <c r="C59" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:3">
       <c r="B61" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="2:3">
       <c r="C62" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="1:1">
+    <row r="65" spans="1:19" ht="15.6">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="1:3">
+    <row r="66" spans="1:19" ht="15.6">
       <c r="A66" s="5"/>
       <c r="C66" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:1">
+    <row r="67" spans="1:19" ht="15.6">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" ht="15.6" spans="1:2">
+    <row r="68" spans="1:19" ht="15.6">
       <c r="A68" s="5"/>
       <c r="B68" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="1:3">
+    <row r="69" spans="1:19" ht="15.6">
       <c r="A69" s="5"/>
       <c r="C69" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:19">
       <c r="B71" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="73" spans="2:19">
-      <c r="B73" s="14" t="s">
+    <row r="73" spans="1:19">
+      <c r="B73" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-    </row>
-    <row r="74" spans="2:19">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-    </row>
-    <row r="75" spans="2:19">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-    </row>
-    <row r="76" spans="2:19">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-    </row>
-    <row r="77" spans="2:19">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-    </row>
-    <row r="78" spans="2:19">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-    </row>
-    <row r="79" spans="2:19">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-    </row>
-    <row r="80" spans="2:19">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="51"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="51"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
     </row>
     <row r="81" spans="2:19">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
     </row>
     <row r="82" spans="2:19">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
     </row>
     <row r="83" spans="2:19">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
     </row>
     <row r="84" spans="2:19">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
     </row>
     <row r="85" spans="2:19">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
     </row>
     <row r="86" spans="2:19">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
     </row>
     <row r="87" spans="2:19">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
     </row>
     <row r="88" spans="2:19">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="51"/>
     </row>
     <row r="89" spans="2:19">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
     </row>
     <row r="90" spans="2:19">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="51"/>
     </row>
     <row r="91" spans="2:19">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
     </row>
     <row r="92" spans="2:19">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
+      <c r="O92" s="51"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="51"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="51"/>
     </row>
     <row r="93" spans="2:19">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
     </row>
     <row r="94" spans="2:19">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
+      <c r="O94" s="51"/>
+      <c r="P94" s="51"/>
+      <c r="Q94" s="51"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="51"/>
     </row>
     <row r="95" spans="2:19">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="51"/>
+      <c r="R95" s="51"/>
+      <c r="S95" s="51"/>
     </row>
     <row r="96" spans="2:19">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="51"/>
+      <c r="R96" s="51"/>
+      <c r="S96" s="51"/>
     </row>
     <row r="97" spans="2:19">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="51"/>
     </row>
     <row r="98" spans="2:19">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="51"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="51"/>
+      <c r="Q98" s="51"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="51"/>
     </row>
     <row r="99" spans="2:19">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51"/>
+      <c r="R99" s="51"/>
+      <c r="S99" s="51"/>
     </row>
     <row r="100" spans="2:19">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="51"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="51"/>
+      <c r="R100" s="51"/>
+      <c r="S100" s="51"/>
     </row>
     <row r="101" spans="2:19">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
+      <c r="R101" s="51"/>
+      <c r="S101" s="51"/>
     </row>
     <row r="102" spans="2:19">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
     </row>
     <row r="103" spans="2:19">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
     </row>
     <row r="104" spans="2:19">
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
     </row>
     <row r="105" spans="2:19">
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
     </row>
     <row r="106" spans="2:19">
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="51"/>
+      <c r="R106" s="51"/>
+      <c r="S106" s="51"/>
     </row>
     <row r="107" spans="2:19">
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51"/>
+      <c r="R107" s="51"/>
+      <c r="S107" s="51"/>
     </row>
     <row r="108" spans="2:19">
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="51"/>
+      <c r="S108" s="51"/>
     </row>
     <row r="109" spans="2:19">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="51"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="51"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="51"/>
+      <c r="R109" s="51"/>
+      <c r="S109" s="51"/>
     </row>
     <row r="110" spans="2:19">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="51"/>
+      <c r="O110" s="51"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="51"/>
+      <c r="R110" s="51"/>
+      <c r="S110" s="51"/>
     </row>
     <row r="111" spans="2:19">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="51"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="51"/>
     </row>
     <row r="112" spans="2:19">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="51"/>
+      <c r="R112" s="51"/>
+      <c r="S112" s="51"/>
     </row>
     <row r="113" spans="2:19">
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-    </row>
-    <row r="116" spans="2:2">
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+    </row>
+    <row r="116" spans="2:19">
       <c r="B116" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:19">
       <c r="B117" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:19">
       <c r="B118" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:19">
       <c r="B119" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:19">
       <c r="B121" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:19">
       <c r="B123" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:19">
       <c r="B124" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:19">
       <c r="B126" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:19">
       <c r="B127" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:19">
       <c r="B128" s="9" t="s">
         <v>312</v>
       </c>
@@ -7912,60 +7683,60 @@
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:2">
       <c r="B145" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="1:2">
       <c r="B146" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="1:2">
       <c r="B147" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="1:2">
       <c r="B148" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="1:2">
       <c r="B154" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="1:2">
       <c r="B155" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="1:2">
       <c r="B156" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="15" t="s">
+    <row r="157" spans="1:2">
+      <c r="B157" s="14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="1:2">
       <c r="B158" s="9"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="1:2">
       <c r="B159" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:2">
       <c r="B160" s="9" t="s">
         <v>333</v>
       </c>
@@ -7975,36 +7746,34 @@
     <mergeCell ref="B73:S113"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" tooltip="https://blog.csdn.net/u010022051/article/details/54342326"/>
-    <hyperlink ref="F7" r:id="rId2" display="https://github.com/apache/incubator-gobblin/releases"/>
-    <hyperlink ref="C30" r:id="rId3" display="https://github.com/zyq001/GobblinParquet" tooltip="https://github.com/zyq001/GobblinParquet"/>
-    <hyperlink ref="C31" r:id="rId4" display="https://github.com/tolgabuyuktanir/GobblinKafkaToHDFS"/>
-    <hyperlink ref="C32" r:id="rId5" display="https://github.com/enginunal/Kafka2HdfsWithGobblin"/>
-    <hyperlink ref="F8" r:id="rId6" display="https://gobblin.readthedocs.io/en/latest/Getting-Started/" tooltip="https://gobblin.readthedocs.io/en/latest/Getting-Started/"/>
-    <hyperlink ref="E5" r:id="rId1" display="https://blog.csdn.net/u010022051/article/details/54342326"/>
-    <hyperlink ref="C44" r:id="rId7" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaConverter.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaConverter.java"/>
-    <hyperlink ref="C43" r:id="rId8" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaSource.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaSource.java"/>
-    <hyperlink ref="C69" r:id="rId9" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/resources/wikipedia.pull"/>
-    <hyperlink ref="B49" r:id="rId1" display="1"/>
-    <hyperlink ref="B156" r:id="rId10" display="https://github.com/cssdongl/gobblin/blob/master/gobblin-example/src/main/java/gobblin/example/simplejson/TimeBasedJsonWriterPartitioner.java" tooltip="https://github.com/cssdongl/gobblin/blob/master/gobblin-example/src/main/java/gobblin/example/simplejson/TimeBasedJsonWriterPartitioner.java"/>
+    <hyperlink ref="B1" r:id="rId1" tooltip="https://blog.csdn.net/u010022051/article/details/54342326" display="https://blog.csdn.net/u010022051/article/details/54342326"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="C30" r:id="rId3" tooltip="https://github.com/zyq001/GobblinParquet"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6" tooltip="https://gobblin.readthedocs.io/en/latest/Getting-Started/"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="C44" r:id="rId8" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaConverter.java"/>
+    <hyperlink ref="C43" r:id="rId9" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaSource.java"/>
+    <hyperlink ref="C69" r:id="rId10"/>
+    <hyperlink ref="B49" r:id="rId11" display="1"/>
+    <hyperlink ref="B156" r:id="rId12" tooltip="https://github.com/cssdongl/gobblin/blob/master/gobblin-example/src/main/java/gobblin/example/simplejson/TimeBasedJsonWriterPartitioner.java"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -8018,107 +7787,105 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:3">
       <c r="B44" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:3">
       <c r="B46" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="2:3">
       <c r="C48" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="3:4">
       <c r="D52" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="3:4">
       <c r="D53" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-Deployment/"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" ht="15.6" spans="1:1">
+    <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="1:11">
       <c r="C6" t="s">
         <v>352</v>
       </c>
@@ -8131,152 +7898,152 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="8" ht="15.6" spans="1:1">
+    <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:11">
       <c r="C10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:11">
       <c r="C14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:11">
       <c r="C15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:11">
       <c r="C16" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:3">
       <c r="C17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="1:3">
       <c r="C18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="1:3">
       <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="1:3">
       <c r="C20" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:3">
       <c r="B22" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="1:3">
       <c r="C23" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="1:3">
       <c r="C24" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:1">
+    <row r="27" spans="1:3" ht="15.6">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:3">
       <c r="B28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="1:3">
       <c r="C29" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:3">
       <c r="B31" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="2:3">
       <c r="C33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="2:3">
       <c r="C34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="2:3">
       <c r="C35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="2:3">
       <c r="C36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="2:3">
       <c r="C37" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="2:3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="2:3">
       <c r="C42" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="2:3">
       <c r="C43" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="2:3">
       <c r="C44" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="2:3">
       <c r="C45" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="2:3">
       <c r="C48" t="s">
         <v>373</v>
       </c>
@@ -8288,45 +8055,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" ht="22.8" spans="1:1">
+    <row r="2" spans="1:2" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="4" ht="22.8" spans="1:1">
+    <row r="4" spans="1:2" ht="23.4">
       <c r="A4" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
       <c r="B6" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>379</v>
       </c>
@@ -8336,223 +8101,221 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:5">
       <c r="C34" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:5">
       <c r="C36" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="3:5">
       <c r="D37" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="5:5">
+    <row r="38" spans="3:5">
       <c r="E38" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="3:5">
       <c r="D40" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="5:5">
+    <row r="41" spans="3:5">
       <c r="E41" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="5:5">
+    <row r="43" spans="3:5">
       <c r="E43" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="5:5">
+    <row r="44" spans="3:5">
       <c r="E44" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="5:5">
+    <row r="45" spans="3:5">
       <c r="E45" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="5:5">
+    <row r="46" spans="3:5">
       <c r="E46" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="5:5">
+    <row r="47" spans="3:5">
       <c r="E47" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="48" spans="5:5">
+    <row r="48" spans="3:5">
       <c r="E48" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="5:5">
+    <row r="49" spans="2:5">
       <c r="E49" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="5:5">
+    <row r="50" spans="2:5">
       <c r="E50" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="5:5">
+    <row r="52" spans="2:5">
       <c r="E52" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
+    <row r="53" spans="2:5">
       <c r="E53" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:5">
       <c r="B58" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="2:5">
       <c r="C60" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="2:5">
       <c r="C61" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="2:5">
       <c r="C62" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="2:5">
       <c r="C63" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="2:5">
       <c r="C64" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:4">
       <c r="C65" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:4">
       <c r="C66" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:4">
       <c r="C67" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:4">
       <c r="C69" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:4">
       <c r="C70" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:4">
       <c r="C74" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="3:4">
       <c r="D75" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="3:4">
       <c r="D76" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="3:4">
       <c r="D77" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="3:4">
       <c r="D78" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="3:4">
       <c r="D79" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="3:4">
       <c r="D80" t="s">
         <v>414</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId2" display="http://docs.confluent.io/2.0.0/connect/connect-hdfs/docs/index.html"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="2:3">
       <c r="C14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="2:3">
       <c r="C15" t="s">
         <v>419</v>
       </c>
@@ -8569,11 +8332,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/Evankaka/article/details/55223894"/>
-    <hyperlink ref="C15" r:id="rId2" display="https://blog.csdn.net/qq_38690917/article/details/81430553" tooltip="https://blog.csdn.net/qq_38690917/article/details/81430553"/>
-    <hyperlink ref="C19" r:id="rId3" display="https://blog.csdn.net/m0_37786447/article/details/80608531" tooltip="https://blog.csdn.net/m0_37786447/article/details/80608531"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C15" r:id="rId2" tooltip="https://blog.csdn.net/qq_38690917/article/details/81430553"/>
+    <hyperlink ref="C19" r:id="rId3" tooltip="https://blog.csdn.net/m0_37786447/article/details/80608531"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/bigdata调查/kafka数据hive存储访问.xlsx
+++ b/bigdata调查/kafka数据hive存储访问.xlsx
@@ -3846,7 +3846,7 @@
   <dimension ref="C5:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/bigdata调查/kafka数据hive存储访问.xlsx
+++ b/bigdata调查/kafka数据hive存储访问.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" tabRatio="920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" tabRatio="920"/>
   </bookViews>
   <sheets>
-    <sheet name="Spark读取方案" sheetId="9" r:id="rId1"/>
-    <sheet name="Gobblin读取方案" sheetId="2" r:id="rId2"/>
-    <sheet name="Gobblin原理总结" sheetId="8" r:id="rId3"/>
-    <sheet name="Gobblin 实施" sheetId="5" r:id="rId4"/>
-    <sheet name="Gobblin方案结论" sheetId="7" r:id="rId5"/>
-    <sheet name="hive 外表实施" sheetId="3" r:id="rId6"/>
-    <sheet name="Confluent Kafka Connectors（开源）" sheetId="4" r:id="rId7"/>
-    <sheet name="Flume+HDFS+Kafka+Hive" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
+    <sheet name="Spark读取方案" sheetId="9" r:id="rId2"/>
+    <sheet name="Gobblin读取方案" sheetId="2" r:id="rId3"/>
+    <sheet name="Gobblin原理总结" sheetId="8" r:id="rId4"/>
+    <sheet name="Gobblin 实施" sheetId="5" r:id="rId5"/>
+    <sheet name="Gobblin方案结论" sheetId="7" r:id="rId6"/>
+    <sheet name="hive 外表实施" sheetId="3" r:id="rId7"/>
+    <sheet name="Confluent Kafka Connectors（开源）" sheetId="4" r:id="rId8"/>
+    <sheet name="Flume+HDFS+Kafka+Hive" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="460">
   <si>
     <t>方案1</t>
   </si>
@@ -384,7 +385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +396,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -554,7 +555,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -565,7 +566,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,7 +594,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -604,7 +605,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -615,7 +616,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -626,7 +627,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -639,7 +640,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -650,7 +651,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -661,7 +662,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -672,7 +673,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -723,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,7 +735,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -819,7 +820,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -829,7 +830,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,7 +854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -864,7 +865,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -874,7 +875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -937,7 +938,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -947,7 +948,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -957,7 +958,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1072,7 +1073,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1083,7 +1084,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1094,7 +1095,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1285,7 +1286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1319,7 +1320,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1333,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,22 +1774,130 @@
   <si>
     <t>https://blog.csdn.net/m0_37786447/article/details/80608531</t>
   </si>
+  <si>
+    <t>表结构</t>
+  </si>
+  <si>
+    <t>day 作为分区</t>
+  </si>
+  <si>
+    <t>以 train_ID作为分区</t>
+  </si>
+  <si>
+    <t>ROW FORMAT DELIMITED FIELDS TERMINATED BY '\t'</t>
+  </si>
+  <si>
+    <t>stored as textfile</t>
+  </si>
+  <si>
+    <t>分桶</t>
+  </si>
+  <si>
+    <t>后续如果有需要，可以在分桶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create external table phm(pid string, item string, vid string, value string) </t>
+  </si>
+  <si>
+    <t>location '/hive/phm/data/';</t>
+  </si>
+  <si>
+    <t>clustered by (pid) sorted by (pid asc) into 4 buckets</t>
+  </si>
+  <si>
+    <t>partitioned by(day string, trainid string)</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/whdxjbw/article/details/82219022</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/654wangzai321/p/9970162.html</t>
+  </si>
+  <si>
+    <t>全套 shell方案</t>
+  </si>
+  <si>
+    <t>MultipleSequenceFileOutputFormat</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/king_old_six/article/details/81349692</t>
+  </si>
+  <si>
+    <t>generateFileNameForKeyValue</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/zgc625238677/article/details/53928320/</t>
+  </si>
+  <si>
+    <t>spark 将dataframe数据写入Hive分区表</t>
+  </si>
+  <si>
+    <t>app_device_info.write.format("parquet").option("path", "/user/hadoop/warehouse/app/app_device_info")</t>
+  </si>
+  <si>
+    <t>.partitionBy("y", "m").mode("overwrite").saveAsTable("my_database.app_device_info")</t>
+  </si>
+  <si>
+    <t>hivecontext.sql(s"""insert into table my_database.${tableNane}) partition(y='s{year}'，m='${month}'，d='${day}')</t>
+  </si>
+  <si>
+    <t>select t.*,  '${year}' as y, '${month}' as m,  '${day}' as d  from tmpTable t""")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--------------------- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者：简之 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">来源：CSDN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">原文：https://blog.csdn.net/olizxq/article/details/82807583 </t>
+  </si>
+  <si>
+    <t>版权声明：本文为博主原创文章，转载请附上博文链接！</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/code2one/p/9872010.html</t>
+  </si>
+  <si>
+    <t>可分隔的文件类和压缩</t>
+  </si>
+  <si>
+    <t>把文件复制多份存到HDFS中，可以提高I/O效率（并行读写）。但同时要管理好压缩。本书推荐Parquet和gzip。</t>
+  </si>
+  <si>
+    <t>partition输出（Bucketing可能更好）</t>
+  </si>
+  <si>
+    <t>csvFile.write.mode("overwrite").partitionBy("DEST_COUNTRY_NAME").save()</t>
+  </si>
+  <si>
+    <t>这样每个country都有一个folder。当用户经常filter某个对象，可以用这种方式输出</t>
+  </si>
+  <si>
+    <t>Bucketing</t>
+  </si>
+  <si>
+    <t>控制数据写到制定的每个file，这样在读取，join或agg时，就可以避免一些shuffle。</t>
+  </si>
+  <si>
+    <t>csvFile.write.format("parquet").mode("overwrite")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .bucketBy(numberBuckets, columnToBucketBy).saveAsTable("bucketedFiles")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1796,15 +1905,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1812,7 +1920,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1820,7 +1928,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1828,20 +1936,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.2"/>
+      <sz val="10.199999999999999"/>
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.35"/>
-      <name val="等线"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1849,8 +1957,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1863,7 +1970,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1871,7 +1978,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1879,21 +1986,21 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1902,134 +2009,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2061,8 +2040,30 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2071,19 +2072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,194 +2100,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2559,255 +2374,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2821,10 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2843,26 +2416,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2876,72 +2466,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2952,7 +2489,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2974,7 +2511,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3016,7 +2553,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3058,7 +2595,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3100,7 +2637,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3183,7 +2720,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3266,7 +2803,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3332,7 +2869,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3346,7 +2883,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -3381,6 +2918,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -3391,11 +2929,6 @@
             </a:rPr>
             <a:t>Kafka</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3414,7 +2947,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="平行四边形 2"/>
         <xdr:cNvSpPr/>
@@ -3449,6 +2982,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -3459,11 +2993,6 @@
             </a:rPr>
             <a:t>Kafka Connect</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3482,7 +3011,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
@@ -3626,11 +3155,6 @@
             </a:rPr>
             <a:t>HDFS</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3649,7 +3173,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
         <xdr:cNvCxnSpPr>
@@ -3705,7 +3229,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
         <xdr:cNvCxnSpPr>
@@ -3761,7 +3285,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="下箭头 6"/>
         <xdr:cNvSpPr/>
@@ -3799,6 +3323,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -3809,11 +3334,6 @@
             </a:rPr>
             <a:t>Json</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3832,7 +3352,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
@@ -3976,11 +3496,6 @@
             </a:rPr>
             <a:t>Hive</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3999,7 +3514,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
         <xdr:cNvCxnSpPr>
@@ -4330,77 +3845,366 @@
       </a:style>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:M69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="D6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="E7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="G8" s="40" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="G9" s="40" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="40" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="40" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="41"/>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="40"/>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="D48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="D57" s="52"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="D58" s="52"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="D61" s="52"/>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="D62" s="52"/>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D63" s="52"/>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="D64" s="52"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="D65" s="52"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="D66" s="52"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="D67" s="52"/>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="D68" s="52"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="D69" s="52"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C39" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.6" spans="1:2">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="1:5">
       <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="5:5">
+    <row r="11" spans="1:5">
       <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:5">
       <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="5:5">
+    <row r="14" spans="1:5">
       <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:5">
       <c r="D16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="1:10">
       <c r="E17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="1:10">
       <c r="F18" t="s">
         <v>11</v>
       </c>
@@ -4417,7 +4221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="6:10">
+    <row r="19" spans="1:10">
       <c r="F19" t="s">
         <v>16</v>
       </c>
@@ -4434,81 +4238,81 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="1:10">
       <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:10">
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:10">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:10">
       <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:10">
       <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:10">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:3">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="43"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="17" t="s">
+      <c r="C34" s="35"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:9">
       <c r="C38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="1:9">
       <c r="D39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="1:9">
       <c r="C41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="1:9">
       <c r="D42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="5:9">
+    <row r="43" spans="1:9">
       <c r="E43" t="s">
         <v>11</v>
       </c>
@@ -4525,7 +4329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="5:9">
+    <row r="44" spans="1:9">
       <c r="E44" t="s">
         <v>16</v>
       </c>
@@ -4542,115 +4346,115 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:5">
       <c r="B53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:5">
       <c r="B54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="3:5">
+    <row r="59" spans="1:5">
       <c r="C59" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="1:5">
       <c r="C60" t="s">
         <v>38</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="1:5">
       <c r="C61" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="3:5">
+    <row r="62" spans="1:5">
       <c r="C62" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="3:5">
+    <row r="63" spans="1:5">
       <c r="C63" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="1:9">
       <c r="C68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="1:9">
       <c r="D69" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="9:9">
+    <row r="71" spans="1:9">
       <c r="I71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" ht="14.4" spans="4:9">
-      <c r="D72" s="44" t="s">
+    <row r="72" spans="1:9" ht="15">
+      <c r="D72" s="36" t="s">
         <v>51</v>
       </c>
       <c r="I72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="9:9">
+    <row r="73" spans="1:9">
       <c r="I73" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="4:9">
+    <row r="74" spans="1:9">
       <c r="D74" t="s">
         <v>54</v>
       </c>
@@ -4658,7 +4462,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="4:9">
+    <row r="75" spans="1:9">
       <c r="D75" t="s">
         <v>56</v>
       </c>
@@ -4666,22 +4470,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" s="42" customFormat="1"/>
-    <row r="79" ht="20.4" spans="1:1">
-      <c r="A79" s="16" t="s">
+    <row r="77" spans="1:9" s="34" customFormat="1"/>
+    <row r="79" spans="1:9" ht="21">
+      <c r="A79" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:9">
-      <c r="C80" s="45" t="s">
+    <row r="80" spans="1:9">
+      <c r="C80" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="46"/>
+      <c r="D80" s="38"/>
       <c r="I80" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:10">
       <c r="B81" t="s">
         <v>60</v>
       </c>
@@ -4689,12 +4493,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="9:9">
+    <row r="82" spans="2:10">
       <c r="I82">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="3:9">
+    <row r="83" spans="2:10">
       <c r="C83" t="s">
         <v>62</v>
       </c>
@@ -4702,12 +4506,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="9:9">
+    <row r="84" spans="2:10">
       <c r="I84">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="3:10">
+    <row r="85" spans="2:10">
       <c r="C85" t="s">
         <v>63</v>
       </c>
@@ -4719,12 +4523,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="2:10">
       <c r="C86" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="3:9">
+    <row r="87" spans="2:10">
       <c r="C87" t="s">
         <v>66</v>
       </c>
@@ -4732,17 +4536,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="2:10">
       <c r="C89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="2:10">
       <c r="D90" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:10">
       <c r="B92" t="s">
         <v>70</v>
       </c>
@@ -4750,32 +4554,32 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="2:10">
       <c r="C93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="2:10">
       <c r="C94" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="2:10">
       <c r="C96" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="1:4">
       <c r="D97" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="1:4">
       <c r="C99" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="1:4">
       <c r="B101" t="s">
         <v>76</v>
       </c>
@@ -4783,15 +4587,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" ht="13" customHeight="1" spans="1:1">
-      <c r="A103" s="16"/>
-    </row>
-    <row r="104" ht="20.4" spans="1:1">
-      <c r="A104" s="16" t="s">
+    <row r="103" spans="1:4" ht="13.05" customHeight="1">
+      <c r="A103" s="15"/>
+    </row>
+    <row r="104" spans="1:4" ht="21">
+      <c r="A104" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="1:4">
       <c r="B106" t="s">
         <v>60</v>
       </c>
@@ -4799,17 +4603,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="1:4">
       <c r="C107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="1:4">
       <c r="D108" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="1:4">
       <c r="B110" t="s">
         <v>81</v>
       </c>
@@ -4817,790 +4621,788 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="1:4">
       <c r="C111" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:3">
       <c r="B116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="1:3">
       <c r="C117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="1:3">
       <c r="C118" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="1:3">
       <c r="C119" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="1:3">
       <c r="C120" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="1:3">
       <c r="C121" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="1:3">
       <c r="C122" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="1:3">
       <c r="B124" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D79" sqref="D79:E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="9.55555555555556" customWidth="1"/>
-    <col min="4" max="4" width="9.22222222222222" customWidth="1"/>
-    <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="12.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="14.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:10">
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" ht="15.6" spans="1:11">
+    <row r="1" spans="1:16">
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="18"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="10:10">
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="2:12">
+    <row r="3" spans="1:16">
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="32"/>
       <c r="L4" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="10:10">
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="3:13">
+    <row r="5" spans="1:16">
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="32"/>
       <c r="M6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="10:10">
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="3:16">
-      <c r="C8" s="17" t="s">
+    <row r="7" spans="1:16">
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="M8" s="41" t="s">
+      <c r="J8" s="32"/>
+      <c r="M8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-    </row>
-    <row r="9" spans="10:16">
-      <c r="J9" s="40"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-    </row>
-    <row r="10" spans="4:16">
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="J9" s="32"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="D10" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41" t="s">
+      <c r="J10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-    </row>
-    <row r="11" spans="10:10">
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="4:10">
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="D12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="4:10">
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="D13" s="3"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="4:10">
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="D14" s="3"/>
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" ht="14.55" spans="4:10">
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="D15" s="3"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" ht="21.15" spans="5:10">
-      <c r="E16" s="20" t="s">
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:16" ht="21">
+      <c r="E16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <v>109</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="44"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="J19" s="40"/>
+      <c r="H19" s="44"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" ht="14.55" spans="5:10">
-      <c r="E21" s="29" t="s">
+      <c r="H20" s="44"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="27">
         <v>32</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="J21" s="40"/>
+      <c r="H21" s="45"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="29">
         <v>1</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="J23" s="40"/>
+      <c r="H23" s="47"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="25">
         <v>32</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="J24" s="40"/>
+      <c r="H24" s="47"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="J25" s="40"/>
+      <c r="H25" s="47"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="J26" s="40"/>
+      <c r="H26" s="47"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="J27" s="40"/>
+      <c r="H27" s="47"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="5:10">
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="25">
         <v>1</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="J28" s="40"/>
+      <c r="H28" s="47"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="5:10">
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="J29" s="40"/>
-    </row>
-    <row r="30" ht="14.55" spans="5:10">
-      <c r="E30" s="29" t="s">
+      <c r="H29" s="47"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="E30" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="27">
         <v>32</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="J30" s="40"/>
+      <c r="H30" s="48"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="5:10">
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="29">
         <v>1</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="5:10">
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="25">
         <v>1</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="J32" s="40"/>
+      <c r="H32" s="44"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="5:10">
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="28"/>
-      <c r="J33" s="40"/>
+      <c r="H33" s="44"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="5:10">
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="28"/>
-      <c r="J34" s="40"/>
+      <c r="H34" s="44"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="5:10">
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="25">
         <v>32</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="J35" s="40"/>
+      <c r="H35" s="44"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="5:10">
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="28"/>
-      <c r="J36" s="40"/>
+      <c r="H36" s="44"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="5:10">
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H37" s="28"/>
-      <c r="J37" s="40"/>
+      <c r="H37" s="44"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="5:10">
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="25">
         <v>1</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="J38" s="40"/>
+      <c r="H38" s="44"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="5:10">
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="J39" s="40"/>
+      <c r="H39" s="44"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="5:10">
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="J40" s="40"/>
+      <c r="H40" s="44"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="5:10">
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="J41" s="40"/>
+      <c r="H41" s="44"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="5:10">
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H42" s="28"/>
-      <c r="J42" s="40"/>
+      <c r="H42" s="44"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="5:10">
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="J43" s="40"/>
+      <c r="H43" s="44"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="5:10">
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="25">
         <v>1</v>
       </c>
-      <c r="H44" s="28"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="44"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="5:10">
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="25">
         <v>1</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="J45" s="40"/>
+      <c r="H45" s="44"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="5:10">
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="J46" s="40"/>
+      <c r="H46" s="44"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="5:10">
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="28"/>
-      <c r="J47" s="40"/>
+      <c r="H47" s="44"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="5:10">
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="25">
         <v>32</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="J48" s="40"/>
-    </row>
-    <row r="49" spans="5:10">
-      <c r="E49" s="26" t="s">
+      <c r="H48" s="44"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="E49" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="28"/>
-      <c r="J49" s="40"/>
-    </row>
-    <row r="50" spans="5:10">
-      <c r="E50" s="26" t="s">
+      <c r="H49" s="44"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="E50" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="28"/>
-      <c r="J50" s="40"/>
-    </row>
-    <row r="51" spans="5:10">
-      <c r="E51" s="26" t="s">
+      <c r="H50" s="44"/>
+      <c r="J50" s="32"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="E51" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="25">
         <v>1</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="J51" s="40"/>
-    </row>
-    <row r="52" ht="14.55" spans="5:10">
-      <c r="E52" s="29" t="s">
+      <c r="H51" s="44"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="E52" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="H52" s="31"/>
-      <c r="J52" s="40"/>
-    </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="40"/>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="40"/>
-    </row>
-    <row r="55" spans="3:13">
-      <c r="C55" s="17" t="s">
+      <c r="H52" s="45"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="J53" s="32"/>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="C55" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="J55" s="40"/>
-      <c r="M55" s="17" t="s">
+      <c r="J55" s="32"/>
+      <c r="M55" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="10:10">
-      <c r="J56" s="40"/>
-    </row>
-    <row r="57" spans="4:14">
+    <row r="56" spans="2:16">
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="2:16">
       <c r="D57" t="s">
         <v>147</v>
       </c>
-      <c r="J57" s="40"/>
+      <c r="J57" s="32"/>
       <c r="N57" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="5:16">
-      <c r="E58" s="38" t="s">
+    <row r="58" spans="2:16">
+      <c r="E58" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="38" t="s">
+      <c r="F58" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="J58" s="40"/>
-      <c r="O58" s="38" t="s">
+      <c r="J58" s="32"/>
+      <c r="O58" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="P58" s="38" t="s">
+      <c r="P58" s="30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="5:16">
-      <c r="E59" s="39" t="s">
+    <row r="59" spans="2:16">
+      <c r="E59" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="39" t="s">
+      <c r="F59" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J59" s="40"/>
-      <c r="O59" s="39" t="s">
+      <c r="J59" s="32"/>
+      <c r="O59" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P59" s="39" t="s">
+      <c r="P59" s="31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="5:16">
-      <c r="E60" s="39" t="s">
+    <row r="60" spans="2:16">
+      <c r="E60" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="J60" s="40"/>
-      <c r="O60" s="39" t="s">
+      <c r="J60" s="32"/>
+      <c r="O60" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="P60" s="39" t="s">
+      <c r="P60" s="31" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="5:16">
-      <c r="E61" s="39" t="s">
+    <row r="61" spans="2:16">
+      <c r="E61" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="J61" s="40"/>
-      <c r="O61" s="39" t="s">
+      <c r="J61" s="32"/>
+      <c r="O61" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P61" s="39" t="s">
+      <c r="P61" s="31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="10:10">
-      <c r="J62" s="40"/>
-    </row>
-    <row r="63" spans="10:10">
-      <c r="J63" s="40"/>
-    </row>
-    <row r="64" spans="2:12">
+    <row r="62" spans="2:16">
+      <c r="J62" s="32"/>
+    </row>
+    <row r="63" spans="2:16">
+      <c r="J63" s="32"/>
+    </row>
+    <row r="64" spans="2:16">
       <c r="B64" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J64" s="40"/>
+      <c r="J64" s="32"/>
       <c r="L64" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:14">
       <c r="B65" s="3"/>
-      <c r="J65" s="40"/>
-    </row>
-    <row r="66" spans="2:13">
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="2:14">
       <c r="B66" s="3"/>
       <c r="C66" t="s">
         <v>154</v>
       </c>
-      <c r="J66" s="40"/>
+      <c r="J66" s="32"/>
       <c r="M66" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:14">
       <c r="B67" s="3"/>
-      <c r="J67" s="40"/>
+      <c r="J67" s="32"/>
     </row>
     <row r="68" spans="2:14">
       <c r="B68" s="3"/>
       <c r="D68" t="s">
         <v>155</v>
       </c>
-      <c r="J68" s="40"/>
+      <c r="J68" s="32"/>
       <c r="N68" t="s">
         <v>155</v>
       </c>
@@ -5610,125 +5412,125 @@
       <c r="D69" t="s">
         <v>156</v>
       </c>
-      <c r="J69" s="40"/>
+      <c r="J69" s="32"/>
       <c r="N69" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:14">
       <c r="B70" s="3"/>
       <c r="D70" t="s">
         <v>157</v>
       </c>
-      <c r="J70" s="40"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="2:14">
       <c r="B71" s="3"/>
-      <c r="J71" s="40"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="J71" s="32"/>
+    </row>
+    <row r="72" spans="2:14">
       <c r="B72" s="3"/>
-      <c r="J72" s="40"/>
-    </row>
-    <row r="73" spans="2:12">
+      <c r="J72" s="32"/>
+    </row>
+    <row r="73" spans="2:14">
       <c r="B73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="40"/>
+      <c r="J73" s="32"/>
       <c r="L73" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="10:10">
-      <c r="J74" s="40"/>
-    </row>
-    <row r="75" spans="3:13">
+    <row r="74" spans="2:14">
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="2:14">
       <c r="C75" t="s">
         <v>158</v>
       </c>
-      <c r="J75" s="40"/>
+      <c r="J75" s="32"/>
       <c r="M75" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="10:10">
-      <c r="J76" s="40"/>
-    </row>
-    <row r="77" spans="10:10">
-      <c r="J77" s="40"/>
-    </row>
-    <row r="78" spans="10:10">
-      <c r="J78" s="40"/>
-    </row>
-    <row r="79" spans="4:10">
-      <c r="D79" s="39" t="s">
+    <row r="76" spans="2:14">
+      <c r="J76" s="32"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="J77" s="32"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="D79" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J79" s="40"/>
-    </row>
-    <row r="80" spans="4:10">
-      <c r="D80" s="39" t="s">
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="D80" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J80" s="40"/>
-    </row>
-    <row r="81" spans="4:10">
-      <c r="D81" s="39" t="s">
+      <c r="J80" s="32"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="D81" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J81" s="40"/>
-    </row>
-    <row r="82" spans="4:10">
-      <c r="D82" s="39" t="s">
+      <c r="J81" s="32"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="D82" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="39" t="s">
+      <c r="E82" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="J82" s="40"/>
-    </row>
-    <row r="83" spans="4:10">
-      <c r="D83" s="39" t="s">
+      <c r="J82" s="32"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="D83" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="J83" s="40"/>
-    </row>
-    <row r="84" spans="10:10">
-      <c r="J84" s="40"/>
-    </row>
-    <row r="85" spans="10:10">
-      <c r="J85" s="40"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="J84" s="32"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="J85" s="32"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="3"/>
-      <c r="J86" s="40"/>
-    </row>
-    <row r="87" spans="10:10">
-      <c r="J87" s="40"/>
-    </row>
-    <row r="88" spans="10:10">
-      <c r="J88" s="40"/>
-    </row>
-    <row r="89" spans="10:10">
-      <c r="J89" s="40"/>
-    </row>
-    <row r="90" spans="10:10">
-      <c r="J90" s="40"/>
-    </row>
-    <row r="91" spans="10:10">
-      <c r="J91" s="40"/>
+      <c r="J86" s="32"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="J89" s="32"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="J90" s="32"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="J91" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5737,58 +5539,56 @@
     <mergeCell ref="H31:H52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S288"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" ht="20.4" spans="1:1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:2" ht="21">
+      <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" ht="13" customHeight="1"/>
-    <row r="36" ht="20.4" spans="1:1">
-      <c r="A36" s="16" t="s">
+    <row r="6" spans="1:2" ht="13.05" customHeight="1"/>
+    <row r="36" spans="1:2" ht="21">
+      <c r="A36" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
       <c r="B37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:3">
       <c r="B56" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="2:3">
       <c r="C57" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="17" t="s">
+    <row r="58" spans="2:3">
+      <c r="C58" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:3">
       <c r="B59" s="3" t="s">
         <v>168</v>
       </c>
@@ -5799,83 +5599,83 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="2:3">
       <c r="C61" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="2:3">
       <c r="C62" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:3">
       <c r="B63" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="2:3">
       <c r="C64" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="1:3">
       <c r="C65" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="1:3">
       <c r="C66" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:3">
       <c r="B67" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="1:3">
       <c r="C68" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="1:3">
       <c r="C69" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:3">
       <c r="B70" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="1:3">
       <c r="C71" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:3">
       <c r="B72" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="1:3">
       <c r="C73" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3">
       <c r="B75" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3">
       <c r="B76" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="79" ht="20.4" spans="1:1">
-      <c r="A79" s="16" t="s">
+    <row r="79" spans="1:3" ht="21">
+      <c r="A79" s="15" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5884,158 +5684,158 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:3">
       <c r="B108" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="2:3">
       <c r="C109" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="2:3">
       <c r="C110" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:3">
       <c r="B111" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="2:3">
       <c r="C112" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="2:4">
       <c r="C113" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="2:4">
       <c r="C114" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:4">
       <c r="B115" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="2:4">
       <c r="C116" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="2:4">
       <c r="C117" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:4">
       <c r="B118" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="17" t="s">
+    <row r="119" spans="2:4">
+      <c r="C119" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="2:4">
       <c r="C120" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:4">
       <c r="B121" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="2:4">
       <c r="C122" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="2:4">
       <c r="C123" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="4:4">
+    <row r="124" spans="2:4">
       <c r="D124" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="2:4">
       <c r="D125" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:4">
       <c r="B126" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="2:4">
       <c r="C127" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="2:4">
       <c r="C128" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:3">
       <c r="B129" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="1:3">
       <c r="C130" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:3">
       <c r="B131" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="1:3">
       <c r="C132" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="134" ht="20.4" spans="1:1">
-      <c r="A134" s="16" t="s">
+    <row r="134" spans="1:3" ht="21">
+      <c r="A134" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="1:3">
       <c r="C136" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:3">
       <c r="B138" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="1:3">
       <c r="B139" s="3"/>
       <c r="C139" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="1:3">
       <c r="C142" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:3">
       <c r="B167" s="3" t="s">
         <v>216</v>
       </c>
@@ -6046,12 +5846,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="2:3">
       <c r="C170" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:6">
       <c r="B195" s="3" t="s">
         <v>218</v>
       </c>
@@ -6071,491 +5871,491 @@
       <c r="B198" s="3"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:6">
       <c r="B201" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="227" ht="20.4" spans="1:1">
-      <c r="A227" s="16" t="s">
+    <row r="227" spans="1:3" ht="21">
+      <c r="A227" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="1:3">
       <c r="C229" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="233" ht="20.4" spans="1:1">
-      <c r="A233" s="16" t="s">
+    <row r="233" spans="1:3" ht="21">
+      <c r="A233" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="1:3">
       <c r="C235" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="237" spans="3:3">
+    <row r="237" spans="1:3">
       <c r="C237" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="240" ht="20.4" spans="1:1">
-      <c r="A240" s="16" t="s">
+    <row r="240" spans="1:3" ht="21">
+      <c r="A240" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="242" ht="17.4" spans="2:2">
-      <c r="B242" s="18" t="s">
+    <row r="242" spans="2:4" ht="18">
+      <c r="B242" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="243" spans="3:3">
+    <row r="243" spans="2:4">
       <c r="C243" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="3:3">
+    <row r="244" spans="2:4">
       <c r="C244" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="4:4">
+    <row r="245" spans="2:4">
       <c r="D245" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="246" spans="3:4">
+    <row r="246" spans="2:4">
       <c r="C246" t="s">
         <v>230</v>
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="4:4">
+    <row r="247" spans="2:4">
       <c r="D247" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="250" ht="17.4" spans="2:2">
-      <c r="B250" s="18" t="s">
+    <row r="250" spans="2:4" ht="18">
+      <c r="B250" s="17" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="251" spans="3:3">
+    <row r="251" spans="2:4">
       <c r="C251" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="253" ht="17.4" spans="2:2">
-      <c r="B253" s="18" t="s">
+    <row r="253" spans="2:4" ht="18">
+      <c r="B253" s="17" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="254" ht="17.4" spans="2:3">
-      <c r="B254" s="18"/>
+    <row r="254" spans="2:4" ht="18">
+      <c r="B254" s="17"/>
       <c r="C254" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="255" spans="4:4">
+    <row r="255" spans="2:4">
       <c r="D255" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="257" spans="3:3">
+    <row r="257" spans="3:19">
       <c r="C257" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="259" spans="4:4">
+    <row r="259" spans="3:19">
       <c r="D259" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="3:19">
       <c r="D261" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="263" spans="4:4">
+    <row r="263" spans="3:19">
       <c r="D263" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="264" spans="5:5">
+    <row r="264" spans="3:19">
       <c r="E264" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="266" spans="4:19">
-      <c r="D266" s="14" t="s">
+    <row r="266" spans="3:19">
+      <c r="D266" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6"/>
-      <c r="G266" s="6"/>
-      <c r="H266" s="6"/>
-      <c r="I266" s="6"/>
-      <c r="J266" s="6"/>
-      <c r="K266" s="6"/>
-      <c r="L266" s="6"/>
-      <c r="M266" s="6"/>
-      <c r="N266" s="6"/>
-      <c r="O266" s="6"/>
-      <c r="P266" s="6"/>
-      <c r="Q266" s="6"/>
-      <c r="R266" s="6"/>
-      <c r="S266" s="6"/>
-    </row>
-    <row r="267" spans="4:19">
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6"/>
-      <c r="G267" s="6"/>
-      <c r="H267" s="6"/>
-      <c r="I267" s="6"/>
-      <c r="J267" s="6"/>
-      <c r="K267" s="6"/>
-      <c r="L267" s="6"/>
-      <c r="M267" s="6"/>
-      <c r="N267" s="6"/>
-      <c r="O267" s="6"/>
-      <c r="P267" s="6"/>
-      <c r="Q267" s="6"/>
-      <c r="R267" s="6"/>
-      <c r="S267" s="6"/>
-    </row>
-    <row r="268" spans="4:19">
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6"/>
-      <c r="G268" s="6"/>
-      <c r="H268" s="6"/>
-      <c r="I268" s="6"/>
-      <c r="J268" s="6"/>
-      <c r="K268" s="6"/>
-      <c r="L268" s="6"/>
-      <c r="M268" s="6"/>
-      <c r="N268" s="6"/>
-      <c r="O268" s="6"/>
-      <c r="P268" s="6"/>
-      <c r="Q268" s="6"/>
-      <c r="R268" s="6"/>
-      <c r="S268" s="6"/>
-    </row>
-    <row r="269" spans="4:19">
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-      <c r="F269" s="6"/>
-      <c r="G269" s="6"/>
-      <c r="H269" s="6"/>
-      <c r="I269" s="6"/>
-      <c r="J269" s="6"/>
-      <c r="K269" s="6"/>
-      <c r="L269" s="6"/>
-      <c r="M269" s="6"/>
-      <c r="N269" s="6"/>
-      <c r="O269" s="6"/>
-      <c r="P269" s="6"/>
-      <c r="Q269" s="6"/>
-      <c r="R269" s="6"/>
-      <c r="S269" s="6"/>
-    </row>
-    <row r="270" spans="4:19">
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6"/>
-      <c r="G270" s="6"/>
-      <c r="H270" s="6"/>
-      <c r="I270" s="6"/>
-      <c r="J270" s="6"/>
-      <c r="K270" s="6"/>
-      <c r="L270" s="6"/>
-      <c r="M270" s="6"/>
-      <c r="N270" s="6"/>
-      <c r="O270" s="6"/>
-      <c r="P270" s="6"/>
-      <c r="Q270" s="6"/>
-      <c r="R270" s="6"/>
-      <c r="S270" s="6"/>
-    </row>
-    <row r="271" spans="4:19">
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6"/>
-      <c r="G271" s="6"/>
-      <c r="H271" s="6"/>
-      <c r="I271" s="6"/>
-      <c r="J271" s="6"/>
-      <c r="K271" s="6"/>
-      <c r="L271" s="6"/>
-      <c r="M271" s="6"/>
-      <c r="N271" s="6"/>
-      <c r="O271" s="6"/>
-      <c r="P271" s="6"/>
-      <c r="Q271" s="6"/>
-      <c r="R271" s="6"/>
-      <c r="S271" s="6"/>
-    </row>
-    <row r="272" spans="4:19">
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
-      <c r="G272" s="6"/>
-      <c r="H272" s="6"/>
-      <c r="I272" s="6"/>
-      <c r="J272" s="6"/>
-      <c r="K272" s="6"/>
-      <c r="L272" s="6"/>
-      <c r="M272" s="6"/>
-      <c r="N272" s="6"/>
-      <c r="O272" s="6"/>
-      <c r="P272" s="6"/>
-      <c r="Q272" s="6"/>
-      <c r="R272" s="6"/>
-      <c r="S272" s="6"/>
+      <c r="E266" s="51"/>
+      <c r="F266" s="51"/>
+      <c r="G266" s="51"/>
+      <c r="H266" s="51"/>
+      <c r="I266" s="51"/>
+      <c r="J266" s="51"/>
+      <c r="K266" s="51"/>
+      <c r="L266" s="51"/>
+      <c r="M266" s="51"/>
+      <c r="N266" s="51"/>
+      <c r="O266" s="51"/>
+      <c r="P266" s="51"/>
+      <c r="Q266" s="51"/>
+      <c r="R266" s="51"/>
+      <c r="S266" s="51"/>
+    </row>
+    <row r="267" spans="3:19">
+      <c r="D267" s="51"/>
+      <c r="E267" s="51"/>
+      <c r="F267" s="51"/>
+      <c r="G267" s="51"/>
+      <c r="H267" s="51"/>
+      <c r="I267" s="51"/>
+      <c r="J267" s="51"/>
+      <c r="K267" s="51"/>
+      <c r="L267" s="51"/>
+      <c r="M267" s="51"/>
+      <c r="N267" s="51"/>
+      <c r="O267" s="51"/>
+      <c r="P267" s="51"/>
+      <c r="Q267" s="51"/>
+      <c r="R267" s="51"/>
+      <c r="S267" s="51"/>
+    </row>
+    <row r="268" spans="3:19">
+      <c r="D268" s="51"/>
+      <c r="E268" s="51"/>
+      <c r="F268" s="51"/>
+      <c r="G268" s="51"/>
+      <c r="H268" s="51"/>
+      <c r="I268" s="51"/>
+      <c r="J268" s="51"/>
+      <c r="K268" s="51"/>
+      <c r="L268" s="51"/>
+      <c r="M268" s="51"/>
+      <c r="N268" s="51"/>
+      <c r="O268" s="51"/>
+      <c r="P268" s="51"/>
+      <c r="Q268" s="51"/>
+      <c r="R268" s="51"/>
+      <c r="S268" s="51"/>
+    </row>
+    <row r="269" spans="3:19">
+      <c r="D269" s="51"/>
+      <c r="E269" s="51"/>
+      <c r="F269" s="51"/>
+      <c r="G269" s="51"/>
+      <c r="H269" s="51"/>
+      <c r="I269" s="51"/>
+      <c r="J269" s="51"/>
+      <c r="K269" s="51"/>
+      <c r="L269" s="51"/>
+      <c r="M269" s="51"/>
+      <c r="N269" s="51"/>
+      <c r="O269" s="51"/>
+      <c r="P269" s="51"/>
+      <c r="Q269" s="51"/>
+      <c r="R269" s="51"/>
+      <c r="S269" s="51"/>
+    </row>
+    <row r="270" spans="3:19">
+      <c r="D270" s="51"/>
+      <c r="E270" s="51"/>
+      <c r="F270" s="51"/>
+      <c r="G270" s="51"/>
+      <c r="H270" s="51"/>
+      <c r="I270" s="51"/>
+      <c r="J270" s="51"/>
+      <c r="K270" s="51"/>
+      <c r="L270" s="51"/>
+      <c r="M270" s="51"/>
+      <c r="N270" s="51"/>
+      <c r="O270" s="51"/>
+      <c r="P270" s="51"/>
+      <c r="Q270" s="51"/>
+      <c r="R270" s="51"/>
+      <c r="S270" s="51"/>
+    </row>
+    <row r="271" spans="3:19">
+      <c r="D271" s="51"/>
+      <c r="E271" s="51"/>
+      <c r="F271" s="51"/>
+      <c r="G271" s="51"/>
+      <c r="H271" s="51"/>
+      <c r="I271" s="51"/>
+      <c r="J271" s="51"/>
+      <c r="K271" s="51"/>
+      <c r="L271" s="51"/>
+      <c r="M271" s="51"/>
+      <c r="N271" s="51"/>
+      <c r="O271" s="51"/>
+      <c r="P271" s="51"/>
+      <c r="Q271" s="51"/>
+      <c r="R271" s="51"/>
+      <c r="S271" s="51"/>
+    </row>
+    <row r="272" spans="3:19">
+      <c r="D272" s="51"/>
+      <c r="E272" s="51"/>
+      <c r="F272" s="51"/>
+      <c r="G272" s="51"/>
+      <c r="H272" s="51"/>
+      <c r="I272" s="51"/>
+      <c r="J272" s="51"/>
+      <c r="K272" s="51"/>
+      <c r="L272" s="51"/>
+      <c r="M272" s="51"/>
+      <c r="N272" s="51"/>
+      <c r="O272" s="51"/>
+      <c r="P272" s="51"/>
+      <c r="Q272" s="51"/>
+      <c r="R272" s="51"/>
+      <c r="S272" s="51"/>
     </row>
     <row r="273" spans="4:19">
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-      <c r="F273" s="6"/>
-      <c r="G273" s="6"/>
-      <c r="H273" s="6"/>
-      <c r="I273" s="6"/>
-      <c r="J273" s="6"/>
-      <c r="K273" s="6"/>
-      <c r="L273" s="6"/>
-      <c r="M273" s="6"/>
-      <c r="N273" s="6"/>
-      <c r="O273" s="6"/>
-      <c r="P273" s="6"/>
-      <c r="Q273" s="6"/>
-      <c r="R273" s="6"/>
-      <c r="S273" s="6"/>
+      <c r="D273" s="51"/>
+      <c r="E273" s="51"/>
+      <c r="F273" s="51"/>
+      <c r="G273" s="51"/>
+      <c r="H273" s="51"/>
+      <c r="I273" s="51"/>
+      <c r="J273" s="51"/>
+      <c r="K273" s="51"/>
+      <c r="L273" s="51"/>
+      <c r="M273" s="51"/>
+      <c r="N273" s="51"/>
+      <c r="O273" s="51"/>
+      <c r="P273" s="51"/>
+      <c r="Q273" s="51"/>
+      <c r="R273" s="51"/>
+      <c r="S273" s="51"/>
     </row>
     <row r="274" spans="4:19">
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
-      <c r="G274" s="6"/>
-      <c r="H274" s="6"/>
-      <c r="I274" s="6"/>
-      <c r="J274" s="6"/>
-      <c r="K274" s="6"/>
-      <c r="L274" s="6"/>
-      <c r="M274" s="6"/>
-      <c r="N274" s="6"/>
-      <c r="O274" s="6"/>
-      <c r="P274" s="6"/>
-      <c r="Q274" s="6"/>
-      <c r="R274" s="6"/>
-      <c r="S274" s="6"/>
+      <c r="D274" s="51"/>
+      <c r="E274" s="51"/>
+      <c r="F274" s="51"/>
+      <c r="G274" s="51"/>
+      <c r="H274" s="51"/>
+      <c r="I274" s="51"/>
+      <c r="J274" s="51"/>
+      <c r="K274" s="51"/>
+      <c r="L274" s="51"/>
+      <c r="M274" s="51"/>
+      <c r="N274" s="51"/>
+      <c r="O274" s="51"/>
+      <c r="P274" s="51"/>
+      <c r="Q274" s="51"/>
+      <c r="R274" s="51"/>
+      <c r="S274" s="51"/>
     </row>
     <row r="275" spans="4:19">
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-      <c r="F275" s="6"/>
-      <c r="G275" s="6"/>
-      <c r="H275" s="6"/>
-      <c r="I275" s="6"/>
-      <c r="J275" s="6"/>
-      <c r="K275" s="6"/>
-      <c r="L275" s="6"/>
-      <c r="M275" s="6"/>
-      <c r="N275" s="6"/>
-      <c r="O275" s="6"/>
-      <c r="P275" s="6"/>
-      <c r="Q275" s="6"/>
-      <c r="R275" s="6"/>
-      <c r="S275" s="6"/>
+      <c r="D275" s="51"/>
+      <c r="E275" s="51"/>
+      <c r="F275" s="51"/>
+      <c r="G275" s="51"/>
+      <c r="H275" s="51"/>
+      <c r="I275" s="51"/>
+      <c r="J275" s="51"/>
+      <c r="K275" s="51"/>
+      <c r="L275" s="51"/>
+      <c r="M275" s="51"/>
+      <c r="N275" s="51"/>
+      <c r="O275" s="51"/>
+      <c r="P275" s="51"/>
+      <c r="Q275" s="51"/>
+      <c r="R275" s="51"/>
+      <c r="S275" s="51"/>
     </row>
     <row r="276" spans="4:19">
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="6"/>
-      <c r="G276" s="6"/>
-      <c r="H276" s="6"/>
-      <c r="I276" s="6"/>
-      <c r="J276" s="6"/>
-      <c r="K276" s="6"/>
-      <c r="L276" s="6"/>
-      <c r="M276" s="6"/>
-      <c r="N276" s="6"/>
-      <c r="O276" s="6"/>
-      <c r="P276" s="6"/>
-      <c r="Q276" s="6"/>
-      <c r="R276" s="6"/>
-      <c r="S276" s="6"/>
+      <c r="D276" s="51"/>
+      <c r="E276" s="51"/>
+      <c r="F276" s="51"/>
+      <c r="G276" s="51"/>
+      <c r="H276" s="51"/>
+      <c r="I276" s="51"/>
+      <c r="J276" s="51"/>
+      <c r="K276" s="51"/>
+      <c r="L276" s="51"/>
+      <c r="M276" s="51"/>
+      <c r="N276" s="51"/>
+      <c r="O276" s="51"/>
+      <c r="P276" s="51"/>
+      <c r="Q276" s="51"/>
+      <c r="R276" s="51"/>
+      <c r="S276" s="51"/>
     </row>
     <row r="277" spans="4:19">
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6"/>
-      <c r="G277" s="6"/>
-      <c r="H277" s="6"/>
-      <c r="I277" s="6"/>
-      <c r="J277" s="6"/>
-      <c r="K277" s="6"/>
-      <c r="L277" s="6"/>
-      <c r="M277" s="6"/>
-      <c r="N277" s="6"/>
-      <c r="O277" s="6"/>
-      <c r="P277" s="6"/>
-      <c r="Q277" s="6"/>
-      <c r="R277" s="6"/>
-      <c r="S277" s="6"/>
+      <c r="D277" s="51"/>
+      <c r="E277" s="51"/>
+      <c r="F277" s="51"/>
+      <c r="G277" s="51"/>
+      <c r="H277" s="51"/>
+      <c r="I277" s="51"/>
+      <c r="J277" s="51"/>
+      <c r="K277" s="51"/>
+      <c r="L277" s="51"/>
+      <c r="M277" s="51"/>
+      <c r="N277" s="51"/>
+      <c r="O277" s="51"/>
+      <c r="P277" s="51"/>
+      <c r="Q277" s="51"/>
+      <c r="R277" s="51"/>
+      <c r="S277" s="51"/>
     </row>
     <row r="278" spans="4:19">
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
-      <c r="G278" s="6"/>
-      <c r="H278" s="6"/>
-      <c r="I278" s="6"/>
-      <c r="J278" s="6"/>
-      <c r="K278" s="6"/>
-      <c r="L278" s="6"/>
-      <c r="M278" s="6"/>
-      <c r="N278" s="6"/>
-      <c r="O278" s="6"/>
-      <c r="P278" s="6"/>
-      <c r="Q278" s="6"/>
-      <c r="R278" s="6"/>
-      <c r="S278" s="6"/>
+      <c r="D278" s="51"/>
+      <c r="E278" s="51"/>
+      <c r="F278" s="51"/>
+      <c r="G278" s="51"/>
+      <c r="H278" s="51"/>
+      <c r="I278" s="51"/>
+      <c r="J278" s="51"/>
+      <c r="K278" s="51"/>
+      <c r="L278" s="51"/>
+      <c r="M278" s="51"/>
+      <c r="N278" s="51"/>
+      <c r="O278" s="51"/>
+      <c r="P278" s="51"/>
+      <c r="Q278" s="51"/>
+      <c r="R278" s="51"/>
+      <c r="S278" s="51"/>
     </row>
     <row r="279" spans="4:19">
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="6"/>
-      <c r="I279" s="6"/>
-      <c r="J279" s="6"/>
-      <c r="K279" s="6"/>
-      <c r="L279" s="6"/>
-      <c r="M279" s="6"/>
-      <c r="N279" s="6"/>
-      <c r="O279" s="6"/>
-      <c r="P279" s="6"/>
-      <c r="Q279" s="6"/>
-      <c r="R279" s="6"/>
-      <c r="S279" s="6"/>
+      <c r="D279" s="51"/>
+      <c r="E279" s="51"/>
+      <c r="F279" s="51"/>
+      <c r="G279" s="51"/>
+      <c r="H279" s="51"/>
+      <c r="I279" s="51"/>
+      <c r="J279" s="51"/>
+      <c r="K279" s="51"/>
+      <c r="L279" s="51"/>
+      <c r="M279" s="51"/>
+      <c r="N279" s="51"/>
+      <c r="O279" s="51"/>
+      <c r="P279" s="51"/>
+      <c r="Q279" s="51"/>
+      <c r="R279" s="51"/>
+      <c r="S279" s="51"/>
     </row>
     <row r="280" spans="4:19">
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
-      <c r="H280" s="6"/>
-      <c r="I280" s="6"/>
-      <c r="J280" s="6"/>
-      <c r="K280" s="6"/>
-      <c r="L280" s="6"/>
-      <c r="M280" s="6"/>
-      <c r="N280" s="6"/>
-      <c r="O280" s="6"/>
-      <c r="P280" s="6"/>
-      <c r="Q280" s="6"/>
-      <c r="R280" s="6"/>
-      <c r="S280" s="6"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="51"/>
+      <c r="F280" s="51"/>
+      <c r="G280" s="51"/>
+      <c r="H280" s="51"/>
+      <c r="I280" s="51"/>
+      <c r="J280" s="51"/>
+      <c r="K280" s="51"/>
+      <c r="L280" s="51"/>
+      <c r="M280" s="51"/>
+      <c r="N280" s="51"/>
+      <c r="O280" s="51"/>
+      <c r="P280" s="51"/>
+      <c r="Q280" s="51"/>
+      <c r="R280" s="51"/>
+      <c r="S280" s="51"/>
     </row>
     <row r="281" spans="4:19">
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
-      <c r="H281" s="6"/>
-      <c r="I281" s="6"/>
-      <c r="J281" s="6"/>
-      <c r="K281" s="6"/>
-      <c r="L281" s="6"/>
-      <c r="M281" s="6"/>
-      <c r="N281" s="6"/>
-      <c r="O281" s="6"/>
-      <c r="P281" s="6"/>
-      <c r="Q281" s="6"/>
-      <c r="R281" s="6"/>
-      <c r="S281" s="6"/>
+      <c r="D281" s="51"/>
+      <c r="E281" s="51"/>
+      <c r="F281" s="51"/>
+      <c r="G281" s="51"/>
+      <c r="H281" s="51"/>
+      <c r="I281" s="51"/>
+      <c r="J281" s="51"/>
+      <c r="K281" s="51"/>
+      <c r="L281" s="51"/>
+      <c r="M281" s="51"/>
+      <c r="N281" s="51"/>
+      <c r="O281" s="51"/>
+      <c r="P281" s="51"/>
+      <c r="Q281" s="51"/>
+      <c r="R281" s="51"/>
+      <c r="S281" s="51"/>
     </row>
     <row r="282" spans="4:19">
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
-      <c r="H282" s="6"/>
-      <c r="I282" s="6"/>
-      <c r="J282" s="6"/>
-      <c r="K282" s="6"/>
-      <c r="L282" s="6"/>
-      <c r="M282" s="6"/>
-      <c r="N282" s="6"/>
-      <c r="O282" s="6"/>
-      <c r="P282" s="6"/>
-      <c r="Q282" s="6"/>
-      <c r="R282" s="6"/>
-      <c r="S282" s="6"/>
+      <c r="D282" s="51"/>
+      <c r="E282" s="51"/>
+      <c r="F282" s="51"/>
+      <c r="G282" s="51"/>
+      <c r="H282" s="51"/>
+      <c r="I282" s="51"/>
+      <c r="J282" s="51"/>
+      <c r="K282" s="51"/>
+      <c r="L282" s="51"/>
+      <c r="M282" s="51"/>
+      <c r="N282" s="51"/>
+      <c r="O282" s="51"/>
+      <c r="P282" s="51"/>
+      <c r="Q282" s="51"/>
+      <c r="R282" s="51"/>
+      <c r="S282" s="51"/>
     </row>
     <row r="283" spans="4:19">
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="6"/>
-      <c r="J283" s="6"/>
-      <c r="K283" s="6"/>
-      <c r="L283" s="6"/>
-      <c r="M283" s="6"/>
-      <c r="N283" s="6"/>
-      <c r="O283" s="6"/>
-      <c r="P283" s="6"/>
-      <c r="Q283" s="6"/>
-      <c r="R283" s="6"/>
-      <c r="S283" s="6"/>
+      <c r="D283" s="51"/>
+      <c r="E283" s="51"/>
+      <c r="F283" s="51"/>
+      <c r="G283" s="51"/>
+      <c r="H283" s="51"/>
+      <c r="I283" s="51"/>
+      <c r="J283" s="51"/>
+      <c r="K283" s="51"/>
+      <c r="L283" s="51"/>
+      <c r="M283" s="51"/>
+      <c r="N283" s="51"/>
+      <c r="O283" s="51"/>
+      <c r="P283" s="51"/>
+      <c r="Q283" s="51"/>
+      <c r="R283" s="51"/>
+      <c r="S283" s="51"/>
     </row>
     <row r="284" spans="4:19">
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
-      <c r="H284" s="6"/>
-      <c r="I284" s="6"/>
-      <c r="J284" s="6"/>
-      <c r="K284" s="6"/>
-      <c r="L284" s="6"/>
-      <c r="M284" s="6"/>
-      <c r="N284" s="6"/>
-      <c r="O284" s="6"/>
-      <c r="P284" s="6"/>
-      <c r="Q284" s="6"/>
-      <c r="R284" s="6"/>
-      <c r="S284" s="6"/>
+      <c r="D284" s="51"/>
+      <c r="E284" s="51"/>
+      <c r="F284" s="51"/>
+      <c r="G284" s="51"/>
+      <c r="H284" s="51"/>
+      <c r="I284" s="51"/>
+      <c r="J284" s="51"/>
+      <c r="K284" s="51"/>
+      <c r="L284" s="51"/>
+      <c r="M284" s="51"/>
+      <c r="N284" s="51"/>
+      <c r="O284" s="51"/>
+      <c r="P284" s="51"/>
+      <c r="Q284" s="51"/>
+      <c r="R284" s="51"/>
+      <c r="S284" s="51"/>
     </row>
     <row r="285" spans="4:19">
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
-      <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="6"/>
-      <c r="I285" s="6"/>
-      <c r="J285" s="6"/>
-      <c r="K285" s="6"/>
-      <c r="L285" s="6"/>
-      <c r="M285" s="6"/>
-      <c r="N285" s="6"/>
-      <c r="O285" s="6"/>
-      <c r="P285" s="6"/>
-      <c r="Q285" s="6"/>
-      <c r="R285" s="6"/>
-      <c r="S285" s="6"/>
-    </row>
-    <row r="287" spans="4:4">
+      <c r="D285" s="51"/>
+      <c r="E285" s="51"/>
+      <c r="F285" s="51"/>
+      <c r="G285" s="51"/>
+      <c r="H285" s="51"/>
+      <c r="I285" s="51"/>
+      <c r="J285" s="51"/>
+      <c r="K285" s="51"/>
+      <c r="L285" s="51"/>
+      <c r="M285" s="51"/>
+      <c r="N285" s="51"/>
+      <c r="O285" s="51"/>
+      <c r="P285" s="51"/>
+      <c r="Q285" s="51"/>
+      <c r="R285" s="51"/>
+      <c r="S285" s="51"/>
+    </row>
+    <row r="287" spans="4:19">
       <c r="D287" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="288" spans="5:5">
+    <row r="288" spans="4:19">
       <c r="E288" s="8" t="s">
         <v>244</v>
       </c>
@@ -6565,78 +6365,76 @@
     <mergeCell ref="D266:S285"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C229" r:id="rId2" display="https://gobblin.readthedocs.io/en/latest/case-studies/Kafka-HDFS-Ingestion/" tooltip="https://gobblin.readthedocs.io/en/latest/case-studies/Kafka-HDFS-Ingestion/"/>
-    <hyperlink ref="C237" r:id="rId3" display="https://gobblin.readthedocs.io/en/latest/sinks/ParquetHdfsDataWriter/" tooltip="https://gobblin.readthedocs.io/en/latest/sinks/ParquetHdfsDataWriter/"/>
-    <hyperlink ref="D259" r:id="rId4" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetHdfsDataWriter.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetHdfsDataWriter.java"/>
-    <hyperlink ref="D261" r:id="rId5" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetDataWriterBuilder.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetDataWriterBuilder.java"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="B81" r:id="rId7" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/#gobblin-job-flow"/>
-    <hyperlink ref="B4" r:id="rId6" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/#gobblin-architecture-overview"/>
-    <hyperlink ref="B37" r:id="rId8" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/#gobblin-constructs"/>
-    <hyperlink ref="C196" r:id="rId9" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-on-Yarn/#architecture"/>
-    <hyperlink ref="C139" r:id="rId10" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-Deployment/#standalone-architecture"/>
-    <hyperlink ref="C168" r:id="rId11" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-Deployment/#hadoop-mapreduce-architecture"/>
-    <hyperlink ref="D247" r:id="rId12" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-kafka-common/src/main/java/org/apache/gobblin/source/extractor/extract/kafka/KafkaSimpleJsonExtractor.java"/>
-    <hyperlink ref="D245" r:id="rId13" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-kafka-common/src/main/java/org/apache/gobblin/source/extractor/extract/kafka/KafkaSimpleSource.java"/>
-    <hyperlink ref="D255" r:id="rId14" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-api/src/main/java/org/apache/gobblin/writer/DataWriterBuilder.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-api/src/main/java/org/apache/gobblin/writer/DataWriterBuilder.java"/>
+    <hyperlink ref="C229" r:id="rId1" tooltip="https://gobblin.readthedocs.io/en/latest/case-studies/Kafka-HDFS-Ingestion/"/>
+    <hyperlink ref="C237" r:id="rId2" tooltip="https://gobblin.readthedocs.io/en/latest/sinks/ParquetHdfsDataWriter/"/>
+    <hyperlink ref="D259" r:id="rId3" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetHdfsDataWriter.java"/>
+    <hyperlink ref="D261" r:id="rId4" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetDataWriterBuilder.java"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/"/>
+    <hyperlink ref="B81" r:id="rId6" location="gobblin-job-flow"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="B37" r:id="rId8" location="gobblin-constructs"/>
+    <hyperlink ref="C196" r:id="rId9" location="architecture"/>
+    <hyperlink ref="C139" r:id="rId10" location="standalone-architecture"/>
+    <hyperlink ref="C168" r:id="rId11" location="hadoop-mapreduce-architecture"/>
+    <hyperlink ref="D247" r:id="rId12"/>
+    <hyperlink ref="D245" r:id="rId13"/>
+    <hyperlink ref="D255" r:id="rId14" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-api/src/main/java/org/apache/gobblin/writer/DataWriterBuilder.java"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" ht="15.6" spans="1:1">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:1">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" ht="15.6" spans="1:2">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:7">
       <c r="E5" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="5:5">
+    <row r="6" spans="1:7">
       <c r="E6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="6:6">
+    <row r="7" spans="1:7">
       <c r="F7" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="6:6">
+    <row r="8" spans="1:7">
       <c r="F8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:7">
       <c r="B9" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:7">
       <c r="B10">
         <v>1</v>
       </c>
@@ -6644,7 +6442,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>2</v>
       </c>
@@ -6652,7 +6450,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>3</v>
       </c>
@@ -6660,7 +6458,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:7">
       <c r="B13">
         <v>4</v>
       </c>
@@ -6671,7 +6469,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:7">
       <c r="B14">
         <v>5</v>
       </c>
@@ -6679,7 +6477,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:7">
       <c r="B15">
         <v>6</v>
       </c>
@@ -6687,7 +6485,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:7">
       <c r="B16">
         <v>7</v>
       </c>
@@ -6695,7 +6493,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:15">
       <c r="B17">
         <v>8</v>
       </c>
@@ -6779,12 +6577,12 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="2:15">
       <c r="C22" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:15">
       <c r="B23">
         <v>11</v>
       </c>
@@ -6792,104 +6590,104 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="2:15">
       <c r="C24" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="2:15">
       <c r="C25" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="2:15">
       <c r="C26" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:15">
       <c r="B29" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="2:15">
       <c r="C30" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="2:15">
       <c r="C31" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="2:15">
       <c r="C32" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="1:5">
       <c r="C34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="1:5">
       <c r="C35" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="1:5">
       <c r="C36" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="1:5">
       <c r="C37" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:5">
       <c r="C38" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="1:5">
       <c r="C39" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:5">
       <c r="B41" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="1:5">
       <c r="C42" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="1:5">
       <c r="C43" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="1:5">
       <c r="C44" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:1">
+    <row r="46" spans="1:5" ht="15.6">
       <c r="A46" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="1:5">
       <c r="C47" s="11" t="s">
         <v>284</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="1:5">
       <c r="B48" s="8" t="s">
         <v>285</v>
       </c>
@@ -6929,935 +6727,935 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:3">
       <c r="B55" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="2:3">
       <c r="C56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:3">
       <c r="B58" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="2:3">
       <c r="C59" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:3">
       <c r="B61" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="2:3">
       <c r="C62" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="1:1">
+    <row r="65" spans="1:19" ht="15.6">
       <c r="A65" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="1:3">
+    <row r="66" spans="1:19" ht="15.6">
       <c r="A66" s="5"/>
       <c r="C66" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:1">
+    <row r="67" spans="1:19" ht="15.6">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" ht="15.6" spans="1:2">
+    <row r="68" spans="1:19" ht="15.6">
       <c r="A68" s="5"/>
       <c r="B68" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="1:3">
+    <row r="69" spans="1:19" ht="15.6">
       <c r="A69" s="5"/>
       <c r="C69" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:19">
       <c r="B71" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="73" spans="2:19">
-      <c r="B73" s="14" t="s">
+    <row r="73" spans="1:19">
+      <c r="B73" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-    </row>
-    <row r="74" spans="2:19">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-    </row>
-    <row r="75" spans="2:19">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-    </row>
-    <row r="76" spans="2:19">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-    </row>
-    <row r="77" spans="2:19">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-    </row>
-    <row r="78" spans="2:19">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-    </row>
-    <row r="79" spans="2:19">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-    </row>
-    <row r="80" spans="2:19">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="51"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="51"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
     </row>
     <row r="81" spans="2:19">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
     </row>
     <row r="82" spans="2:19">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
     </row>
     <row r="83" spans="2:19">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
     </row>
     <row r="84" spans="2:19">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
     </row>
     <row r="85" spans="2:19">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
     </row>
     <row r="86" spans="2:19">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
     </row>
     <row r="87" spans="2:19">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
     </row>
     <row r="88" spans="2:19">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="51"/>
     </row>
     <row r="89" spans="2:19">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
     </row>
     <row r="90" spans="2:19">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="51"/>
     </row>
     <row r="91" spans="2:19">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
     </row>
     <row r="92" spans="2:19">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
+      <c r="O92" s="51"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="51"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="51"/>
     </row>
     <row r="93" spans="2:19">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
     </row>
     <row r="94" spans="2:19">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
+      <c r="O94" s="51"/>
+      <c r="P94" s="51"/>
+      <c r="Q94" s="51"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="51"/>
     </row>
     <row r="95" spans="2:19">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="51"/>
+      <c r="R95" s="51"/>
+      <c r="S95" s="51"/>
     </row>
     <row r="96" spans="2:19">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="51"/>
+      <c r="R96" s="51"/>
+      <c r="S96" s="51"/>
     </row>
     <row r="97" spans="2:19">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="51"/>
     </row>
     <row r="98" spans="2:19">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="51"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="51"/>
+      <c r="Q98" s="51"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="51"/>
     </row>
     <row r="99" spans="2:19">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51"/>
+      <c r="R99" s="51"/>
+      <c r="S99" s="51"/>
     </row>
     <row r="100" spans="2:19">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="51"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="51"/>
+      <c r="R100" s="51"/>
+      <c r="S100" s="51"/>
     </row>
     <row r="101" spans="2:19">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
+      <c r="R101" s="51"/>
+      <c r="S101" s="51"/>
     </row>
     <row r="102" spans="2:19">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
     </row>
     <row r="103" spans="2:19">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
     </row>
     <row r="104" spans="2:19">
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
     </row>
     <row r="105" spans="2:19">
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
     </row>
     <row r="106" spans="2:19">
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="51"/>
+      <c r="R106" s="51"/>
+      <c r="S106" s="51"/>
     </row>
     <row r="107" spans="2:19">
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51"/>
+      <c r="R107" s="51"/>
+      <c r="S107" s="51"/>
     </row>
     <row r="108" spans="2:19">
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="51"/>
+      <c r="S108" s="51"/>
     </row>
     <row r="109" spans="2:19">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="51"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="51"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="51"/>
+      <c r="R109" s="51"/>
+      <c r="S109" s="51"/>
     </row>
     <row r="110" spans="2:19">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="51"/>
+      <c r="O110" s="51"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="51"/>
+      <c r="R110" s="51"/>
+      <c r="S110" s="51"/>
     </row>
     <row r="111" spans="2:19">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="51"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="51"/>
     </row>
     <row r="112" spans="2:19">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="51"/>
+      <c r="R112" s="51"/>
+      <c r="S112" s="51"/>
     </row>
     <row r="113" spans="2:19">
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-    </row>
-    <row r="116" spans="2:2">
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+    </row>
+    <row r="116" spans="2:19">
       <c r="B116" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:19">
       <c r="B117" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:19">
       <c r="B118" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:19">
       <c r="B119" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:19">
       <c r="B121" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:19">
       <c r="B123" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:19">
       <c r="B124" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:19">
       <c r="B126" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:19">
       <c r="B127" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:19">
       <c r="B128" s="9" t="s">
         <v>312</v>
       </c>
@@ -7912,60 +7710,60 @@
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:2">
       <c r="B145" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="1:2">
       <c r="B146" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="1:2">
       <c r="B147" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="1:2">
       <c r="B148" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="1:2">
       <c r="B154" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="1:2">
       <c r="B155" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="1:2">
       <c r="B156" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="15" t="s">
+    <row r="157" spans="1:2">
+      <c r="B157" s="14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="1:2">
       <c r="B158" s="9"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="1:2">
       <c r="B159" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:2">
       <c r="B160" s="9" t="s">
         <v>333</v>
       </c>
@@ -7975,36 +7773,34 @@
     <mergeCell ref="B73:S113"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" tooltip="https://blog.csdn.net/u010022051/article/details/54342326"/>
-    <hyperlink ref="F7" r:id="rId2" display="https://github.com/apache/incubator-gobblin/releases"/>
-    <hyperlink ref="C30" r:id="rId3" display="https://github.com/zyq001/GobblinParquet" tooltip="https://github.com/zyq001/GobblinParquet"/>
-    <hyperlink ref="C31" r:id="rId4" display="https://github.com/tolgabuyuktanir/GobblinKafkaToHDFS"/>
-    <hyperlink ref="C32" r:id="rId5" display="https://github.com/enginunal/Kafka2HdfsWithGobblin"/>
-    <hyperlink ref="F8" r:id="rId6" display="https://gobblin.readthedocs.io/en/latest/Getting-Started/" tooltip="https://gobblin.readthedocs.io/en/latest/Getting-Started/"/>
-    <hyperlink ref="E5" r:id="rId1" display="https://blog.csdn.net/u010022051/article/details/54342326"/>
-    <hyperlink ref="C44" r:id="rId7" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaConverter.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaConverter.java"/>
-    <hyperlink ref="C43" r:id="rId8" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaSource.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaSource.java"/>
-    <hyperlink ref="C69" r:id="rId9" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/resources/wikipedia.pull"/>
-    <hyperlink ref="B49" r:id="rId1" display="1"/>
-    <hyperlink ref="B156" r:id="rId10" display="https://github.com/cssdongl/gobblin/blob/master/gobblin-example/src/main/java/gobblin/example/simplejson/TimeBasedJsonWriterPartitioner.java" tooltip="https://github.com/cssdongl/gobblin/blob/master/gobblin-example/src/main/java/gobblin/example/simplejson/TimeBasedJsonWriterPartitioner.java"/>
+    <hyperlink ref="B1" r:id="rId1" tooltip="https://blog.csdn.net/u010022051/article/details/54342326" display="https://blog.csdn.net/u010022051/article/details/54342326"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="C30" r:id="rId3" tooltip="https://github.com/zyq001/GobblinParquet"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6" tooltip="https://gobblin.readthedocs.io/en/latest/Getting-Started/"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="C44" r:id="rId8" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaConverter.java"/>
+    <hyperlink ref="C43" r:id="rId9" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaSource.java"/>
+    <hyperlink ref="C69" r:id="rId10"/>
+    <hyperlink ref="B49" r:id="rId11" display="1"/>
+    <hyperlink ref="B156" r:id="rId12" tooltip="https://github.com/cssdongl/gobblin/blob/master/gobblin-example/src/main/java/gobblin/example/simplejson/TimeBasedJsonWriterPartitioner.java"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -8018,107 +7814,105 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:3">
       <c r="B44" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:3">
       <c r="B46" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="2:3">
       <c r="C48" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="3:4">
       <c r="D52" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="3:4">
       <c r="D53" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-Deployment/"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" ht="15.6" spans="1:1">
+    <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="1:11">
       <c r="C6" t="s">
         <v>352</v>
       </c>
@@ -8131,152 +7925,152 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="8" ht="15.6" spans="1:1">
+    <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:11">
       <c r="C10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:11">
       <c r="C14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:11">
       <c r="C15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:11">
       <c r="C16" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:3">
       <c r="C17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="1:3">
       <c r="C18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="1:3">
       <c r="C19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="1:3">
       <c r="C20" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:3">
       <c r="B22" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="1:3">
       <c r="C23" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="1:3">
       <c r="C24" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:1">
+    <row r="27" spans="1:3" ht="15.6">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:3">
       <c r="B28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="1:3">
       <c r="C29" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:3">
       <c r="B31" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="2:3">
       <c r="C33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="2:3">
       <c r="C34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="2:3">
       <c r="C35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="2:3">
       <c r="C36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="2:3">
       <c r="C37" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="2:3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="2:3">
       <c r="C42" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="2:3">
       <c r="C43" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="2:3">
       <c r="C44" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="2:3">
       <c r="C45" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="2:3">
       <c r="C48" t="s">
         <v>373</v>
       </c>
@@ -8288,45 +8082,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" ht="22.8" spans="1:1">
+    <row r="2" spans="1:2" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="4" ht="22.8" spans="1:1">
+    <row r="4" spans="1:2" ht="23.4">
       <c r="A4" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
       <c r="B6" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>379</v>
       </c>
@@ -8336,223 +8128,221 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:5">
       <c r="C34" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:5">
       <c r="C36" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="3:5">
       <c r="D37" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="5:5">
+    <row r="38" spans="3:5">
       <c r="E38" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="3:5">
       <c r="D40" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="5:5">
+    <row r="41" spans="3:5">
       <c r="E41" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="5:5">
+    <row r="43" spans="3:5">
       <c r="E43" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="5:5">
+    <row r="44" spans="3:5">
       <c r="E44" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="5:5">
+    <row r="45" spans="3:5">
       <c r="E45" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="5:5">
+    <row r="46" spans="3:5">
       <c r="E46" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="5:5">
+    <row r="47" spans="3:5">
       <c r="E47" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="48" spans="5:5">
+    <row r="48" spans="3:5">
       <c r="E48" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="5:5">
+    <row r="49" spans="2:5">
       <c r="E49" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="5:5">
+    <row r="50" spans="2:5">
       <c r="E50" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="5:5">
+    <row r="52" spans="2:5">
       <c r="E52" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
+    <row r="53" spans="2:5">
       <c r="E53" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:5">
       <c r="B58" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="2:5">
       <c r="C60" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="2:5">
       <c r="C61" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="2:5">
       <c r="C62" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="2:5">
       <c r="C63" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="2:5">
       <c r="C64" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:4">
       <c r="C65" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:4">
       <c r="C66" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:4">
       <c r="C67" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:4">
       <c r="C69" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:4">
       <c r="C70" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:4">
       <c r="C74" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="3:4">
       <c r="D75" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="3:4">
       <c r="D76" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="3:4">
       <c r="D77" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="3:4">
       <c r="D78" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="3:4">
       <c r="D79" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="3:4">
       <c r="D80" t="s">
         <v>414</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId2" display="http://docs.confluent.io/2.0.0/connect/connect-hdfs/docs/index.html"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="2:3">
       <c r="C14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="2:3">
       <c r="C15" t="s">
         <v>419</v>
       </c>
@@ -8569,11 +8359,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/Evankaka/article/details/55223894"/>
-    <hyperlink ref="C15" r:id="rId2" display="https://blog.csdn.net/qq_38690917/article/details/81430553" tooltip="https://blog.csdn.net/qq_38690917/article/details/81430553"/>
-    <hyperlink ref="C19" r:id="rId3" display="https://blog.csdn.net/m0_37786447/article/details/80608531" tooltip="https://blog.csdn.net/m0_37786447/article/details/80608531"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C15" r:id="rId2" tooltip="https://blog.csdn.net/qq_38690917/article/details/81430553"/>
+    <hyperlink ref="C19" r:id="rId3" tooltip="https://blog.csdn.net/m0_37786447/article/details/80608531"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/bigdata调查/kafka数据hive存储访问.xlsx
+++ b/bigdata调查/kafka数据hive存储访问.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" tabRatio="920"/>
+    <workbookView windowWidth="22488" windowHeight="9347" tabRatio="920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -17,13 +17,163 @@
     <sheet name="Confluent Kafka Connectors（开源）" sheetId="4" r:id="rId8"/>
     <sheet name="Flume+HDFS+Kafka+Hive" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="460">
   <si>
+    <t>表结构</t>
+  </si>
+  <si>
+    <t>day 作为分区</t>
+  </si>
+  <si>
+    <t>以 train_ID作为分区</t>
+  </si>
+  <si>
+    <t>分桶</t>
+  </si>
+  <si>
+    <t>后续如果有需要，可以在分桶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create external table phm(pid string, item string, vid string, value string) </t>
+  </si>
+  <si>
+    <t>partitioned by(day string, trainid string)</t>
+  </si>
+  <si>
+    <t>clustered by (pid) sorted by (pid asc) into 4 buckets</t>
+  </si>
+  <si>
+    <t>ROW FORMAT DELIMITED FIELDS TERMINATED BY '\t'</t>
+  </si>
+  <si>
+    <t>stored as textfile</t>
+  </si>
+  <si>
+    <t>location '/hive/phm/data/';</t>
+  </si>
+  <si>
+    <t>p_id</t>
+  </si>
+  <si>
+    <t>协议编号</t>
+  </si>
+  <si>
+    <t>train_id</t>
+  </si>
+  <si>
+    <t>车id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>时间戳</t>
+  </si>
+  <si>
+    <t>v_id</t>
+  </si>
+  <si>
+    <t>变量id</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>signal_value</t>
+  </si>
+  <si>
+    <t>变量值</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/whdxjbw/article/details/82219022</t>
+  </si>
+  <si>
+    <t>全套 shell方案</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/654wangzai321/p/9970162.html</t>
+  </si>
+  <si>
+    <t>MultipleSequenceFileOutputFormat</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/king_old_six/article/details/81349692</t>
+  </si>
+  <si>
+    <t>generateFileNameForKeyValue</t>
+  </si>
+  <si>
+    <t>spark 将dataframe数据写入Hive分区表</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/zgc625238677/article/details/53928320/</t>
+  </si>
+  <si>
+    <t>app_device_info.write.format("parquet").option("path", "/user/hadoop/warehouse/app/app_device_info")</t>
+  </si>
+  <si>
+    <t>.partitionBy("y", "m").mode("overwrite").saveAsTable("my_database.app_device_info")</t>
+  </si>
+  <si>
+    <t>hivecontext.sql(s"""insert into table my_database.${tableNane}) partition(y='s{year}'，m='${month}'，d='${day}')</t>
+  </si>
+  <si>
+    <t>select t.*,  '${year}' as y, '${month}' as m,  '${day}' as d  from tmpTable t""")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--------------------- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者：简之 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">来源：CSDN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">原文：https://blog.csdn.net/olizxq/article/details/82807583 </t>
+  </si>
+  <si>
+    <t>版权声明：本文为博主原创文章，转载请附上博文链接！</t>
+  </si>
+  <si>
+    <t>可分隔的文件类和压缩</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/code2one/p/9872010.html</t>
+  </si>
+  <si>
+    <t>把文件复制多份存到HDFS中，可以提高I/O效率（并行读写）。但同时要管理好压缩。本书推荐Parquet和gzip。</t>
+  </si>
+  <si>
+    <t>partition输出（Bucketing可能更好）</t>
+  </si>
+  <si>
+    <t>csvFile.write.mode("overwrite").partitionBy("DEST_COUNTRY_NAME").save()</t>
+  </si>
+  <si>
+    <t>这样每个country都有一个folder。当用户经常filter某个对象，可以用这种方式输出</t>
+  </si>
+  <si>
+    <t>Bucketing</t>
+  </si>
+  <si>
+    <t>控制数据写到制定的每个file，这样在读取，join或agg时，就可以避免一些shuffle。</t>
+  </si>
+  <si>
+    <t>csvFile.write.format("parquet").mode("overwrite")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .bucketBy(numberBuckets, columnToBucketBy).saveAsTable("bucketedFiles")</t>
+  </si>
+  <si>
     <t>方案1</t>
   </si>
   <si>
@@ -132,42 +282,6 @@
     <t>可以同时做其他处理，避免的二次取kakfa数据</t>
   </si>
   <si>
-    <t>p_id</t>
-  </si>
-  <si>
-    <t>协议编号</t>
-  </si>
-  <si>
-    <t>train_id</t>
-  </si>
-  <si>
-    <t>车id</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>时间戳</t>
-  </si>
-  <si>
-    <t>v_id</t>
-  </si>
-  <si>
-    <t>变量id</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>signal_value</t>
-  </si>
-  <si>
-    <t>变量值</t>
-  </si>
-  <si>
     <t>1、 数据1辆车1分钟 1M 数据</t>
   </si>
   <si>
@@ -286,6 +400,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -309,6 +430,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -323,6 +451,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">      hdfs.</t>
     </r>
     <r>
@@ -385,7 +520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -396,7 +531,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -555,7 +690,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -566,7 +701,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -594,7 +729,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -605,7 +740,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -616,7 +751,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -627,7 +762,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -640,7 +775,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -651,7 +786,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +797,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -673,7 +808,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -724,7 +859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -735,7 +870,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -820,7 +955,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -830,7 +965,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,7 +989,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -865,7 +1000,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,7 +1010,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -938,7 +1073,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -948,7 +1083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -958,7 +1093,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1073,7 +1208,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1084,7 +1219,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1095,7 +1230,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1286,7 +1421,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1320,7 +1455,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1333,7 +1468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1774,130 +1909,22 @@
   <si>
     <t>https://blog.csdn.net/m0_37786447/article/details/80608531</t>
   </si>
-  <si>
-    <t>表结构</t>
-  </si>
-  <si>
-    <t>day 作为分区</t>
-  </si>
-  <si>
-    <t>以 train_ID作为分区</t>
-  </si>
-  <si>
-    <t>ROW FORMAT DELIMITED FIELDS TERMINATED BY '\t'</t>
-  </si>
-  <si>
-    <t>stored as textfile</t>
-  </si>
-  <si>
-    <t>分桶</t>
-  </si>
-  <si>
-    <t>后续如果有需要，可以在分桶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create external table phm(pid string, item string, vid string, value string) </t>
-  </si>
-  <si>
-    <t>location '/hive/phm/data/';</t>
-  </si>
-  <si>
-    <t>clustered by (pid) sorted by (pid asc) into 4 buckets</t>
-  </si>
-  <si>
-    <t>partitioned by(day string, trainid string)</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/whdxjbw/article/details/82219022</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/654wangzai321/p/9970162.html</t>
-  </si>
-  <si>
-    <t>全套 shell方案</t>
-  </si>
-  <si>
-    <t>MultipleSequenceFileOutputFormat</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/king_old_six/article/details/81349692</t>
-  </si>
-  <si>
-    <t>generateFileNameForKeyValue</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/zgc625238677/article/details/53928320/</t>
-  </si>
-  <si>
-    <t>spark 将dataframe数据写入Hive分区表</t>
-  </si>
-  <si>
-    <t>app_device_info.write.format("parquet").option("path", "/user/hadoop/warehouse/app/app_device_info")</t>
-  </si>
-  <si>
-    <t>.partitionBy("y", "m").mode("overwrite").saveAsTable("my_database.app_device_info")</t>
-  </si>
-  <si>
-    <t>hivecontext.sql(s"""insert into table my_database.${tableNane}) partition(y='s{year}'，m='${month}'，d='${day}')</t>
-  </si>
-  <si>
-    <t>select t.*,  '${year}' as y, '${month}' as m,  '${day}' as d  from tmpTable t""")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--------------------- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者：简之 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">来源：CSDN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">原文：https://blog.csdn.net/olizxq/article/details/82807583 </t>
-  </si>
-  <si>
-    <t>版权声明：本文为博主原创文章，转载请附上博文链接！</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/code2one/p/9872010.html</t>
-  </si>
-  <si>
-    <t>可分隔的文件类和压缩</t>
-  </si>
-  <si>
-    <t>把文件复制多份存到HDFS中，可以提高I/O效率（并行读写）。但同时要管理好压缩。本书推荐Parquet和gzip。</t>
-  </si>
-  <si>
-    <t>partition输出（Bucketing可能更好）</t>
-  </si>
-  <si>
-    <t>csvFile.write.mode("overwrite").partitionBy("DEST_COUNTRY_NAME").save()</t>
-  </si>
-  <si>
-    <t>这样每个country都有一个folder。当用户经常filter某个对象，可以用这种方式输出</t>
-  </si>
-  <si>
-    <t>Bucketing</t>
-  </si>
-  <si>
-    <t>控制数据写到制定的每个file，这样在读取，join或agg时，就可以避免一些shuffle。</t>
-  </si>
-  <si>
-    <t>csvFile.write.format("parquet").mode("overwrite")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  .bucketBy(numberBuckets, columnToBucketBy).saveAsTable("bucketedFiles")</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1905,14 +1932,15 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1920,7 +1948,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1928,7 +1956,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1936,20 +1964,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.199999999999999"/>
+      <sz val="10.2"/>
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
+      <color theme="1" tint="0.349986266670736"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1957,7 +1985,8 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1970,7 +1999,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1978,7 +2007,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1986,21 +2015,28 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2009,6 +2045,157 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2040,30 +2227,8 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2072,7 +2237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2096,12 +2261,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2374,16 +2719,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2397,7 +2981,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2416,43 +3003,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2466,19 +3036,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2489,7 +3115,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2511,14 +3137,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1125220"/>
+          <a:off x="609600" y="1125855"/>
           <a:ext cx="7744460" cy="4831715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2553,14 +3179,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" r:link="rId2"/>
+        <a:blip r:embed="rId3" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="14551660"/>
+          <a:off x="1066800" y="14552295"/>
           <a:ext cx="5745480" cy="4095750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2595,14 +3221,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" r:link="rId2"/>
+        <a:blip r:embed="rId4" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="632460" y="6687820"/>
+          <a:off x="632460" y="6688455"/>
           <a:ext cx="7269480" cy="2996565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2637,14 +3263,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" r:link="rId2"/>
+        <a:blip r:embed="rId5" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1097280" y="24751030"/>
+          <a:off x="1097280" y="24751665"/>
           <a:ext cx="7649845" cy="4229100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2685,7 +3311,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="25036780"/>
+          <a:off x="1219200" y="25037415"/>
           <a:ext cx="114300" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2720,14 +3346,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" r:link="rId2"/>
+        <a:blip r:embed="rId6" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1303020" y="29707840"/>
+          <a:off x="1303020" y="29708475"/>
           <a:ext cx="7896860" cy="4214495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2768,7 +3394,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="29944060"/>
+          <a:off x="1219200" y="29944695"/>
           <a:ext cx="114300" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2803,14 +3429,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" r:link="rId2"/>
+        <a:blip r:embed="rId7" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1203960" y="34866580"/>
+          <a:off x="1203960" y="34867215"/>
           <a:ext cx="7764780" cy="4364355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2851,7 +3477,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="35377120"/>
+          <a:off x="609600" y="35377755"/>
           <a:ext cx="114300" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2869,7 +3495,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2883,7 +3509,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2929,6 +3555,11 @@
             </a:rPr>
             <a:t>Kafka</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2947,7 +3578,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="平行四边形 2"/>
         <xdr:cNvSpPr/>
@@ -2993,6 +3624,11 @@
             </a:rPr>
             <a:t>Kafka Connect</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3011,7 +3647,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
@@ -3155,6 +3791,11 @@
             </a:rPr>
             <a:t>HDFS</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3173,7 +3814,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
         <xdr:cNvCxnSpPr>
@@ -3229,7 +3870,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
         <xdr:cNvCxnSpPr>
@@ -3285,7 +3926,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="下箭头 6"/>
         <xdr:cNvSpPr/>
@@ -3334,6 +3975,11 @@
             </a:rPr>
             <a:t>Json</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3352,7 +3998,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
@@ -3496,6 +4142,11 @@
             </a:rPr>
             <a:t>Hive</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3514,7 +4165,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
         <xdr:cNvCxnSpPr>
@@ -3845,1692 +4496,1696 @@
       </a:style>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C5:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="G8" s="40" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="G9" s="40" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="40" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="40" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>426</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="40" t="s">
-        <v>430</v>
+      <c r="C17" s="47" t="s">
+        <v>10</v>
       </c>
       <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13">
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13">
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="48"/>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="47"/>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="31" t="s">
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
-      <c r="K18" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="31" t="s">
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
-      <c r="K19" t="s">
+    <row r="57" spans="3:4">
+      <c r="C57" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="D57" s="49"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="D58" s="49"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="49"/>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="41"/>
-      <c r="K20" t="s">
+      <c r="D62" s="49"/>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="31" t="s">
+      <c r="D63" s="49"/>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="49" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="40"/>
-      <c r="K21" t="s">
+      <c r="D64" s="49"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="D65" s="49"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="D66" s="49"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="D45" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="D48" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="D57" s="52"/>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="D58" s="52"/>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="D61" s="52"/>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="D62" s="52"/>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="52" t="s">
-        <v>453</v>
-      </c>
-      <c r="D63" s="52"/>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="52" t="s">
-        <v>454</v>
-      </c>
-      <c r="D64" s="52"/>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D65" s="52"/>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D66" s="52"/>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D67" s="52"/>
+      <c r="D67" s="49"/>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="52" t="s">
-        <v>458</v>
-      </c>
-      <c r="D68" s="52"/>
+      <c r="C68" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="49"/>
     </row>
     <row r="69" spans="3:4">
-      <c r="C69" s="52" t="s">
-        <v>459</v>
-      </c>
-      <c r="D69" s="52"/>
+      <c r="C69" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1"/>
-    <hyperlink ref="C39" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId1" display="https://blog.csdn.net/whdxjbw/article/details/82219022"/>
+    <hyperlink ref="C39" r:id="rId2" display="https://blog.csdn.net/zgc625238677/article/details/53928320/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:J124"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.6">
+    <row r="2" ht="15.6" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10">
       <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10">
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="43"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
+      <c r="D59" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" t="s">
         <v>13</v>
       </c>
-      <c r="I18" t="s">
+      <c r="D60" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="F19" t="s">
+      <c r="D61" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
+      <c r="E61" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" t="s">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="D62" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="C21" t="s">
+    <row r="63" spans="3:5">
+      <c r="C63" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" t="s">
+      <c r="D63" s="39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" t="s">
+      <c r="E63" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.6">
-      <c r="A34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="35"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="D42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="C59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="C60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="C61" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="C63" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9">
       <c r="I71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" ht="14.4" spans="4:9">
+      <c r="D72" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="I72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="4:9">
+      <c r="D74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="4:9">
+      <c r="D75" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" s="42" customFormat="1"/>
+    <row r="79" ht="20.4" spans="1:1">
+      <c r="A79" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15">
-      <c r="D72" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I72" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="I73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="D74" t="s">
-        <v>54</v>
-      </c>
-      <c r="I74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="D75" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="34" customFormat="1"/>
-    <row r="79" spans="1:9" ht="21">
-      <c r="A79" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="C80" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="38"/>
+    <row r="80" spans="3:9">
+      <c r="C80" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="42"/>
       <c r="I80" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9">
       <c r="I82">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="3:9">
       <c r="C83" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="I83">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="9:9">
       <c r="I84">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="3:10">
       <c r="C85" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="I85">
         <f>I82*I83*I84</f>
         <v>42000</v>
       </c>
       <c r="J85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9">
       <c r="C87" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="I87" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
       <c r="D90" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="13.05" customHeight="1">
-      <c r="A103" s="15"/>
-    </row>
-    <row r="104" spans="1:4" ht="21">
-      <c r="A104" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" ht="13.05" customHeight="1" spans="1:1">
+      <c r="A103" s="16"/>
+    </row>
+    <row r="104" ht="20.4" spans="1:1">
+      <c r="A104" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C110" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
       <c r="C118" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79:E83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.55555555555556" customWidth="1"/>
+    <col min="4" max="4" width="9.22222222222222" customWidth="1"/>
+    <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="12.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="J1" s="32"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="1" spans="10:10">
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" ht="15.6" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="J2" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:16">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="10:10">
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="32"/>
+        <v>132</v>
+      </c>
+      <c r="J4" s="40"/>
       <c r="L4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:16">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="10:10">
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="3:13">
       <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="32"/>
+        <v>133</v>
+      </c>
+      <c r="J6" s="40"/>
       <c r="M6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="C8" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="M8" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="J9" s="32"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="1:16">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="10:10">
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="3:16">
+      <c r="C8" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="M8" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+    </row>
+    <row r="9" spans="10:16">
+      <c r="J9" s="40"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+    </row>
+    <row r="10" spans="4:16">
       <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:16">
+        <v>136</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="4:10">
       <c r="D12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:16">
+        <v>138</v>
+      </c>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="4:10">
       <c r="D13" s="3"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="4:10">
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" ht="14.55" spans="4:10">
       <c r="D15" s="3"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:16" ht="21">
-      <c r="E16" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="32"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" ht="21.15" spans="5:10">
+      <c r="E16" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="32"/>
+      <c r="E17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="E18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="27">
         <v>109</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="J18" s="32"/>
+      <c r="H18" s="28"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="J19" s="32"/>
+      <c r="E19" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="27">
+      <c r="E20" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" ht="14.55" spans="5:10">
+      <c r="E21" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="30">
         <v>32</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="J21" s="32"/>
+      <c r="H21" s="31"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="29">
+      <c r="E22" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="33">
         <v>1</v>
       </c>
-      <c r="H22" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="32"/>
+      <c r="H22" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="47"/>
-      <c r="J23" s="32"/>
+      <c r="E23" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="25">
+      <c r="E24" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="27">
         <v>32</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="J24" s="32"/>
+      <c r="H24" s="35"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="47"/>
-      <c r="J25" s="32"/>
+      <c r="E25" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="47"/>
-      <c r="J26" s="32"/>
+      <c r="E26" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="J27" s="32"/>
+      <c r="E27" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="5:10">
-      <c r="E28" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="25">
+      <c r="E28" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="27">
         <v>1</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="J28" s="32"/>
+      <c r="H28" s="35"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="5:10">
-      <c r="E29" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="47"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="5:10">
-      <c r="E30" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="27">
+      <c r="E29" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" ht="14.55" spans="5:10">
+      <c r="E30" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="30">
         <v>32</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="J30" s="32"/>
+      <c r="H30" s="36"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="5:10">
-      <c r="E31" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="29">
+      <c r="E31" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="33">
         <v>1</v>
       </c>
-      <c r="H31" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" s="32"/>
+      <c r="H31" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="5:10">
-      <c r="E32" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="25">
+      <c r="E32" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="27">
         <v>1</v>
       </c>
-      <c r="H32" s="44"/>
-      <c r="J32" s="32"/>
+      <c r="H32" s="28"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="5:10">
-      <c r="E33" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="44"/>
-      <c r="J33" s="32"/>
+      <c r="E33" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="5:10">
-      <c r="E34" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="44"/>
-      <c r="J34" s="32"/>
+      <c r="E34" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="35" spans="5:10">
-      <c r="E35" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="25">
+      <c r="E35" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="27">
         <v>32</v>
       </c>
-      <c r="H35" s="44"/>
-      <c r="J35" s="32"/>
+      <c r="H35" s="28"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="5:10">
-      <c r="E36" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="44"/>
-      <c r="J36" s="32"/>
+      <c r="E36" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" s="28"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="5:10">
-      <c r="E37" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="44"/>
-      <c r="J37" s="32"/>
+      <c r="E37" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="28"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="5:10">
-      <c r="E38" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="25">
+      <c r="E38" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="27">
         <v>1</v>
       </c>
-      <c r="H38" s="44"/>
-      <c r="J38" s="32"/>
+      <c r="H38" s="28"/>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="5:10">
-      <c r="E39" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="44"/>
-      <c r="J39" s="32"/>
+      <c r="E39" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="28"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" spans="5:10">
-      <c r="E40" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40" s="44"/>
-      <c r="J40" s="32"/>
+      <c r="E40" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" spans="5:10">
-      <c r="E41" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H41" s="44"/>
-      <c r="J41" s="32"/>
+      <c r="E41" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="28"/>
+      <c r="J41" s="40"/>
     </row>
     <row r="42" spans="5:10">
-      <c r="E42" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42" s="44"/>
-      <c r="J42" s="32"/>
+      <c r="E42" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" spans="5:10">
-      <c r="E43" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" s="44"/>
-      <c r="J43" s="32"/>
+      <c r="E43" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="5:10">
-      <c r="E44" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="25">
+      <c r="E44" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="27">
         <v>1</v>
       </c>
-      <c r="H44" s="44"/>
-      <c r="J44" s="32"/>
+      <c r="H44" s="28"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="5:10">
-      <c r="E45" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="25">
+      <c r="E45" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="27">
         <v>1</v>
       </c>
-      <c r="H45" s="44"/>
-      <c r="J45" s="32"/>
+      <c r="H45" s="28"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="5:10">
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="28"/>
+      <c r="J46" s="40"/>
+    </row>
+    <row r="47" spans="5:10">
+      <c r="E47" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="28"/>
+      <c r="J47" s="40"/>
+    </row>
+    <row r="48" spans="5:10">
+      <c r="E48" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="27">
+        <v>32</v>
+      </c>
+      <c r="H48" s="28"/>
+      <c r="J48" s="40"/>
+    </row>
+    <row r="49" spans="5:10">
+      <c r="E49" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="28"/>
+      <c r="J49" s="40"/>
+    </row>
+    <row r="50" spans="5:10">
+      <c r="E50" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="J50" s="40"/>
+    </row>
+    <row r="51" spans="5:10">
+      <c r="E51" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="27">
+        <v>1</v>
+      </c>
+      <c r="H51" s="28"/>
+      <c r="J51" s="40"/>
+    </row>
+    <row r="52" ht="14.55" spans="5:10">
+      <c r="E52" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="J52" s="40"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="40"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="40"/>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="M55" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="40"/>
+    </row>
+    <row r="57" spans="4:14">
+      <c r="D57" t="s">
+        <v>185</v>
+      </c>
+      <c r="J57" s="40"/>
+      <c r="N57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="5:16">
+      <c r="E58" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="J46" s="32"/>
-    </row>
-    <row r="47" spans="5:10">
-      <c r="E47" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="44"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="5:10">
-      <c r="E48" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="25">
-        <v>32</v>
-      </c>
-      <c r="H48" s="44"/>
-      <c r="J48" s="32"/>
-    </row>
-    <row r="49" spans="2:16">
-      <c r="E49" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="44"/>
-      <c r="J49" s="32"/>
-    </row>
-    <row r="50" spans="2:16">
-      <c r="E50" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="44"/>
-      <c r="J50" s="32"/>
-    </row>
-    <row r="51" spans="2:16">
-      <c r="E51" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="25">
-        <v>1</v>
-      </c>
-      <c r="H51" s="44"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="2:16">
-      <c r="E52" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" s="45"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="2:16">
-      <c r="J53" s="32"/>
-    </row>
-    <row r="54" spans="2:16">
-      <c r="J54" s="32"/>
-    </row>
-    <row r="55" spans="2:16">
-      <c r="C55" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="J55" s="32"/>
-      <c r="M55" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16">
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="2:16">
-      <c r="D57" t="s">
-        <v>147</v>
-      </c>
-      <c r="J57" s="32"/>
-      <c r="N57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16">
-      <c r="E58" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="J58" s="32"/>
-      <c r="O58" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P58" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16">
-      <c r="E59" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" s="32"/>
-      <c r="O59" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="P59" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16">
-      <c r="E60" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="J60" s="32"/>
-      <c r="O60" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="P60" s="31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16">
-      <c r="E61" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="J61" s="32"/>
-      <c r="O61" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="P61" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16">
-      <c r="J62" s="32"/>
-    </row>
-    <row r="63" spans="2:16">
-      <c r="J63" s="32"/>
-    </row>
-    <row r="64" spans="2:16">
+      <c r="F58" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="J58" s="40"/>
+      <c r="O58" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="P58" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="5:16">
+      <c r="E59" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="40"/>
+      <c r="O59" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="5:16">
+      <c r="E60" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="J60" s="40"/>
+      <c r="O60" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="5:16">
+      <c r="E61" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="J61" s="40"/>
+      <c r="O61" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" s="40"/>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" s="40"/>
+    </row>
+    <row r="64" spans="2:12">
       <c r="B64" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J64" s="32"/>
+        <v>190</v>
+      </c>
+      <c r="J64" s="40"/>
       <c r="L64" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" s="3"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="2:14">
+      <c r="J65" s="40"/>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66" s="3"/>
       <c r="C66" t="s">
-        <v>154</v>
-      </c>
-      <c r="J66" s="32"/>
+        <v>192</v>
+      </c>
+      <c r="J66" s="40"/>
       <c r="M66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" s="3"/>
-      <c r="J67" s="32"/>
+      <c r="J67" s="40"/>
     </row>
     <row r="68" spans="2:14">
       <c r="B68" s="3"/>
       <c r="D68" t="s">
-        <v>155</v>
-      </c>
-      <c r="J68" s="32"/>
+        <v>193</v>
+      </c>
+      <c r="J68" s="40"/>
       <c r="N68" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="2:14">
       <c r="B69" s="3"/>
       <c r="D69" t="s">
-        <v>156</v>
-      </c>
-      <c r="J69" s="32"/>
+        <v>194</v>
+      </c>
+      <c r="J69" s="40"/>
       <c r="N69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
       <c r="B70" s="3"/>
       <c r="D70" t="s">
-        <v>157</v>
-      </c>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="2:14">
+        <v>195</v>
+      </c>
+      <c r="J70" s="40"/>
+    </row>
+    <row r="71" spans="2:10">
       <c r="B71" s="3"/>
-      <c r="J71" s="32"/>
-    </row>
-    <row r="72" spans="2:14">
+      <c r="J71" s="40"/>
+    </row>
+    <row r="72" spans="2:10">
       <c r="B72" s="3"/>
-      <c r="J72" s="32"/>
-    </row>
-    <row r="73" spans="2:14">
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="2:12">
       <c r="B73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73" s="40"/>
+      <c r="L73" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="10:10">
+      <c r="J74" s="40"/>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
+      <c r="J75" s="40"/>
+      <c r="M75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="10:10">
+      <c r="J76" s="40"/>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77" s="40"/>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78" s="40"/>
+    </row>
+    <row r="79" spans="4:10">
+      <c r="D79" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="40"/>
+    </row>
+    <row r="80" spans="4:10">
+      <c r="D80" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="40"/>
+    </row>
+    <row r="81" spans="4:10">
+      <c r="D81" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="40"/>
+    </row>
+    <row r="82" spans="4:10">
+      <c r="D82" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="32"/>
-      <c r="L73" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="C75" t="s">
-        <v>158</v>
-      </c>
-      <c r="J75" s="32"/>
-      <c r="M75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14">
-      <c r="J76" s="32"/>
-    </row>
-    <row r="77" spans="2:14">
-      <c r="J77" s="32"/>
-    </row>
-    <row r="78" spans="2:14">
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="2:14">
-      <c r="D79" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="2:14">
-      <c r="D80" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J80" s="32"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="D81" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J81" s="32"/>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="D82" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J82" s="32"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="D83" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="J84" s="32"/>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="J85" s="32"/>
+      <c r="J82" s="40"/>
+    </row>
+    <row r="83" spans="4:10">
+      <c r="D83" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J83" s="40"/>
+    </row>
+    <row r="84" spans="10:10">
+      <c r="J84" s="40"/>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85" s="40"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="3"/>
-      <c r="J86" s="32"/>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="J89" s="32"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="J90" s="32"/>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="J91" s="32"/>
+      <c r="J86" s="40"/>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" s="40"/>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88" s="40"/>
+    </row>
+    <row r="89" spans="10:10">
+      <c r="J89" s="40"/>
+    </row>
+    <row r="90" spans="10:10">
+      <c r="J90" s="40"/>
+    </row>
+    <row r="91" spans="10:10">
+      <c r="J91" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5539,327 +6194,329 @@
     <mergeCell ref="H31:H52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:S288"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="21">
-      <c r="A2" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="2" ht="20.4" spans="1:1">
+      <c r="A2" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.05" customHeight="1"/>
-    <row r="36" spans="1:2" ht="21">
-      <c r="A36" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" ht="13.05" customHeight="1"/>
+    <row r="36" ht="20.4" spans="1:1">
+      <c r="A36" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" s="3" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="3"/>
       <c r="C60" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="21">
-      <c r="A79" s="15" t="s">
-        <v>184</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" ht="20.4" spans="1:1">
+      <c r="A79" s="16" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
       <c r="B108" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
       <c r="B111" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
       <c r="C112" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
       <c r="C113" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
       <c r="C114" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
       <c r="B115" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
       <c r="B118" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
-      <c r="C119" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
       <c r="B121" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
       <c r="B126" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
       <c r="C127" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
       <c r="C128" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
       <c r="B129" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
       <c r="B131" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
       <c r="C132" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="21">
-      <c r="A134" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" ht="20.4" spans="1:1">
+      <c r="A134" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
       <c r="C136" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
       <c r="B138" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
       <c r="B139" s="3"/>
       <c r="C139" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
       <c r="C142" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
       <c r="B167" s="3" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" s="3"/>
       <c r="C168" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
       <c r="C170" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
       <c r="B195" s="3" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="3"/>
       <c r="C196" s="1" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="F196" s="1"/>
     </row>
@@ -5871,493 +6528,493 @@
       <c r="B198" s="3"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="201" spans="2:6">
+    <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="21">
-      <c r="A227" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="227" ht="20.4" spans="1:1">
+      <c r="A227" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
       <c r="C229" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="21">
-      <c r="A233" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="233" ht="20.4" spans="1:1">
+      <c r="A233" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
       <c r="C235" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
       <c r="C237" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="21">
-      <c r="A240" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="242" spans="2:4" ht="18">
-      <c r="B242" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="240" ht="20.4" spans="1:1">
+      <c r="A240" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" ht="17.4" spans="2:2">
+      <c r="B242" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
       <c r="C243" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
       <c r="C244" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="245" spans="2:4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4">
       <c r="D245" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4">
       <c r="C246" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="2:4">
+    <row r="247" spans="4:4">
       <c r="D247" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4" ht="18">
-      <c r="B250" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="251" spans="2:4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="250" ht="17.4" spans="2:2">
+      <c r="B250" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
       <c r="C251" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4" ht="18">
-      <c r="B253" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4" ht="18">
-      <c r="B254" s="17"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="253" ht="17.4" spans="2:2">
+      <c r="B253" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="254" ht="17.4" spans="2:3">
+      <c r="B254" s="18"/>
       <c r="C254" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4">
       <c r="D255" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="257" spans="3:19">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
       <c r="C257" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="259" spans="3:19">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4">
       <c r="D259" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="261" spans="3:19">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4">
       <c r="D261" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="263" spans="3:19">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4">
       <c r="D263" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="264" spans="3:19">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5">
       <c r="E264" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="266" spans="3:19">
-      <c r="D266" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="E266" s="51"/>
-      <c r="F266" s="51"/>
-      <c r="G266" s="51"/>
-      <c r="H266" s="51"/>
-      <c r="I266" s="51"/>
-      <c r="J266" s="51"/>
-      <c r="K266" s="51"/>
-      <c r="L266" s="51"/>
-      <c r="M266" s="51"/>
-      <c r="N266" s="51"/>
-      <c r="O266" s="51"/>
-      <c r="P266" s="51"/>
-      <c r="Q266" s="51"/>
-      <c r="R266" s="51"/>
-      <c r="S266" s="51"/>
-    </row>
-    <row r="267" spans="3:19">
-      <c r="D267" s="51"/>
-      <c r="E267" s="51"/>
-      <c r="F267" s="51"/>
-      <c r="G267" s="51"/>
-      <c r="H267" s="51"/>
-      <c r="I267" s="51"/>
-      <c r="J267" s="51"/>
-      <c r="K267" s="51"/>
-      <c r="L267" s="51"/>
-      <c r="M267" s="51"/>
-      <c r="N267" s="51"/>
-      <c r="O267" s="51"/>
-      <c r="P267" s="51"/>
-      <c r="Q267" s="51"/>
-      <c r="R267" s="51"/>
-      <c r="S267" s="51"/>
-    </row>
-    <row r="268" spans="3:19">
-      <c r="D268" s="51"/>
-      <c r="E268" s="51"/>
-      <c r="F268" s="51"/>
-      <c r="G268" s="51"/>
-      <c r="H268" s="51"/>
-      <c r="I268" s="51"/>
-      <c r="J268" s="51"/>
-      <c r="K268" s="51"/>
-      <c r="L268" s="51"/>
-      <c r="M268" s="51"/>
-      <c r="N268" s="51"/>
-      <c r="O268" s="51"/>
-      <c r="P268" s="51"/>
-      <c r="Q268" s="51"/>
-      <c r="R268" s="51"/>
-      <c r="S268" s="51"/>
-    </row>
-    <row r="269" spans="3:19">
-      <c r="D269" s="51"/>
-      <c r="E269" s="51"/>
-      <c r="F269" s="51"/>
-      <c r="G269" s="51"/>
-      <c r="H269" s="51"/>
-      <c r="I269" s="51"/>
-      <c r="J269" s="51"/>
-      <c r="K269" s="51"/>
-      <c r="L269" s="51"/>
-      <c r="M269" s="51"/>
-      <c r="N269" s="51"/>
-      <c r="O269" s="51"/>
-      <c r="P269" s="51"/>
-      <c r="Q269" s="51"/>
-      <c r="R269" s="51"/>
-      <c r="S269" s="51"/>
-    </row>
-    <row r="270" spans="3:19">
-      <c r="D270" s="51"/>
-      <c r="E270" s="51"/>
-      <c r="F270" s="51"/>
-      <c r="G270" s="51"/>
-      <c r="H270" s="51"/>
-      <c r="I270" s="51"/>
-      <c r="J270" s="51"/>
-      <c r="K270" s="51"/>
-      <c r="L270" s="51"/>
-      <c r="M270" s="51"/>
-      <c r="N270" s="51"/>
-      <c r="O270" s="51"/>
-      <c r="P270" s="51"/>
-      <c r="Q270" s="51"/>
-      <c r="R270" s="51"/>
-      <c r="S270" s="51"/>
-    </row>
-    <row r="271" spans="3:19">
-      <c r="D271" s="51"/>
-      <c r="E271" s="51"/>
-      <c r="F271" s="51"/>
-      <c r="G271" s="51"/>
-      <c r="H271" s="51"/>
-      <c r="I271" s="51"/>
-      <c r="J271" s="51"/>
-      <c r="K271" s="51"/>
-      <c r="L271" s="51"/>
-      <c r="M271" s="51"/>
-      <c r="N271" s="51"/>
-      <c r="O271" s="51"/>
-      <c r="P271" s="51"/>
-      <c r="Q271" s="51"/>
-      <c r="R271" s="51"/>
-      <c r="S271" s="51"/>
-    </row>
-    <row r="272" spans="3:19">
-      <c r="D272" s="51"/>
-      <c r="E272" s="51"/>
-      <c r="F272" s="51"/>
-      <c r="G272" s="51"/>
-      <c r="H272" s="51"/>
-      <c r="I272" s="51"/>
-      <c r="J272" s="51"/>
-      <c r="K272" s="51"/>
-      <c r="L272" s="51"/>
-      <c r="M272" s="51"/>
-      <c r="N272" s="51"/>
-      <c r="O272" s="51"/>
-      <c r="P272" s="51"/>
-      <c r="Q272" s="51"/>
-      <c r="R272" s="51"/>
-      <c r="S272" s="51"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="266" spans="4:19">
+      <c r="D266" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="6"/>
+      <c r="M266" s="6"/>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="6"/>
+      <c r="Q266" s="6"/>
+      <c r="R266" s="6"/>
+      <c r="S266" s="6"/>
+    </row>
+    <row r="267" spans="4:19">
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
+      <c r="L267" s="6"/>
+      <c r="M267" s="6"/>
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="6"/>
+      <c r="Q267" s="6"/>
+      <c r="R267" s="6"/>
+      <c r="S267" s="6"/>
+    </row>
+    <row r="268" spans="4:19">
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+      <c r="K268" s="6"/>
+      <c r="L268" s="6"/>
+      <c r="M268" s="6"/>
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+      <c r="P268" s="6"/>
+      <c r="Q268" s="6"/>
+      <c r="R268" s="6"/>
+      <c r="S268" s="6"/>
+    </row>
+    <row r="269" spans="4:19">
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+      <c r="K269" s="6"/>
+      <c r="L269" s="6"/>
+      <c r="M269" s="6"/>
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="6"/>
+      <c r="Q269" s="6"/>
+      <c r="R269" s="6"/>
+      <c r="S269" s="6"/>
+    </row>
+    <row r="270" spans="4:19">
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+      <c r="K270" s="6"/>
+      <c r="L270" s="6"/>
+      <c r="M270" s="6"/>
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="6"/>
+      <c r="Q270" s="6"/>
+      <c r="R270" s="6"/>
+      <c r="S270" s="6"/>
+    </row>
+    <row r="271" spans="4:19">
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+      <c r="K271" s="6"/>
+      <c r="L271" s="6"/>
+      <c r="M271" s="6"/>
+      <c r="N271" s="6"/>
+      <c r="O271" s="6"/>
+      <c r="P271" s="6"/>
+      <c r="Q271" s="6"/>
+      <c r="R271" s="6"/>
+      <c r="S271" s="6"/>
+    </row>
+    <row r="272" spans="4:19">
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+      <c r="K272" s="6"/>
+      <c r="L272" s="6"/>
+      <c r="M272" s="6"/>
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
+      <c r="Q272" s="6"/>
+      <c r="R272" s="6"/>
+      <c r="S272" s="6"/>
     </row>
     <row r="273" spans="4:19">
-      <c r="D273" s="51"/>
-      <c r="E273" s="51"/>
-      <c r="F273" s="51"/>
-      <c r="G273" s="51"/>
-      <c r="H273" s="51"/>
-      <c r="I273" s="51"/>
-      <c r="J273" s="51"/>
-      <c r="K273" s="51"/>
-      <c r="L273" s="51"/>
-      <c r="M273" s="51"/>
-      <c r="N273" s="51"/>
-      <c r="O273" s="51"/>
-      <c r="P273" s="51"/>
-      <c r="Q273" s="51"/>
-      <c r="R273" s="51"/>
-      <c r="S273" s="51"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="6"/>
+      <c r="L273" s="6"/>
+      <c r="M273" s="6"/>
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
+      <c r="P273" s="6"/>
+      <c r="Q273" s="6"/>
+      <c r="R273" s="6"/>
+      <c r="S273" s="6"/>
     </row>
     <row r="274" spans="4:19">
-      <c r="D274" s="51"/>
-      <c r="E274" s="51"/>
-      <c r="F274" s="51"/>
-      <c r="G274" s="51"/>
-      <c r="H274" s="51"/>
-      <c r="I274" s="51"/>
-      <c r="J274" s="51"/>
-      <c r="K274" s="51"/>
-      <c r="L274" s="51"/>
-      <c r="M274" s="51"/>
-      <c r="N274" s="51"/>
-      <c r="O274" s="51"/>
-      <c r="P274" s="51"/>
-      <c r="Q274" s="51"/>
-      <c r="R274" s="51"/>
-      <c r="S274" s="51"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+      <c r="K274" s="6"/>
+      <c r="L274" s="6"/>
+      <c r="M274" s="6"/>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+      <c r="P274" s="6"/>
+      <c r="Q274" s="6"/>
+      <c r="R274" s="6"/>
+      <c r="S274" s="6"/>
     </row>
     <row r="275" spans="4:19">
-      <c r="D275" s="51"/>
-      <c r="E275" s="51"/>
-      <c r="F275" s="51"/>
-      <c r="G275" s="51"/>
-      <c r="H275" s="51"/>
-      <c r="I275" s="51"/>
-      <c r="J275" s="51"/>
-      <c r="K275" s="51"/>
-      <c r="L275" s="51"/>
-      <c r="M275" s="51"/>
-      <c r="N275" s="51"/>
-      <c r="O275" s="51"/>
-      <c r="P275" s="51"/>
-      <c r="Q275" s="51"/>
-      <c r="R275" s="51"/>
-      <c r="S275" s="51"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+      <c r="K275" s="6"/>
+      <c r="L275" s="6"/>
+      <c r="M275" s="6"/>
+      <c r="N275" s="6"/>
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
+      <c r="Q275" s="6"/>
+      <c r="R275" s="6"/>
+      <c r="S275" s="6"/>
     </row>
     <row r="276" spans="4:19">
-      <c r="D276" s="51"/>
-      <c r="E276" s="51"/>
-      <c r="F276" s="51"/>
-      <c r="G276" s="51"/>
-      <c r="H276" s="51"/>
-      <c r="I276" s="51"/>
-      <c r="J276" s="51"/>
-      <c r="K276" s="51"/>
-      <c r="L276" s="51"/>
-      <c r="M276" s="51"/>
-      <c r="N276" s="51"/>
-      <c r="O276" s="51"/>
-      <c r="P276" s="51"/>
-      <c r="Q276" s="51"/>
-      <c r="R276" s="51"/>
-      <c r="S276" s="51"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
+      <c r="M276" s="6"/>
+      <c r="N276" s="6"/>
+      <c r="O276" s="6"/>
+      <c r="P276" s="6"/>
+      <c r="Q276" s="6"/>
+      <c r="R276" s="6"/>
+      <c r="S276" s="6"/>
     </row>
     <row r="277" spans="4:19">
-      <c r="D277" s="51"/>
-      <c r="E277" s="51"/>
-      <c r="F277" s="51"/>
-      <c r="G277" s="51"/>
-      <c r="H277" s="51"/>
-      <c r="I277" s="51"/>
-      <c r="J277" s="51"/>
-      <c r="K277" s="51"/>
-      <c r="L277" s="51"/>
-      <c r="M277" s="51"/>
-      <c r="N277" s="51"/>
-      <c r="O277" s="51"/>
-      <c r="P277" s="51"/>
-      <c r="Q277" s="51"/>
-      <c r="R277" s="51"/>
-      <c r="S277" s="51"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6"/>
+      <c r="M277" s="6"/>
+      <c r="N277" s="6"/>
+      <c r="O277" s="6"/>
+      <c r="P277" s="6"/>
+      <c r="Q277" s="6"/>
+      <c r="R277" s="6"/>
+      <c r="S277" s="6"/>
     </row>
     <row r="278" spans="4:19">
-      <c r="D278" s="51"/>
-      <c r="E278" s="51"/>
-      <c r="F278" s="51"/>
-      <c r="G278" s="51"/>
-      <c r="H278" s="51"/>
-      <c r="I278" s="51"/>
-      <c r="J278" s="51"/>
-      <c r="K278" s="51"/>
-      <c r="L278" s="51"/>
-      <c r="M278" s="51"/>
-      <c r="N278" s="51"/>
-      <c r="O278" s="51"/>
-      <c r="P278" s="51"/>
-      <c r="Q278" s="51"/>
-      <c r="R278" s="51"/>
-      <c r="S278" s="51"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="6"/>
+      <c r="L278" s="6"/>
+      <c r="M278" s="6"/>
+      <c r="N278" s="6"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="6"/>
+      <c r="Q278" s="6"/>
+      <c r="R278" s="6"/>
+      <c r="S278" s="6"/>
     </row>
     <row r="279" spans="4:19">
-      <c r="D279" s="51"/>
-      <c r="E279" s="51"/>
-      <c r="F279" s="51"/>
-      <c r="G279" s="51"/>
-      <c r="H279" s="51"/>
-      <c r="I279" s="51"/>
-      <c r="J279" s="51"/>
-      <c r="K279" s="51"/>
-      <c r="L279" s="51"/>
-      <c r="M279" s="51"/>
-      <c r="N279" s="51"/>
-      <c r="O279" s="51"/>
-      <c r="P279" s="51"/>
-      <c r="Q279" s="51"/>
-      <c r="R279" s="51"/>
-      <c r="S279" s="51"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="6"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="6"/>
+      <c r="L279" s="6"/>
+      <c r="M279" s="6"/>
+      <c r="N279" s="6"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="6"/>
+      <c r="Q279" s="6"/>
+      <c r="R279" s="6"/>
+      <c r="S279" s="6"/>
     </row>
     <row r="280" spans="4:19">
-      <c r="D280" s="51"/>
-      <c r="E280" s="51"/>
-      <c r="F280" s="51"/>
-      <c r="G280" s="51"/>
-      <c r="H280" s="51"/>
-      <c r="I280" s="51"/>
-      <c r="J280" s="51"/>
-      <c r="K280" s="51"/>
-      <c r="L280" s="51"/>
-      <c r="M280" s="51"/>
-      <c r="N280" s="51"/>
-      <c r="O280" s="51"/>
-      <c r="P280" s="51"/>
-      <c r="Q280" s="51"/>
-      <c r="R280" s="51"/>
-      <c r="S280" s="51"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6"/>
+      <c r="L280" s="6"/>
+      <c r="M280" s="6"/>
+      <c r="N280" s="6"/>
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
+      <c r="Q280" s="6"/>
+      <c r="R280" s="6"/>
+      <c r="S280" s="6"/>
     </row>
     <row r="281" spans="4:19">
-      <c r="D281" s="51"/>
-      <c r="E281" s="51"/>
-      <c r="F281" s="51"/>
-      <c r="G281" s="51"/>
-      <c r="H281" s="51"/>
-      <c r="I281" s="51"/>
-      <c r="J281" s="51"/>
-      <c r="K281" s="51"/>
-      <c r="L281" s="51"/>
-      <c r="M281" s="51"/>
-      <c r="N281" s="51"/>
-      <c r="O281" s="51"/>
-      <c r="P281" s="51"/>
-      <c r="Q281" s="51"/>
-      <c r="R281" s="51"/>
-      <c r="S281" s="51"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+      <c r="K281" s="6"/>
+      <c r="L281" s="6"/>
+      <c r="M281" s="6"/>
+      <c r="N281" s="6"/>
+      <c r="O281" s="6"/>
+      <c r="P281" s="6"/>
+      <c r="Q281" s="6"/>
+      <c r="R281" s="6"/>
+      <c r="S281" s="6"/>
     </row>
     <row r="282" spans="4:19">
-      <c r="D282" s="51"/>
-      <c r="E282" s="51"/>
-      <c r="F282" s="51"/>
-      <c r="G282" s="51"/>
-      <c r="H282" s="51"/>
-      <c r="I282" s="51"/>
-      <c r="J282" s="51"/>
-      <c r="K282" s="51"/>
-      <c r="L282" s="51"/>
-      <c r="M282" s="51"/>
-      <c r="N282" s="51"/>
-      <c r="O282" s="51"/>
-      <c r="P282" s="51"/>
-      <c r="Q282" s="51"/>
-      <c r="R282" s="51"/>
-      <c r="S282" s="51"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+      <c r="K282" s="6"/>
+      <c r="L282" s="6"/>
+      <c r="M282" s="6"/>
+      <c r="N282" s="6"/>
+      <c r="O282" s="6"/>
+      <c r="P282" s="6"/>
+      <c r="Q282" s="6"/>
+      <c r="R282" s="6"/>
+      <c r="S282" s="6"/>
     </row>
     <row r="283" spans="4:19">
-      <c r="D283" s="51"/>
-      <c r="E283" s="51"/>
-      <c r="F283" s="51"/>
-      <c r="G283" s="51"/>
-      <c r="H283" s="51"/>
-      <c r="I283" s="51"/>
-      <c r="J283" s="51"/>
-      <c r="K283" s="51"/>
-      <c r="L283" s="51"/>
-      <c r="M283" s="51"/>
-      <c r="N283" s="51"/>
-      <c r="O283" s="51"/>
-      <c r="P283" s="51"/>
-      <c r="Q283" s="51"/>
-      <c r="R283" s="51"/>
-      <c r="S283" s="51"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
+      <c r="K283" s="6"/>
+      <c r="L283" s="6"/>
+      <c r="M283" s="6"/>
+      <c r="N283" s="6"/>
+      <c r="O283" s="6"/>
+      <c r="P283" s="6"/>
+      <c r="Q283" s="6"/>
+      <c r="R283" s="6"/>
+      <c r="S283" s="6"/>
     </row>
     <row r="284" spans="4:19">
-      <c r="D284" s="51"/>
-      <c r="E284" s="51"/>
-      <c r="F284" s="51"/>
-      <c r="G284" s="51"/>
-      <c r="H284" s="51"/>
-      <c r="I284" s="51"/>
-      <c r="J284" s="51"/>
-      <c r="K284" s="51"/>
-      <c r="L284" s="51"/>
-      <c r="M284" s="51"/>
-      <c r="N284" s="51"/>
-      <c r="O284" s="51"/>
-      <c r="P284" s="51"/>
-      <c r="Q284" s="51"/>
-      <c r="R284" s="51"/>
-      <c r="S284" s="51"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+      <c r="K284" s="6"/>
+      <c r="L284" s="6"/>
+      <c r="M284" s="6"/>
+      <c r="N284" s="6"/>
+      <c r="O284" s="6"/>
+      <c r="P284" s="6"/>
+      <c r="Q284" s="6"/>
+      <c r="R284" s="6"/>
+      <c r="S284" s="6"/>
     </row>
     <row r="285" spans="4:19">
-      <c r="D285" s="51"/>
-      <c r="E285" s="51"/>
-      <c r="F285" s="51"/>
-      <c r="G285" s="51"/>
-      <c r="H285" s="51"/>
-      <c r="I285" s="51"/>
-      <c r="J285" s="51"/>
-      <c r="K285" s="51"/>
-      <c r="L285" s="51"/>
-      <c r="M285" s="51"/>
-      <c r="N285" s="51"/>
-      <c r="O285" s="51"/>
-      <c r="P285" s="51"/>
-      <c r="Q285" s="51"/>
-      <c r="R285" s="51"/>
-      <c r="S285" s="51"/>
-    </row>
-    <row r="287" spans="4:19">
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="6"/>
+      <c r="J285" s="6"/>
+      <c r="K285" s="6"/>
+      <c r="L285" s="6"/>
+      <c r="M285" s="6"/>
+      <c r="N285" s="6"/>
+      <c r="O285" s="6"/>
+      <c r="P285" s="6"/>
+      <c r="Q285" s="6"/>
+      <c r="R285" s="6"/>
+      <c r="S285" s="6"/>
+    </row>
+    <row r="287" spans="4:4">
       <c r="D287" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="288" spans="4:19">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5">
       <c r="E288" s="8" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6365,146 +7022,148 @@
     <mergeCell ref="D266:S285"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C229" r:id="rId1" tooltip="https://gobblin.readthedocs.io/en/latest/case-studies/Kafka-HDFS-Ingestion/"/>
-    <hyperlink ref="C237" r:id="rId2" tooltip="https://gobblin.readthedocs.io/en/latest/sinks/ParquetHdfsDataWriter/"/>
-    <hyperlink ref="D259" r:id="rId3" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetHdfsDataWriter.java"/>
-    <hyperlink ref="D261" r:id="rId4" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetDataWriterBuilder.java"/>
-    <hyperlink ref="C4" r:id="rId5" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/"/>
-    <hyperlink ref="B81" r:id="rId6" location="gobblin-job-flow"/>
-    <hyperlink ref="B4" r:id="rId7"/>
-    <hyperlink ref="B37" r:id="rId8" location="gobblin-constructs"/>
-    <hyperlink ref="C196" r:id="rId9" location="architecture"/>
-    <hyperlink ref="C139" r:id="rId10" location="standalone-architecture"/>
-    <hyperlink ref="C168" r:id="rId11" location="hadoop-mapreduce-architecture"/>
-    <hyperlink ref="D247" r:id="rId12"/>
-    <hyperlink ref="D245" r:id="rId13"/>
-    <hyperlink ref="D255" r:id="rId14" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-api/src/main/java/org/apache/gobblin/writer/DataWriterBuilder.java"/>
+    <hyperlink ref="C229" r:id="rId2" display="https://gobblin.readthedocs.io/en/latest/case-studies/Kafka-HDFS-Ingestion/" tooltip="https://gobblin.readthedocs.io/en/latest/case-studies/Kafka-HDFS-Ingestion/"/>
+    <hyperlink ref="C237" r:id="rId3" display="https://gobblin.readthedocs.io/en/latest/sinks/ParquetHdfsDataWriter/" tooltip="https://gobblin.readthedocs.io/en/latest/sinks/ParquetHdfsDataWriter/"/>
+    <hyperlink ref="D259" r:id="rId4" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetHdfsDataWriter.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetHdfsDataWriter.java"/>
+    <hyperlink ref="D261" r:id="rId5" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetDataWriterBuilder.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-parquet/src/main/java/org/apache/gobblin/writer/ParquetDataWriterBuilder.java"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="B81" r:id="rId6" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/#gobblin-job-flow"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/#gobblin-architecture-overview"/>
+    <hyperlink ref="B37" r:id="rId6" display="https://gobblin.readthedocs.io/en/latest/Gobblin-Architecture/#gobblin-constructs"/>
+    <hyperlink ref="C196" r:id="rId7" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-on-Yarn/#architecture"/>
+    <hyperlink ref="C139" r:id="rId8" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-Deployment/#standalone-architecture"/>
+    <hyperlink ref="C168" r:id="rId8" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-Deployment/#hadoop-mapreduce-architecture"/>
+    <hyperlink ref="D247" r:id="rId9" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-kafka-common/src/main/java/org/apache/gobblin/source/extractor/extract/kafka/KafkaSimpleJsonExtractor.java"/>
+    <hyperlink ref="D245" r:id="rId10" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-modules/gobblin-kafka-common/src/main/java/org/apache/gobblin/source/extractor/extract/kafka/KafkaSimpleSource.java"/>
+    <hyperlink ref="D255" r:id="rId11" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-api/src/main/java/org/apache/gobblin/writer/DataWriterBuilder.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-api/src/main/java/org/apache/gobblin/writer/DataWriterBuilder.java"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId15"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" ht="15.6" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:1">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6">
+    <row r="4" ht="15.6" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
       <c r="E6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
       <c r="F7" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6">
       <c r="F8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="G13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6524,7 +7183,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6542,7 +7201,7 @@
     <row r="20" spans="2:15">
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6562,7 +7221,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6577,122 +7236,122 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
       <c r="C31" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
       <c r="C44" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" ht="15.6" spans="1:1">
       <c r="A46" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
       <c r="C47" s="11" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="2:3">
       <c r="B48" s="8" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="C48" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -6700,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -6708,7 +7367,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -6716,1056 +7375,1056 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="8" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
       <c r="B55" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
       <c r="B58" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="15.6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" ht="15.6" spans="1:1">
       <c r="A65" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="15.6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" ht="15.6" spans="1:3">
       <c r="A66" s="5"/>
       <c r="C66" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="15.6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" ht="15.6" spans="1:1">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:19" ht="15.6">
+    <row r="68" ht="15.6" spans="1:2">
       <c r="A68" s="5"/>
       <c r="B68" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="15.6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" ht="15.6" spans="1:3">
       <c r="A69" s="5"/>
       <c r="C69" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
       <c r="B71" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
-      <c r="B73" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="51"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="51"/>
-      <c r="P73" s="51"/>
-      <c r="Q73" s="51"/>
-      <c r="R73" s="51"/>
-      <c r="S73" s="51"/>
-    </row>
-    <row r="74" spans="1:19">
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="51"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="51"/>
-      <c r="M74" s="51"/>
-      <c r="N74" s="51"/>
-      <c r="O74" s="51"/>
-      <c r="P74" s="51"/>
-      <c r="Q74" s="51"/>
-      <c r="R74" s="51"/>
-      <c r="S74" s="51"/>
-    </row>
-    <row r="75" spans="1:19">
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="51"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="51"/>
-      <c r="R75" s="51"/>
-      <c r="S75" s="51"/>
-    </row>
-    <row r="76" spans="1:19">
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="51"/>
-      <c r="S76" s="51"/>
-    </row>
-    <row r="77" spans="1:19">
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="51"/>
-      <c r="N77" s="51"/>
-      <c r="O77" s="51"/>
-      <c r="P77" s="51"/>
-      <c r="Q77" s="51"/>
-      <c r="R77" s="51"/>
-      <c r="S77" s="51"/>
-    </row>
-    <row r="78" spans="1:19">
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="51"/>
-      <c r="S78" s="51"/>
-    </row>
-    <row r="79" spans="1:19">
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="51"/>
-      <c r="Q79" s="51"/>
-      <c r="R79" s="51"/>
-      <c r="S79" s="51"/>
-    </row>
-    <row r="80" spans="1:19">
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="51"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="51"/>
-      <c r="N80" s="51"/>
-      <c r="O80" s="51"/>
-      <c r="P80" s="51"/>
-      <c r="Q80" s="51"/>
-      <c r="R80" s="51"/>
-      <c r="S80" s="51"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19">
+      <c r="B73" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+    </row>
+    <row r="74" spans="2:19">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+    </row>
+    <row r="75" spans="2:19">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+    </row>
+    <row r="76" spans="2:19">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+    </row>
+    <row r="77" spans="2:19">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+    </row>
+    <row r="78" spans="2:19">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" spans="2:19">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+    </row>
+    <row r="80" spans="2:19">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
     </row>
     <row r="81" spans="2:19">
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="51"/>
-      <c r="O81" s="51"/>
-      <c r="P81" s="51"/>
-      <c r="Q81" s="51"/>
-      <c r="R81" s="51"/>
-      <c r="S81" s="51"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
     </row>
     <row r="82" spans="2:19">
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="51"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="51"/>
-      <c r="M82" s="51"/>
-      <c r="N82" s="51"/>
-      <c r="O82" s="51"/>
-      <c r="P82" s="51"/>
-      <c r="Q82" s="51"/>
-      <c r="R82" s="51"/>
-      <c r="S82" s="51"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:19">
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="51"/>
-      <c r="J83" s="51"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="51"/>
-      <c r="M83" s="51"/>
-      <c r="N83" s="51"/>
-      <c r="O83" s="51"/>
-      <c r="P83" s="51"/>
-      <c r="Q83" s="51"/>
-      <c r="R83" s="51"/>
-      <c r="S83" s="51"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19">
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="51"/>
-      <c r="O84" s="51"/>
-      <c r="P84" s="51"/>
-      <c r="Q84" s="51"/>
-      <c r="R84" s="51"/>
-      <c r="S84" s="51"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
     </row>
     <row r="85" spans="2:19">
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="51"/>
-      <c r="J85" s="51"/>
-      <c r="K85" s="51"/>
-      <c r="L85" s="51"/>
-      <c r="M85" s="51"/>
-      <c r="N85" s="51"/>
-      <c r="O85" s="51"/>
-      <c r="P85" s="51"/>
-      <c r="Q85" s="51"/>
-      <c r="R85" s="51"/>
-      <c r="S85" s="51"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
     </row>
     <row r="86" spans="2:19">
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="51"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="51"/>
-      <c r="N86" s="51"/>
-      <c r="O86" s="51"/>
-      <c r="P86" s="51"/>
-      <c r="Q86" s="51"/>
-      <c r="R86" s="51"/>
-      <c r="S86" s="51"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
     </row>
     <row r="87" spans="2:19">
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="51"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="51"/>
-      <c r="O87" s="51"/>
-      <c r="P87" s="51"/>
-      <c r="Q87" s="51"/>
-      <c r="R87" s="51"/>
-      <c r="S87" s="51"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
     </row>
     <row r="88" spans="2:19">
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="51"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="51"/>
-      <c r="N88" s="51"/>
-      <c r="O88" s="51"/>
-      <c r="P88" s="51"/>
-      <c r="Q88" s="51"/>
-      <c r="R88" s="51"/>
-      <c r="S88" s="51"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
     </row>
     <row r="89" spans="2:19">
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="51"/>
-      <c r="J89" s="51"/>
-      <c r="K89" s="51"/>
-      <c r="L89" s="51"/>
-      <c r="M89" s="51"/>
-      <c r="N89" s="51"/>
-      <c r="O89" s="51"/>
-      <c r="P89" s="51"/>
-      <c r="Q89" s="51"/>
-      <c r="R89" s="51"/>
-      <c r="S89" s="51"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
     </row>
     <row r="90" spans="2:19">
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="51"/>
-      <c r="J90" s="51"/>
-      <c r="K90" s="51"/>
-      <c r="L90" s="51"/>
-      <c r="M90" s="51"/>
-      <c r="N90" s="51"/>
-      <c r="O90" s="51"/>
-      <c r="P90" s="51"/>
-      <c r="Q90" s="51"/>
-      <c r="R90" s="51"/>
-      <c r="S90" s="51"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
     </row>
     <row r="91" spans="2:19">
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="51"/>
-      <c r="O91" s="51"/>
-      <c r="P91" s="51"/>
-      <c r="Q91" s="51"/>
-      <c r="R91" s="51"/>
-      <c r="S91" s="51"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
     </row>
     <row r="92" spans="2:19">
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="51"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="51"/>
-      <c r="M92" s="51"/>
-      <c r="N92" s="51"/>
-      <c r="O92" s="51"/>
-      <c r="P92" s="51"/>
-      <c r="Q92" s="51"/>
-      <c r="R92" s="51"/>
-      <c r="S92" s="51"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
     </row>
     <row r="93" spans="2:19">
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="51"/>
-      <c r="G93" s="51"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="51"/>
-      <c r="J93" s="51"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="51"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="51"/>
-      <c r="O93" s="51"/>
-      <c r="P93" s="51"/>
-      <c r="Q93" s="51"/>
-      <c r="R93" s="51"/>
-      <c r="S93" s="51"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
     </row>
     <row r="94" spans="2:19">
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="51"/>
-      <c r="J94" s="51"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="51"/>
-      <c r="M94" s="51"/>
-      <c r="N94" s="51"/>
-      <c r="O94" s="51"/>
-      <c r="P94" s="51"/>
-      <c r="Q94" s="51"/>
-      <c r="R94" s="51"/>
-      <c r="S94" s="51"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
     </row>
     <row r="95" spans="2:19">
-      <c r="B95" s="51"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="51"/>
-      <c r="J95" s="51"/>
-      <c r="K95" s="51"/>
-      <c r="L95" s="51"/>
-      <c r="M95" s="51"/>
-      <c r="N95" s="51"/>
-      <c r="O95" s="51"/>
-      <c r="P95" s="51"/>
-      <c r="Q95" s="51"/>
-      <c r="R95" s="51"/>
-      <c r="S95" s="51"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
     </row>
     <row r="96" spans="2:19">
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="51"/>
-      <c r="O96" s="51"/>
-      <c r="P96" s="51"/>
-      <c r="Q96" s="51"/>
-      <c r="R96" s="51"/>
-      <c r="S96" s="51"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
     </row>
     <row r="97" spans="2:19">
-      <c r="B97" s="51"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-      <c r="J97" s="51"/>
-      <c r="K97" s="51"/>
-      <c r="L97" s="51"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="51"/>
-      <c r="O97" s="51"/>
-      <c r="P97" s="51"/>
-      <c r="Q97" s="51"/>
-      <c r="R97" s="51"/>
-      <c r="S97" s="51"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
     </row>
     <row r="98" spans="2:19">
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="51"/>
-      <c r="O98" s="51"/>
-      <c r="P98" s="51"/>
-      <c r="Q98" s="51"/>
-      <c r="R98" s="51"/>
-      <c r="S98" s="51"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
     </row>
     <row r="99" spans="2:19">
-      <c r="B99" s="51"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="51"/>
-      <c r="H99" s="51"/>
-      <c r="I99" s="51"/>
-      <c r="J99" s="51"/>
-      <c r="K99" s="51"/>
-      <c r="L99" s="51"/>
-      <c r="M99" s="51"/>
-      <c r="N99" s="51"/>
-      <c r="O99" s="51"/>
-      <c r="P99" s="51"/>
-      <c r="Q99" s="51"/>
-      <c r="R99" s="51"/>
-      <c r="S99" s="51"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
     </row>
     <row r="100" spans="2:19">
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="51"/>
-      <c r="J100" s="51"/>
-      <c r="K100" s="51"/>
-      <c r="L100" s="51"/>
-      <c r="M100" s="51"/>
-      <c r="N100" s="51"/>
-      <c r="O100" s="51"/>
-      <c r="P100" s="51"/>
-      <c r="Q100" s="51"/>
-      <c r="R100" s="51"/>
-      <c r="S100" s="51"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
     </row>
     <row r="101" spans="2:19">
-      <c r="B101" s="51"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="51"/>
-      <c r="J101" s="51"/>
-      <c r="K101" s="51"/>
-      <c r="L101" s="51"/>
-      <c r="M101" s="51"/>
-      <c r="N101" s="51"/>
-      <c r="O101" s="51"/>
-      <c r="P101" s="51"/>
-      <c r="Q101" s="51"/>
-      <c r="R101" s="51"/>
-      <c r="S101" s="51"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
     </row>
     <row r="102" spans="2:19">
-      <c r="B102" s="51"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="51"/>
-      <c r="O102" s="51"/>
-      <c r="P102" s="51"/>
-      <c r="Q102" s="51"/>
-      <c r="R102" s="51"/>
-      <c r="S102" s="51"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
     </row>
     <row r="103" spans="2:19">
-      <c r="B103" s="51"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="51"/>
-      <c r="G103" s="51"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="51"/>
-      <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
-      <c r="L103" s="51"/>
-      <c r="M103" s="51"/>
-      <c r="N103" s="51"/>
-      <c r="O103" s="51"/>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="51"/>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
     </row>
     <row r="104" spans="2:19">
-      <c r="B104" s="51"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="51"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="51"/>
-      <c r="I104" s="51"/>
-      <c r="J104" s="51"/>
-      <c r="K104" s="51"/>
-      <c r="L104" s="51"/>
-      <c r="M104" s="51"/>
-      <c r="N104" s="51"/>
-      <c r="O104" s="51"/>
-      <c r="P104" s="51"/>
-      <c r="Q104" s="51"/>
-      <c r="R104" s="51"/>
-      <c r="S104" s="51"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
     </row>
     <row r="105" spans="2:19">
-      <c r="B105" s="51"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="51"/>
-      <c r="O105" s="51"/>
-      <c r="P105" s="51"/>
-      <c r="Q105" s="51"/>
-      <c r="R105" s="51"/>
-      <c r="S105" s="51"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
     </row>
     <row r="106" spans="2:19">
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="51"/>
-      <c r="J106" s="51"/>
-      <c r="K106" s="51"/>
-      <c r="L106" s="51"/>
-      <c r="M106" s="51"/>
-      <c r="N106" s="51"/>
-      <c r="O106" s="51"/>
-      <c r="P106" s="51"/>
-      <c r="Q106" s="51"/>
-      <c r="R106" s="51"/>
-      <c r="S106" s="51"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
     </row>
     <row r="107" spans="2:19">
-      <c r="B107" s="51"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="51"/>
-      <c r="O107" s="51"/>
-      <c r="P107" s="51"/>
-      <c r="Q107" s="51"/>
-      <c r="R107" s="51"/>
-      <c r="S107" s="51"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
     </row>
     <row r="108" spans="2:19">
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="51"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="51"/>
-      <c r="J108" s="51"/>
-      <c r="K108" s="51"/>
-      <c r="L108" s="51"/>
-      <c r="M108" s="51"/>
-      <c r="N108" s="51"/>
-      <c r="O108" s="51"/>
-      <c r="P108" s="51"/>
-      <c r="Q108" s="51"/>
-      <c r="R108" s="51"/>
-      <c r="S108" s="51"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
     </row>
     <row r="109" spans="2:19">
-      <c r="B109" s="51"/>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="51"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="51"/>
-      <c r="J109" s="51"/>
-      <c r="K109" s="51"/>
-      <c r="L109" s="51"/>
-      <c r="M109" s="51"/>
-      <c r="N109" s="51"/>
-      <c r="O109" s="51"/>
-      <c r="P109" s="51"/>
-      <c r="Q109" s="51"/>
-      <c r="R109" s="51"/>
-      <c r="S109" s="51"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
     </row>
     <row r="110" spans="2:19">
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="51"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="51"/>
-      <c r="O110" s="51"/>
-      <c r="P110" s="51"/>
-      <c r="Q110" s="51"/>
-      <c r="R110" s="51"/>
-      <c r="S110" s="51"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
     </row>
     <row r="111" spans="2:19">
-      <c r="B111" s="51"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="51"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="51"/>
-      <c r="J111" s="51"/>
-      <c r="K111" s="51"/>
-      <c r="L111" s="51"/>
-      <c r="M111" s="51"/>
-      <c r="N111" s="51"/>
-      <c r="O111" s="51"/>
-      <c r="P111" s="51"/>
-      <c r="Q111" s="51"/>
-      <c r="R111" s="51"/>
-      <c r="S111" s="51"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
     </row>
     <row r="112" spans="2:19">
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="51"/>
-      <c r="O112" s="51"/>
-      <c r="P112" s="51"/>
-      <c r="Q112" s="51"/>
-      <c r="R112" s="51"/>
-      <c r="S112" s="51"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
     </row>
     <row r="113" spans="2:19">
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="51"/>
-      <c r="J113" s="51"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="51"/>
-      <c r="N113" s="51"/>
-      <c r="O113" s="51"/>
-      <c r="P113" s="51"/>
-      <c r="Q113" s="51"/>
-      <c r="R113" s="51"/>
-      <c r="S113" s="51"/>
-    </row>
-    <row r="116" spans="2:19">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+    </row>
+    <row r="116" spans="2:2">
       <c r="B116" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="117" spans="2:19">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
       <c r="B117" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="118" spans="2:19">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
       <c r="B118" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="2:19">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
       <c r="B119" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="121" spans="2:19">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
       <c r="B121" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="123" spans="2:19">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
       <c r="B123" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="124" spans="2:19">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
       <c r="B124" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="126" spans="2:19">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
       <c r="B126" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="127" spans="2:19">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
       <c r="B127" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="128" spans="2:19">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
       <c r="B128" s="9" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="9" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="9" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="9" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="9" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="9" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="9" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="9" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="9" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="9" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
       <c r="B145" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
       <c r="B146" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
       <c r="B147" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
       <c r="B148" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
       <c r="B154" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
       <c r="B155" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
       <c r="B156" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="B157" s="14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
       <c r="B158" s="9"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="2:2">
       <c r="B159" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
       <c r="B160" s="9" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -7773,148 +8432,152 @@
     <mergeCell ref="B73:S113"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" tooltip="https://blog.csdn.net/u010022051/article/details/54342326" display="https://blog.csdn.net/u010022051/article/details/54342326"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="C30" r:id="rId3" tooltip="https://github.com/zyq001/GobblinParquet"/>
-    <hyperlink ref="C31" r:id="rId4"/>
-    <hyperlink ref="C32" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6" tooltip="https://gobblin.readthedocs.io/en/latest/Getting-Started/"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="C44" r:id="rId8" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaConverter.java"/>
-    <hyperlink ref="C43" r:id="rId9" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaSource.java"/>
-    <hyperlink ref="C69" r:id="rId10"/>
-    <hyperlink ref="B49" r:id="rId11" display="1"/>
-    <hyperlink ref="B156" r:id="rId12" tooltip="https://github.com/cssdongl/gobblin/blob/master/gobblin-example/src/main/java/gobblin/example/simplejson/TimeBasedJsonWriterPartitioner.java"/>
+    <hyperlink ref="B1" r:id="rId1" tooltip="https://blog.csdn.net/u010022051/article/details/54342326"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://github.com/apache/incubator-gobblin/releases"/>
+    <hyperlink ref="C30" r:id="rId3" display="https://github.com/zyq001/GobblinParquet" tooltip="https://github.com/zyq001/GobblinParquet"/>
+    <hyperlink ref="C31" r:id="rId4" display="https://github.com/tolgabuyuktanir/GobblinKafkaToHDFS"/>
+    <hyperlink ref="C32" r:id="rId5" display="https://github.com/enginunal/Kafka2HdfsWithGobblin"/>
+    <hyperlink ref="F8" r:id="rId6" display="https://gobblin.readthedocs.io/en/latest/Getting-Started/" tooltip="https://gobblin.readthedocs.io/en/latest/Getting-Started/"/>
+    <hyperlink ref="E5" r:id="rId1" display="https://blog.csdn.net/u010022051/article/details/54342326"/>
+    <hyperlink ref="C44" r:id="rId7" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaConverter.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaConverter.java"/>
+    <hyperlink ref="C43" r:id="rId8" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaSource.java" tooltip="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/java/org/apache/gobblin/example/wikipedia/WikipediaSource.java"/>
+    <hyperlink ref="C69" r:id="rId9" display="https://github.com/apache/incubator-gobblin/blob/master/gobblin-example/src/main/resources/wikipedia.pull"/>
+    <hyperlink ref="B49" r:id="rId1" display="1"/>
+    <hyperlink ref="B156" r:id="rId10" display="https://github.com/cssdongl/gobblin/blob/master/gobblin-example/src/main/java/gobblin/example/simplejson/TimeBasedJsonWriterPartitioner.java" tooltip="https://github.com/cssdongl/gobblin/blob/master/gobblin-example/src/main/java/gobblin/example/simplejson/TimeBasedJsonWriterPartitioner.java"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="B2" s="7">
         <v>43640</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://gobblin.readthedocs.io/en/latest/user-guide/Gobblin-Deployment/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="3" spans="1:11" ht="15.6">
+    <row r="3" ht="15.6" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7925,444 +8588,449 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6">
+    <row r="8" ht="15.6" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.6">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="23.4">
+    <row r="2" ht="22.8" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23.4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" ht="22.8" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
       <c r="E43" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
       <c r="E44" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
       <c r="E49" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
       <c r="E50" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
-      <c r="C60" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="C61" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="C62" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="C63" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="C64" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
       <c r="D76" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://docs.confluent.io/2.0.0/connect/connect-hdfs/docs/index.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2" tooltip="https://blog.csdn.net/qq_38690917/article/details/81430553"/>
-    <hyperlink ref="C19" r:id="rId3" tooltip="https://blog.csdn.net/m0_37786447/article/details/80608531"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/Evankaka/article/details/55223894"/>
+    <hyperlink ref="C15" r:id="rId2" display="https://blog.csdn.net/qq_38690917/article/details/81430553" tooltip="https://blog.csdn.net/qq_38690917/article/details/81430553"/>
+    <hyperlink ref="C19" r:id="rId3" display="https://blog.csdn.net/m0_37786447/article/details/80608531" tooltip="https://blog.csdn.net/m0_37786447/article/details/80608531"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>